--- a/src/assets/trasteel/template.xlsx
+++ b/src/assets/trasteel/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucapalezza/aruba/Development/IonicApps/Ionic/src/assets/trasteel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucapalezza/aruba/Developement/Ionic/src/assets/trasteel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7617CDB-ED29-4841-B1B4-BF923DD3DB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E02867-99F4-C74E-9AC4-FA692F091285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="0" windowWidth="33680" windowHeight="21600" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="0" windowWidth="33680" windowHeight="21600" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shape" sheetId="28" r:id="rId1"/>
@@ -25,12 +25,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'budget (2)'!$V$28:$AA$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">assembly!$B$3:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'budget (2)'!$B$4:$AW$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">datasheet!$A$1:$Q$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">po!$D$4:$N$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">quantity!$B$3:$P$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">shape!$B$2:$BM$56</definedName>
     <definedName name="BAT" localSheetId="4">#REF!</definedName>
     <definedName name="BAT">#REF!</definedName>
     <definedName name="COUR" localSheetId="4">#REF!</definedName>
@@ -45,6 +39,12 @@
     <definedName name="INT">#REF!</definedName>
     <definedName name="MAR" localSheetId="4">#REF!</definedName>
     <definedName name="MAR">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">assembly!$B$3:$F$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'budget (2)'!$B$4:$AW$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">datasheet!$A$1:$Q$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">po!$D$4:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">quantity!$B$3:$P$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">shape!$B$2:$BM$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1913,30 +1913,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="24">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="#,##0.00_р;\-#,##0.00_р"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000_р;\-###0.000_р;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_р;\-###0.00_р;"/>
-    <numFmt numFmtId="173" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="175" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00_ ;\-[$$-409]#,##0.00\ "/>
-    <numFmt numFmtId="177" formatCode="[$$-409]#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="[$$-409]#,##0.000"/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_р;\-###0.0_р;"/>
-    <numFmt numFmtId="181" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="182" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.000_р_._-;\-* #,##0.000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="185" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="186" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_р;\-#,##0.00_р"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000_р;\-###0.000_р;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00_р;\-###0.00_р;"/>
+    <numFmt numFmtId="174" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[$$-409]#,##0.00_ ;\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="178" formatCode="[$$-409]#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.000"/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.0_р;\-###0.0_р;"/>
+    <numFmt numFmtId="182" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="183" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.000_р_._-;\-* #,##0.000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="186" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="187" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="70">
     <font>
@@ -3634,9 +3634,9 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
@@ -3654,7 +3654,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3716,7 +3716,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3901,7 +3901,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -3933,7 +3933,7 @@
     <xf numFmtId="15" fontId="24" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3942,7 +3942,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3951,22 +3951,22 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4253,7 +4253,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -4290,14 +4290,14 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="49" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="49" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="49" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4315,7 +4315,7 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="49" fillId="16" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="16" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4337,7 +4337,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4489,7 +4489,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4535,7 +4535,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4566,10 +4566,10 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="50" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="50" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4599,7 +4599,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4641,14 +4641,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="16" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="50" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="16" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="16" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="24" fillId="16" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4660,7 +4660,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="24" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -4786,11 +4786,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4798,27 +4798,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="49" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="49" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="49" fillId="6" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="49" fillId="6" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4842,11 +4842,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="12" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="12" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="12" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="12" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4874,15 +4874,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="13" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="26" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="13" borderId="26" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="13" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="13" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4890,11 +4890,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="9" borderId="83" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="9" borderId="83" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="24" fillId="9" borderId="84" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="24" fillId="9" borderId="84" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4942,7 +4942,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="54" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="54" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4954,7 +4954,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="54" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="54" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4998,27 +4998,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="12" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="10" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="54" fillId="16" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="54" fillId="16" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="54" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5052,14 +5052,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="10" fillId="13" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="13" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="9" borderId="85" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="10" fillId="9" borderId="86" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="86" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="55" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5092,28 +5092,28 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="47" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="47" fillId="6" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="24" fillId="6" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="6" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="47" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="6" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="6" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="6" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5125,7 +5125,7 @@
     <xf numFmtId="2" fontId="53" fillId="7" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="57" fillId="8" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="57" fillId="8" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="56" fillId="8" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5134,13 +5134,13 @@
     <xf numFmtId="10" fontId="24" fillId="7" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="58" fillId="12" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="58" fillId="12" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="12" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="58" fillId="12" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="58" fillId="12" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="12" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5152,25 +5152,25 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="58" fillId="13" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="58" fillId="13" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="58" fillId="13" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="58" fillId="13" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="58" fillId="13" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="58" fillId="13" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="58" fillId="13" borderId="27" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="58" fillId="9" borderId="87" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="58" fillId="9" borderId="88" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="58" fillId="9" borderId="87" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="58" fillId="9" borderId="88" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="10" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5194,13 +5194,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="6" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5218,7 +5218,7 @@
     <xf numFmtId="2" fontId="25" fillId="7" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="8" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="8" borderId="25" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="8" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5239,7 +5239,7 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="13" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5257,25 +5257,25 @@
     <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="25" fillId="6" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="8" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="7" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="12" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="8" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="7" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="12" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5290,43 +5290,43 @@
     <xf numFmtId="2" fontId="25" fillId="13" borderId="29" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="24" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="7" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="7" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="8" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="8" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="7" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="7" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="8" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="8" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="12" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="12" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="12" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="12" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5335,22 +5335,22 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="13" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="13" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="10" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="13" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="13" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="10" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5362,10 +5362,10 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5383,10 +5383,10 @@
     <xf numFmtId="2" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -5401,7 +5401,7 @@
     <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -5414,7 +5414,7 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -5428,7 +5428,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -5438,7 +5438,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="16" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="24" fillId="16" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5454,7 +5454,7 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="54" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyProtection="1">
@@ -5509,7 +5509,7 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="49" fillId="18" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="49" fillId="18" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5531,304 +5531,304 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="53" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="54" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="8" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="20" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="21" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="21" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="21" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="13" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="11" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="7" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="20" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="21" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="21" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="13" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="49" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="8" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="59" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="25" fillId="4" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="8" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="20" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="21" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="21" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="21" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="13" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="11" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="7" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="20" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="21" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="21" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="21" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="13" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="49" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="8" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="59" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="25" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="25" fillId="4" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
@@ -6023,25 +6023,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="4" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="4" borderId="63" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="4" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="4" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="64" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -6059,7 +6059,7 @@
     <xf numFmtId="1" fontId="25" fillId="4" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="25" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="25" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -6068,6 +6068,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -6482,10 +6485,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="43" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="77" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="43" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="77" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6512,10 +6515,10 @@
     <xf numFmtId="1" fontId="7" fillId="5" borderId="54" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="45" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="44" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="45" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="44" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="80" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6530,10 +6533,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="73" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="5" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="9" fillId="5" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="9" fillId="5" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="9" fillId="5" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6656,7 +6659,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="24" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6876,16 +6879,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="9" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="9" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="9" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="9" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="49" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6914,10 +6917,10 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="11" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="25" fillId="11" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="11" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6946,10 +6949,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="6" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="6" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="9" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6961,25 +6964,25 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="25" fillId="11" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="25" fillId="11" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="24" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="9" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="9" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="6" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="6" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="9" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="9" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6988,25 +6991,25 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="19" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="19" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="19" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="19" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="19" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="19" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7019,25 +7022,25 @@
     <xf numFmtId="0" fontId="24" fillId="19" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="24" fillId="19" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="24" fillId="19" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="19" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="19" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7079,85 +7082,85 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="19" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="19" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="19" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="19" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="19" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="19" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="24" fillId="0" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -7175,10 +7178,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="25" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1"/>
@@ -7252,16 +7255,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="22">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]_SevCo101PoL-08.05.01" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma 2" xfId="21" xr:uid="{A11ED2AA-BAF3-5B40-A7BE-556D10A27758}"/>
     <cellStyle name="Comma_AOP 231  SHAPED  NTMK LA" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma_OS00491" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7273,7 +7274,6 @@
     <cellStyle name="Normal_SevCo101PoL-08.05.01" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal_Spec-Temp" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal_SPEC(Shapes)" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="19" xr:uid="{D36D9870-7F92-AB40-A874-28644590063C}"/>
     <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Percentuale 2" xfId="20" xr:uid="{385256E9-6931-2A48-B96A-1CCCC46DC2B2}"/>
@@ -7762,18 +7762,19 @@
   </sheetPr>
   <dimension ref="A1:BM57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="185" zoomScaleNormal="39" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AT1048576"/>
-    </sheetView>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="185" zoomScaleNormal="39" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="65" width="1.796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="2.796875" style="28" customWidth="1"/>
+    <col min="3" max="64" width="1.796875" style="28" customWidth="1"/>
+    <col min="65" max="65" width="2.796875" style="28" customWidth="1"/>
     <col min="66" max="16384" width="9.19921875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:65" s="25" customFormat="1" ht="8.25" customHeight="1"/>
-    <row r="2" spans="2:65" s="25" customFormat="1" ht="8.25" customHeight="1" thickBot="1">
+    <row r="2" spans="2:65" s="25" customFormat="1" ht="19" customHeight="1" thickBot="1">
       <c r="B2" s="142"/>
       <c r="C2" s="143"/>
       <c r="D2" s="144"/>
@@ -8767,20 +8768,20 @@
       <c r="B17" s="123"/>
       <c r="C17" s="124"/>
       <c r="D17" s="125"/>
-      <c r="E17" s="787" t="s">
+      <c r="E17" s="788" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="788"/>
-      <c r="G17" s="775" t="s">
+      <c r="F17" s="789"/>
+      <c r="G17" s="776" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="776"/>
-      <c r="I17" s="776"/>
-      <c r="J17" s="776"/>
-      <c r="K17" s="776"/>
-      <c r="L17" s="776"/>
-      <c r="M17" s="776"/>
-      <c r="N17" s="776"/>
+      <c r="H17" s="777"/>
+      <c r="I17" s="777"/>
+      <c r="J17" s="777"/>
+      <c r="K17" s="777"/>
+      <c r="L17" s="777"/>
+      <c r="M17" s="777"/>
+      <c r="N17" s="777"/>
       <c r="O17" s="157"/>
       <c r="P17" s="157"/>
       <c r="Q17" s="157"/>
@@ -8819,20 +8820,20 @@
       <c r="AX17" s="158"/>
       <c r="AY17" s="157"/>
       <c r="AZ17" s="157"/>
-      <c r="BA17" s="779" t="s">
+      <c r="BA17" s="780" t="s">
         <v>40</v>
       </c>
-      <c r="BB17" s="776"/>
-      <c r="BC17" s="776"/>
-      <c r="BD17" s="776"/>
-      <c r="BE17" s="776"/>
-      <c r="BF17" s="775" t="s">
+      <c r="BB17" s="777"/>
+      <c r="BC17" s="777"/>
+      <c r="BD17" s="777"/>
+      <c r="BE17" s="777"/>
+      <c r="BF17" s="776" t="s">
         <v>31</v>
       </c>
-      <c r="BG17" s="776"/>
-      <c r="BH17" s="776"/>
-      <c r="BI17" s="776"/>
-      <c r="BJ17" s="776"/>
+      <c r="BG17" s="777"/>
+      <c r="BH17" s="777"/>
+      <c r="BI17" s="777"/>
+      <c r="BJ17" s="777"/>
       <c r="BK17" s="125"/>
       <c r="BL17" s="127"/>
       <c r="BM17" s="128"/>
@@ -8841,16 +8842,16 @@
       <c r="B18" s="123"/>
       <c r="C18" s="124"/>
       <c r="D18" s="125"/>
-      <c r="E18" s="788"/>
-      <c r="F18" s="788"/>
-      <c r="G18" s="776"/>
-      <c r="H18" s="776"/>
-      <c r="I18" s="776"/>
-      <c r="J18" s="776"/>
-      <c r="K18" s="776"/>
-      <c r="L18" s="776"/>
-      <c r="M18" s="776"/>
-      <c r="N18" s="776"/>
+      <c r="E18" s="789"/>
+      <c r="F18" s="789"/>
+      <c r="G18" s="777"/>
+      <c r="H18" s="777"/>
+      <c r="I18" s="777"/>
+      <c r="J18" s="777"/>
+      <c r="K18" s="777"/>
+      <c r="L18" s="777"/>
+      <c r="M18" s="777"/>
+      <c r="N18" s="777"/>
       <c r="O18" s="157"/>
       <c r="P18" s="157"/>
       <c r="Q18" s="157"/>
@@ -8889,20 +8890,20 @@
       <c r="AX18" s="157"/>
       <c r="AY18" s="157"/>
       <c r="AZ18" s="157"/>
-      <c r="BA18" s="775" t="s">
+      <c r="BA18" s="776" t="s">
         <v>66</v>
       </c>
-      <c r="BB18" s="776"/>
-      <c r="BC18" s="776"/>
-      <c r="BD18" s="776"/>
-      <c r="BE18" s="776"/>
-      <c r="BF18" s="777" t="s">
+      <c r="BB18" s="777"/>
+      <c r="BC18" s="777"/>
+      <c r="BD18" s="777"/>
+      <c r="BE18" s="777"/>
+      <c r="BF18" s="778" t="s">
         <v>41</v>
       </c>
-      <c r="BG18" s="778"/>
-      <c r="BH18" s="778"/>
-      <c r="BI18" s="778"/>
-      <c r="BJ18" s="779"/>
+      <c r="BG18" s="779"/>
+      <c r="BH18" s="779"/>
+      <c r="BI18" s="779"/>
+      <c r="BJ18" s="780"/>
       <c r="BK18" s="125"/>
       <c r="BL18" s="127"/>
       <c r="BM18" s="128"/>
@@ -8912,56 +8913,56 @@
       <c r="B19" s="123"/>
       <c r="C19" s="124"/>
       <c r="D19" s="125"/>
-      <c r="E19" s="780"/>
-      <c r="F19" s="781"/>
-      <c r="G19" s="781"/>
-      <c r="H19" s="781"/>
-      <c r="I19" s="781"/>
-      <c r="J19" s="781"/>
-      <c r="K19" s="781"/>
-      <c r="L19" s="781"/>
-      <c r="M19" s="781"/>
-      <c r="N19" s="781"/>
-      <c r="O19" s="781"/>
-      <c r="P19" s="781"/>
-      <c r="Q19" s="781"/>
-      <c r="R19" s="782"/>
-      <c r="S19" s="782"/>
-      <c r="T19" s="782"/>
-      <c r="U19" s="782"/>
-      <c r="V19" s="782"/>
-      <c r="W19" s="783" t="s">
+      <c r="E19" s="781"/>
+      <c r="F19" s="782"/>
+      <c r="G19" s="782"/>
+      <c r="H19" s="782"/>
+      <c r="I19" s="782"/>
+      <c r="J19" s="782"/>
+      <c r="K19" s="782"/>
+      <c r="L19" s="782"/>
+      <c r="M19" s="782"/>
+      <c r="N19" s="782"/>
+      <c r="O19" s="782"/>
+      <c r="P19" s="782"/>
+      <c r="Q19" s="782"/>
+      <c r="R19" s="783"/>
+      <c r="S19" s="783"/>
+      <c r="T19" s="783"/>
+      <c r="U19" s="783"/>
+      <c r="V19" s="783"/>
+      <c r="W19" s="784" t="s">
         <v>67</v>
       </c>
-      <c r="X19" s="783"/>
-      <c r="Y19" s="783"/>
-      <c r="Z19" s="783"/>
-      <c r="AA19" s="784"/>
-      <c r="AB19" s="784"/>
-      <c r="AC19" s="784"/>
-      <c r="AD19" s="784"/>
-      <c r="AE19" s="784"/>
-      <c r="AF19" s="784"/>
-      <c r="AG19" s="784"/>
-      <c r="AH19" s="784"/>
-      <c r="AI19" s="784"/>
-      <c r="AJ19" s="784"/>
-      <c r="AK19" s="784"/>
-      <c r="AL19" s="784"/>
-      <c r="AM19" s="784"/>
-      <c r="AN19" s="784"/>
-      <c r="AO19" s="784"/>
-      <c r="AP19" s="784"/>
-      <c r="AQ19" s="784"/>
-      <c r="AR19" s="784"/>
-      <c r="AS19" s="784"/>
-      <c r="AT19" s="784"/>
-      <c r="AU19" s="784"/>
-      <c r="AV19" s="784"/>
-      <c r="AW19" s="784"/>
-      <c r="AX19" s="784"/>
-      <c r="AY19" s="784"/>
-      <c r="AZ19" s="784"/>
+      <c r="X19" s="784"/>
+      <c r="Y19" s="784"/>
+      <c r="Z19" s="784"/>
+      <c r="AA19" s="785"/>
+      <c r="AB19" s="785"/>
+      <c r="AC19" s="785"/>
+      <c r="AD19" s="785"/>
+      <c r="AE19" s="785"/>
+      <c r="AF19" s="785"/>
+      <c r="AG19" s="785"/>
+      <c r="AH19" s="785"/>
+      <c r="AI19" s="785"/>
+      <c r="AJ19" s="785"/>
+      <c r="AK19" s="785"/>
+      <c r="AL19" s="785"/>
+      <c r="AM19" s="785"/>
+      <c r="AN19" s="785"/>
+      <c r="AO19" s="785"/>
+      <c r="AP19" s="785"/>
+      <c r="AQ19" s="785"/>
+      <c r="AR19" s="785"/>
+      <c r="AS19" s="785"/>
+      <c r="AT19" s="785"/>
+      <c r="AU19" s="785"/>
+      <c r="AV19" s="785"/>
+      <c r="AW19" s="785"/>
+      <c r="AX19" s="785"/>
+      <c r="AY19" s="785"/>
+      <c r="AZ19" s="785"/>
       <c r="BA19" s="569"/>
       <c r="BB19" s="569"/>
       <c r="BC19" s="569"/>
@@ -8980,16 +8981,16 @@
       <c r="B20" s="123"/>
       <c r="C20" s="124"/>
       <c r="D20" s="125"/>
-      <c r="E20" s="775"/>
-      <c r="F20" s="776"/>
-      <c r="G20" s="775"/>
-      <c r="H20" s="785"/>
-      <c r="I20" s="785"/>
-      <c r="J20" s="785"/>
-      <c r="K20" s="785"/>
-      <c r="L20" s="785"/>
-      <c r="M20" s="785"/>
-      <c r="N20" s="785"/>
+      <c r="E20" s="776"/>
+      <c r="F20" s="777"/>
+      <c r="G20" s="776"/>
+      <c r="H20" s="786"/>
+      <c r="I20" s="786"/>
+      <c r="J20" s="786"/>
+      <c r="K20" s="786"/>
+      <c r="L20" s="786"/>
+      <c r="M20" s="786"/>
+      <c r="N20" s="786"/>
       <c r="O20" s="157"/>
       <c r="P20" s="157"/>
       <c r="Q20" s="157"/>
@@ -9028,16 +9029,16 @@
       <c r="AX20" s="568"/>
       <c r="AY20" s="157"/>
       <c r="AZ20" s="157"/>
-      <c r="BA20" s="775"/>
-      <c r="BB20" s="786"/>
-      <c r="BC20" s="786"/>
-      <c r="BD20" s="786"/>
-      <c r="BE20" s="786"/>
-      <c r="BF20" s="775"/>
-      <c r="BG20" s="786"/>
-      <c r="BH20" s="786"/>
-      <c r="BI20" s="786"/>
-      <c r="BJ20" s="786"/>
+      <c r="BA20" s="776"/>
+      <c r="BB20" s="787"/>
+      <c r="BC20" s="787"/>
+      <c r="BD20" s="787"/>
+      <c r="BE20" s="787"/>
+      <c r="BF20" s="776"/>
+      <c r="BG20" s="787"/>
+      <c r="BH20" s="787"/>
+      <c r="BI20" s="787"/>
+      <c r="BJ20" s="787"/>
       <c r="BK20" s="125"/>
       <c r="BL20" s="127"/>
       <c r="BM20" s="128"/>
@@ -9046,16 +9047,16 @@
       <c r="B21" s="123"/>
       <c r="C21" s="124"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="789"/>
-      <c r="F21" s="790"/>
-      <c r="G21" s="789"/>
-      <c r="H21" s="791"/>
-      <c r="I21" s="791"/>
-      <c r="J21" s="791"/>
-      <c r="K21" s="791"/>
-      <c r="L21" s="791"/>
-      <c r="M21" s="791"/>
-      <c r="N21" s="791"/>
+      <c r="E21" s="790"/>
+      <c r="F21" s="791"/>
+      <c r="G21" s="790"/>
+      <c r="H21" s="792"/>
+      <c r="I21" s="792"/>
+      <c r="J21" s="792"/>
+      <c r="K21" s="792"/>
+      <c r="L21" s="792"/>
+      <c r="M21" s="792"/>
+      <c r="N21" s="792"/>
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
       <c r="Q21" s="126"/>
@@ -9094,16 +9095,16 @@
       <c r="AX21" s="126"/>
       <c r="AY21" s="126"/>
       <c r="AZ21" s="126"/>
-      <c r="BA21" s="789"/>
-      <c r="BB21" s="792"/>
-      <c r="BC21" s="792"/>
-      <c r="BD21" s="792"/>
-      <c r="BE21" s="792"/>
-      <c r="BF21" s="789"/>
-      <c r="BG21" s="792"/>
-      <c r="BH21" s="792"/>
-      <c r="BI21" s="792"/>
-      <c r="BJ21" s="792"/>
+      <c r="BA21" s="790"/>
+      <c r="BB21" s="793"/>
+      <c r="BC21" s="793"/>
+      <c r="BD21" s="793"/>
+      <c r="BE21" s="793"/>
+      <c r="BF21" s="790"/>
+      <c r="BG21" s="793"/>
+      <c r="BH21" s="793"/>
+      <c r="BI21" s="793"/>
+      <c r="BJ21" s="793"/>
       <c r="BK21" s="125"/>
       <c r="BL21" s="127"/>
       <c r="BM21" s="128"/>
@@ -9112,16 +9113,16 @@
       <c r="B22" s="123"/>
       <c r="C22" s="124"/>
       <c r="D22" s="125"/>
-      <c r="E22" s="789"/>
-      <c r="F22" s="790"/>
-      <c r="G22" s="789"/>
-      <c r="H22" s="791"/>
-      <c r="I22" s="791"/>
-      <c r="J22" s="791"/>
-      <c r="K22" s="791"/>
-      <c r="L22" s="791"/>
-      <c r="M22" s="791"/>
-      <c r="N22" s="791"/>
+      <c r="E22" s="790"/>
+      <c r="F22" s="791"/>
+      <c r="G22" s="790"/>
+      <c r="H22" s="792"/>
+      <c r="I22" s="792"/>
+      <c r="J22" s="792"/>
+      <c r="K22" s="792"/>
+      <c r="L22" s="792"/>
+      <c r="M22" s="792"/>
+      <c r="N22" s="792"/>
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
       <c r="Q22" s="126"/>
@@ -9160,16 +9161,16 @@
       <c r="AX22" s="126"/>
       <c r="AY22" s="126"/>
       <c r="AZ22" s="126"/>
-      <c r="BA22" s="789"/>
-      <c r="BB22" s="792"/>
-      <c r="BC22" s="792"/>
-      <c r="BD22" s="792"/>
-      <c r="BE22" s="792"/>
-      <c r="BF22" s="789"/>
-      <c r="BG22" s="792"/>
-      <c r="BH22" s="792"/>
-      <c r="BI22" s="792"/>
-      <c r="BJ22" s="792"/>
+      <c r="BA22" s="790"/>
+      <c r="BB22" s="793"/>
+      <c r="BC22" s="793"/>
+      <c r="BD22" s="793"/>
+      <c r="BE22" s="793"/>
+      <c r="BF22" s="790"/>
+      <c r="BG22" s="793"/>
+      <c r="BH22" s="793"/>
+      <c r="BI22" s="793"/>
+      <c r="BJ22" s="793"/>
       <c r="BK22" s="125"/>
       <c r="BL22" s="127"/>
       <c r="BM22" s="128"/>
@@ -9178,16 +9179,16 @@
       <c r="B23" s="123"/>
       <c r="C23" s="124"/>
       <c r="D23" s="125"/>
-      <c r="E23" s="789"/>
-      <c r="F23" s="790"/>
-      <c r="G23" s="789"/>
-      <c r="H23" s="791"/>
-      <c r="I23" s="791"/>
-      <c r="J23" s="791"/>
-      <c r="K23" s="791"/>
-      <c r="L23" s="791"/>
-      <c r="M23" s="791"/>
-      <c r="N23" s="791"/>
+      <c r="E23" s="790"/>
+      <c r="F23" s="791"/>
+      <c r="G23" s="790"/>
+      <c r="H23" s="792"/>
+      <c r="I23" s="792"/>
+      <c r="J23" s="792"/>
+      <c r="K23" s="792"/>
+      <c r="L23" s="792"/>
+      <c r="M23" s="792"/>
+      <c r="N23" s="792"/>
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
       <c r="Q23" s="126"/>
@@ -9226,16 +9227,16 @@
       <c r="AX23" s="126"/>
       <c r="AY23" s="126"/>
       <c r="AZ23" s="126"/>
-      <c r="BA23" s="789"/>
-      <c r="BB23" s="792"/>
-      <c r="BC23" s="792"/>
-      <c r="BD23" s="792"/>
-      <c r="BE23" s="792"/>
-      <c r="BF23" s="789"/>
-      <c r="BG23" s="792"/>
-      <c r="BH23" s="792"/>
-      <c r="BI23" s="792"/>
-      <c r="BJ23" s="792"/>
+      <c r="BA23" s="790"/>
+      <c r="BB23" s="793"/>
+      <c r="BC23" s="793"/>
+      <c r="BD23" s="793"/>
+      <c r="BE23" s="793"/>
+      <c r="BF23" s="790"/>
+      <c r="BG23" s="793"/>
+      <c r="BH23" s="793"/>
+      <c r="BI23" s="793"/>
+      <c r="BJ23" s="793"/>
       <c r="BK23" s="125"/>
       <c r="BL23" s="127"/>
       <c r="BM23" s="128"/>
@@ -9244,16 +9245,16 @@
       <c r="B24" s="123"/>
       <c r="C24" s="124"/>
       <c r="D24" s="125"/>
-      <c r="E24" s="789"/>
-      <c r="F24" s="790"/>
-      <c r="G24" s="789"/>
-      <c r="H24" s="791"/>
-      <c r="I24" s="791"/>
-      <c r="J24" s="791"/>
-      <c r="K24" s="791"/>
-      <c r="L24" s="791"/>
-      <c r="M24" s="791"/>
-      <c r="N24" s="791"/>
+      <c r="E24" s="790"/>
+      <c r="F24" s="791"/>
+      <c r="G24" s="790"/>
+      <c r="H24" s="792"/>
+      <c r="I24" s="792"/>
+      <c r="J24" s="792"/>
+      <c r="K24" s="792"/>
+      <c r="L24" s="792"/>
+      <c r="M24" s="792"/>
+      <c r="N24" s="792"/>
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
       <c r="Q24" s="126"/>
@@ -9292,16 +9293,16 @@
       <c r="AX24" s="126"/>
       <c r="AY24" s="126"/>
       <c r="AZ24" s="126"/>
-      <c r="BA24" s="789"/>
-      <c r="BB24" s="792"/>
-      <c r="BC24" s="792"/>
-      <c r="BD24" s="792"/>
-      <c r="BE24" s="792"/>
-      <c r="BF24" s="789"/>
-      <c r="BG24" s="792"/>
-      <c r="BH24" s="792"/>
-      <c r="BI24" s="792"/>
-      <c r="BJ24" s="792"/>
+      <c r="BA24" s="790"/>
+      <c r="BB24" s="793"/>
+      <c r="BC24" s="793"/>
+      <c r="BD24" s="793"/>
+      <c r="BE24" s="793"/>
+      <c r="BF24" s="790"/>
+      <c r="BG24" s="793"/>
+      <c r="BH24" s="793"/>
+      <c r="BI24" s="793"/>
+      <c r="BJ24" s="793"/>
       <c r="BK24" s="125"/>
       <c r="BL24" s="127"/>
       <c r="BM24" s="128"/>
@@ -9310,16 +9311,16 @@
       <c r="B25" s="123"/>
       <c r="C25" s="124"/>
       <c r="D25" s="125"/>
-      <c r="E25" s="789"/>
-      <c r="F25" s="790"/>
-      <c r="G25" s="789"/>
-      <c r="H25" s="791"/>
-      <c r="I25" s="791"/>
-      <c r="J25" s="791"/>
-      <c r="K25" s="791"/>
-      <c r="L25" s="791"/>
-      <c r="M25" s="791"/>
-      <c r="N25" s="791"/>
+      <c r="E25" s="790"/>
+      <c r="F25" s="791"/>
+      <c r="G25" s="790"/>
+      <c r="H25" s="792"/>
+      <c r="I25" s="792"/>
+      <c r="J25" s="792"/>
+      <c r="K25" s="792"/>
+      <c r="L25" s="792"/>
+      <c r="M25" s="792"/>
+      <c r="N25" s="792"/>
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
       <c r="Q25" s="126"/>
@@ -9358,16 +9359,16 @@
       <c r="AX25" s="126"/>
       <c r="AY25" s="126"/>
       <c r="AZ25" s="126"/>
-      <c r="BA25" s="789"/>
-      <c r="BB25" s="792"/>
-      <c r="BC25" s="792"/>
-      <c r="BD25" s="792"/>
-      <c r="BE25" s="792"/>
-      <c r="BF25" s="789"/>
-      <c r="BG25" s="792"/>
-      <c r="BH25" s="792"/>
-      <c r="BI25" s="792"/>
-      <c r="BJ25" s="792"/>
+      <c r="BA25" s="790"/>
+      <c r="BB25" s="793"/>
+      <c r="BC25" s="793"/>
+      <c r="BD25" s="793"/>
+      <c r="BE25" s="793"/>
+      <c r="BF25" s="790"/>
+      <c r="BG25" s="793"/>
+      <c r="BH25" s="793"/>
+      <c r="BI25" s="793"/>
+      <c r="BJ25" s="793"/>
       <c r="BK25" s="125"/>
       <c r="BL25" s="127"/>
       <c r="BM25" s="128"/>
@@ -9376,16 +9377,16 @@
       <c r="B26" s="123"/>
       <c r="C26" s="124"/>
       <c r="D26" s="125"/>
-      <c r="E26" s="789"/>
-      <c r="F26" s="790"/>
-      <c r="G26" s="789"/>
-      <c r="H26" s="791"/>
-      <c r="I26" s="791"/>
-      <c r="J26" s="791"/>
-      <c r="K26" s="791"/>
-      <c r="L26" s="791"/>
-      <c r="M26" s="791"/>
-      <c r="N26" s="791"/>
+      <c r="E26" s="790"/>
+      <c r="F26" s="791"/>
+      <c r="G26" s="790"/>
+      <c r="H26" s="792"/>
+      <c r="I26" s="792"/>
+      <c r="J26" s="792"/>
+      <c r="K26" s="792"/>
+      <c r="L26" s="792"/>
+      <c r="M26" s="792"/>
+      <c r="N26" s="792"/>
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
       <c r="Q26" s="126"/>
@@ -9424,16 +9425,16 @@
       <c r="AX26" s="126"/>
       <c r="AY26" s="126"/>
       <c r="AZ26" s="126"/>
-      <c r="BA26" s="789"/>
-      <c r="BB26" s="792"/>
-      <c r="BC26" s="792"/>
-      <c r="BD26" s="792"/>
-      <c r="BE26" s="792"/>
-      <c r="BF26" s="789"/>
-      <c r="BG26" s="792"/>
-      <c r="BH26" s="792"/>
-      <c r="BI26" s="792"/>
-      <c r="BJ26" s="792"/>
+      <c r="BA26" s="790"/>
+      <c r="BB26" s="793"/>
+      <c r="BC26" s="793"/>
+      <c r="BD26" s="793"/>
+      <c r="BE26" s="793"/>
+      <c r="BF26" s="790"/>
+      <c r="BG26" s="793"/>
+      <c r="BH26" s="793"/>
+      <c r="BI26" s="793"/>
+      <c r="BJ26" s="793"/>
       <c r="BK26" s="125"/>
       <c r="BL26" s="127"/>
       <c r="BM26" s="128"/>
@@ -9442,16 +9443,16 @@
       <c r="B27" s="123"/>
       <c r="C27" s="124"/>
       <c r="D27" s="125"/>
-      <c r="E27" s="789"/>
-      <c r="F27" s="790"/>
-      <c r="G27" s="789"/>
-      <c r="H27" s="791"/>
-      <c r="I27" s="791"/>
-      <c r="J27" s="791"/>
-      <c r="K27" s="791"/>
-      <c r="L27" s="791"/>
-      <c r="M27" s="791"/>
-      <c r="N27" s="791"/>
+      <c r="E27" s="790"/>
+      <c r="F27" s="791"/>
+      <c r="G27" s="790"/>
+      <c r="H27" s="792"/>
+      <c r="I27" s="792"/>
+      <c r="J27" s="792"/>
+      <c r="K27" s="792"/>
+      <c r="L27" s="792"/>
+      <c r="M27" s="792"/>
+      <c r="N27" s="792"/>
       <c r="O27" s="126"/>
       <c r="P27" s="126"/>
       <c r="Q27" s="126"/>
@@ -9490,16 +9491,16 @@
       <c r="AX27" s="126"/>
       <c r="AY27" s="126"/>
       <c r="AZ27" s="126"/>
-      <c r="BA27" s="789"/>
-      <c r="BB27" s="792"/>
-      <c r="BC27" s="792"/>
-      <c r="BD27" s="792"/>
-      <c r="BE27" s="792"/>
-      <c r="BF27" s="789"/>
-      <c r="BG27" s="792"/>
-      <c r="BH27" s="792"/>
-      <c r="BI27" s="792"/>
-      <c r="BJ27" s="792"/>
+      <c r="BA27" s="790"/>
+      <c r="BB27" s="793"/>
+      <c r="BC27" s="793"/>
+      <c r="BD27" s="793"/>
+      <c r="BE27" s="793"/>
+      <c r="BF27" s="790"/>
+      <c r="BG27" s="793"/>
+      <c r="BH27" s="793"/>
+      <c r="BI27" s="793"/>
+      <c r="BJ27" s="793"/>
       <c r="BK27" s="125"/>
       <c r="BL27" s="127"/>
       <c r="BM27" s="128"/>
@@ -9508,16 +9509,16 @@
       <c r="B28" s="123"/>
       <c r="C28" s="124"/>
       <c r="D28" s="125"/>
-      <c r="E28" s="789"/>
-      <c r="F28" s="790"/>
-      <c r="G28" s="789"/>
-      <c r="H28" s="791"/>
-      <c r="I28" s="791"/>
-      <c r="J28" s="791"/>
-      <c r="K28" s="791"/>
-      <c r="L28" s="791"/>
-      <c r="M28" s="791"/>
-      <c r="N28" s="791"/>
+      <c r="E28" s="790"/>
+      <c r="F28" s="791"/>
+      <c r="G28" s="790"/>
+      <c r="H28" s="792"/>
+      <c r="I28" s="792"/>
+      <c r="J28" s="792"/>
+      <c r="K28" s="792"/>
+      <c r="L28" s="792"/>
+      <c r="M28" s="792"/>
+      <c r="N28" s="792"/>
       <c r="O28" s="126"/>
       <c r="P28" s="126"/>
       <c r="Q28" s="126"/>
@@ -9556,16 +9557,16 @@
       <c r="AX28" s="126"/>
       <c r="AY28" s="126"/>
       <c r="AZ28" s="126"/>
-      <c r="BA28" s="789"/>
-      <c r="BB28" s="792"/>
-      <c r="BC28" s="792"/>
-      <c r="BD28" s="792"/>
-      <c r="BE28" s="792"/>
-      <c r="BF28" s="789"/>
-      <c r="BG28" s="792"/>
-      <c r="BH28" s="792"/>
-      <c r="BI28" s="792"/>
-      <c r="BJ28" s="792"/>
+      <c r="BA28" s="790"/>
+      <c r="BB28" s="793"/>
+      <c r="BC28" s="793"/>
+      <c r="BD28" s="793"/>
+      <c r="BE28" s="793"/>
+      <c r="BF28" s="790"/>
+      <c r="BG28" s="793"/>
+      <c r="BH28" s="793"/>
+      <c r="BI28" s="793"/>
+      <c r="BJ28" s="793"/>
       <c r="BK28" s="125"/>
       <c r="BL28" s="127"/>
       <c r="BM28" s="128"/>
@@ -9574,16 +9575,16 @@
       <c r="B29" s="123"/>
       <c r="C29" s="124"/>
       <c r="D29" s="125"/>
-      <c r="E29" s="789"/>
-      <c r="F29" s="790"/>
-      <c r="G29" s="789"/>
-      <c r="H29" s="791"/>
-      <c r="I29" s="791"/>
-      <c r="J29" s="791"/>
-      <c r="K29" s="791"/>
-      <c r="L29" s="791"/>
-      <c r="M29" s="791"/>
-      <c r="N29" s="791"/>
+      <c r="E29" s="790"/>
+      <c r="F29" s="791"/>
+      <c r="G29" s="790"/>
+      <c r="H29" s="792"/>
+      <c r="I29" s="792"/>
+      <c r="J29" s="792"/>
+      <c r="K29" s="792"/>
+      <c r="L29" s="792"/>
+      <c r="M29" s="792"/>
+      <c r="N29" s="792"/>
       <c r="O29" s="126"/>
       <c r="P29" s="126"/>
       <c r="Q29" s="126"/>
@@ -9622,16 +9623,16 @@
       <c r="AX29" s="126"/>
       <c r="AY29" s="126"/>
       <c r="AZ29" s="126"/>
-      <c r="BA29" s="789"/>
-      <c r="BB29" s="792"/>
-      <c r="BC29" s="792"/>
-      <c r="BD29" s="792"/>
-      <c r="BE29" s="792"/>
-      <c r="BF29" s="789"/>
-      <c r="BG29" s="792"/>
-      <c r="BH29" s="792"/>
-      <c r="BI29" s="792"/>
-      <c r="BJ29" s="792"/>
+      <c r="BA29" s="790"/>
+      <c r="BB29" s="793"/>
+      <c r="BC29" s="793"/>
+      <c r="BD29" s="793"/>
+      <c r="BE29" s="793"/>
+      <c r="BF29" s="790"/>
+      <c r="BG29" s="793"/>
+      <c r="BH29" s="793"/>
+      <c r="BI29" s="793"/>
+      <c r="BJ29" s="793"/>
       <c r="BK29" s="125"/>
       <c r="BL29" s="127"/>
       <c r="BM29" s="128"/>
@@ -9640,16 +9641,16 @@
       <c r="B30" s="123"/>
       <c r="C30" s="124"/>
       <c r="D30" s="125"/>
-      <c r="E30" s="789"/>
-      <c r="F30" s="790"/>
-      <c r="G30" s="789"/>
-      <c r="H30" s="791"/>
-      <c r="I30" s="791"/>
-      <c r="J30" s="791"/>
-      <c r="K30" s="791"/>
-      <c r="L30" s="791"/>
-      <c r="M30" s="791"/>
-      <c r="N30" s="791"/>
+      <c r="E30" s="790"/>
+      <c r="F30" s="791"/>
+      <c r="G30" s="790"/>
+      <c r="H30" s="792"/>
+      <c r="I30" s="792"/>
+      <c r="J30" s="792"/>
+      <c r="K30" s="792"/>
+      <c r="L30" s="792"/>
+      <c r="M30" s="792"/>
+      <c r="N30" s="792"/>
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
       <c r="Q30" s="126"/>
@@ -9688,16 +9689,16 @@
       <c r="AX30" s="126"/>
       <c r="AY30" s="126"/>
       <c r="AZ30" s="126"/>
-      <c r="BA30" s="789"/>
-      <c r="BB30" s="792"/>
-      <c r="BC30" s="792"/>
-      <c r="BD30" s="792"/>
-      <c r="BE30" s="792"/>
-      <c r="BF30" s="789"/>
-      <c r="BG30" s="792"/>
-      <c r="BH30" s="792"/>
-      <c r="BI30" s="792"/>
-      <c r="BJ30" s="792"/>
+      <c r="BA30" s="790"/>
+      <c r="BB30" s="793"/>
+      <c r="BC30" s="793"/>
+      <c r="BD30" s="793"/>
+      <c r="BE30" s="793"/>
+      <c r="BF30" s="790"/>
+      <c r="BG30" s="793"/>
+      <c r="BH30" s="793"/>
+      <c r="BI30" s="793"/>
+      <c r="BJ30" s="793"/>
       <c r="BK30" s="129"/>
       <c r="BL30" s="127"/>
       <c r="BM30" s="128"/>
@@ -9706,16 +9707,16 @@
       <c r="B31" s="123"/>
       <c r="C31" s="124"/>
       <c r="D31" s="125"/>
-      <c r="E31" s="789"/>
-      <c r="F31" s="790"/>
-      <c r="G31" s="789"/>
-      <c r="H31" s="791"/>
-      <c r="I31" s="791"/>
-      <c r="J31" s="791"/>
-      <c r="K31" s="791"/>
-      <c r="L31" s="791"/>
-      <c r="M31" s="791"/>
-      <c r="N31" s="791"/>
+      <c r="E31" s="790"/>
+      <c r="F31" s="791"/>
+      <c r="G31" s="790"/>
+      <c r="H31" s="792"/>
+      <c r="I31" s="792"/>
+      <c r="J31" s="792"/>
+      <c r="K31" s="792"/>
+      <c r="L31" s="792"/>
+      <c r="M31" s="792"/>
+      <c r="N31" s="792"/>
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
       <c r="Q31" s="126"/>
@@ -9754,16 +9755,16 @@
       <c r="AX31" s="126"/>
       <c r="AY31" s="126"/>
       <c r="AZ31" s="126"/>
-      <c r="BA31" s="789"/>
-      <c r="BB31" s="792"/>
-      <c r="BC31" s="792"/>
-      <c r="BD31" s="792"/>
-      <c r="BE31" s="792"/>
-      <c r="BF31" s="789"/>
-      <c r="BG31" s="792"/>
-      <c r="BH31" s="792"/>
-      <c r="BI31" s="792"/>
-      <c r="BJ31" s="792"/>
+      <c r="BA31" s="790"/>
+      <c r="BB31" s="793"/>
+      <c r="BC31" s="793"/>
+      <c r="BD31" s="793"/>
+      <c r="BE31" s="793"/>
+      <c r="BF31" s="790"/>
+      <c r="BG31" s="793"/>
+      <c r="BH31" s="793"/>
+      <c r="BI31" s="793"/>
+      <c r="BJ31" s="793"/>
       <c r="BK31" s="125"/>
       <c r="BL31" s="130"/>
       <c r="BM31" s="128"/>
@@ -9772,16 +9773,16 @@
       <c r="B32" s="123"/>
       <c r="C32" s="124"/>
       <c r="D32" s="125"/>
-      <c r="E32" s="789"/>
-      <c r="F32" s="790"/>
-      <c r="G32" s="789"/>
-      <c r="H32" s="791"/>
-      <c r="I32" s="791"/>
-      <c r="J32" s="791"/>
-      <c r="K32" s="791"/>
-      <c r="L32" s="791"/>
-      <c r="M32" s="791"/>
-      <c r="N32" s="791"/>
+      <c r="E32" s="790"/>
+      <c r="F32" s="791"/>
+      <c r="G32" s="790"/>
+      <c r="H32" s="792"/>
+      <c r="I32" s="792"/>
+      <c r="J32" s="792"/>
+      <c r="K32" s="792"/>
+      <c r="L32" s="792"/>
+      <c r="M32" s="792"/>
+      <c r="N32" s="792"/>
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
       <c r="Q32" s="126"/>
@@ -9820,16 +9821,16 @@
       <c r="AX32" s="126"/>
       <c r="AY32" s="126"/>
       <c r="AZ32" s="126"/>
-      <c r="BA32" s="789"/>
-      <c r="BB32" s="792"/>
-      <c r="BC32" s="792"/>
-      <c r="BD32" s="792"/>
-      <c r="BE32" s="792"/>
-      <c r="BF32" s="789"/>
-      <c r="BG32" s="792"/>
-      <c r="BH32" s="792"/>
-      <c r="BI32" s="792"/>
-      <c r="BJ32" s="792"/>
+      <c r="BA32" s="790"/>
+      <c r="BB32" s="793"/>
+      <c r="BC32" s="793"/>
+      <c r="BD32" s="793"/>
+      <c r="BE32" s="793"/>
+      <c r="BF32" s="790"/>
+      <c r="BG32" s="793"/>
+      <c r="BH32" s="793"/>
+      <c r="BI32" s="793"/>
+      <c r="BJ32" s="793"/>
       <c r="BK32" s="131"/>
       <c r="BL32" s="130"/>
       <c r="BM32" s="128"/>
@@ -9838,16 +9839,16 @@
       <c r="B33" s="123"/>
       <c r="C33" s="124"/>
       <c r="D33" s="125"/>
-      <c r="E33" s="789"/>
-      <c r="F33" s="790"/>
-      <c r="G33" s="789"/>
-      <c r="H33" s="791"/>
-      <c r="I33" s="791"/>
-      <c r="J33" s="791"/>
-      <c r="K33" s="791"/>
-      <c r="L33" s="791"/>
-      <c r="M33" s="791"/>
-      <c r="N33" s="791"/>
+      <c r="E33" s="790"/>
+      <c r="F33" s="791"/>
+      <c r="G33" s="790"/>
+      <c r="H33" s="792"/>
+      <c r="I33" s="792"/>
+      <c r="J33" s="792"/>
+      <c r="K33" s="792"/>
+      <c r="L33" s="792"/>
+      <c r="M33" s="792"/>
+      <c r="N33" s="792"/>
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
       <c r="Q33" s="126"/>
@@ -9886,16 +9887,16 @@
       <c r="AX33" s="126"/>
       <c r="AY33" s="126"/>
       <c r="AZ33" s="126"/>
-      <c r="BA33" s="789"/>
-      <c r="BB33" s="792"/>
-      <c r="BC33" s="792"/>
-      <c r="BD33" s="792"/>
-      <c r="BE33" s="792"/>
-      <c r="BF33" s="789"/>
-      <c r="BG33" s="792"/>
-      <c r="BH33" s="792"/>
-      <c r="BI33" s="792"/>
-      <c r="BJ33" s="792"/>
+      <c r="BA33" s="790"/>
+      <c r="BB33" s="793"/>
+      <c r="BC33" s="793"/>
+      <c r="BD33" s="793"/>
+      <c r="BE33" s="793"/>
+      <c r="BF33" s="790"/>
+      <c r="BG33" s="793"/>
+      <c r="BH33" s="793"/>
+      <c r="BI33" s="793"/>
+      <c r="BJ33" s="793"/>
       <c r="BK33" s="131"/>
       <c r="BL33" s="130"/>
       <c r="BM33" s="128"/>
@@ -9904,16 +9905,16 @@
       <c r="B34" s="123"/>
       <c r="C34" s="124"/>
       <c r="D34" s="125"/>
-      <c r="E34" s="789"/>
-      <c r="F34" s="790"/>
-      <c r="G34" s="789"/>
-      <c r="H34" s="791"/>
-      <c r="I34" s="791"/>
-      <c r="J34" s="791"/>
-      <c r="K34" s="791"/>
-      <c r="L34" s="791"/>
-      <c r="M34" s="791"/>
-      <c r="N34" s="791"/>
+      <c r="E34" s="790"/>
+      <c r="F34" s="791"/>
+      <c r="G34" s="790"/>
+      <c r="H34" s="792"/>
+      <c r="I34" s="792"/>
+      <c r="J34" s="792"/>
+      <c r="K34" s="792"/>
+      <c r="L34" s="792"/>
+      <c r="M34" s="792"/>
+      <c r="N34" s="792"/>
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
       <c r="Q34" s="126"/>
@@ -9952,16 +9953,16 @@
       <c r="AX34" s="126"/>
       <c r="AY34" s="126"/>
       <c r="AZ34" s="126"/>
-      <c r="BA34" s="789"/>
-      <c r="BB34" s="792"/>
-      <c r="BC34" s="792"/>
-      <c r="BD34" s="792"/>
-      <c r="BE34" s="792"/>
-      <c r="BF34" s="789"/>
-      <c r="BG34" s="792"/>
-      <c r="BH34" s="792"/>
-      <c r="BI34" s="792"/>
-      <c r="BJ34" s="792"/>
+      <c r="BA34" s="790"/>
+      <c r="BB34" s="793"/>
+      <c r="BC34" s="793"/>
+      <c r="BD34" s="793"/>
+      <c r="BE34" s="793"/>
+      <c r="BF34" s="790"/>
+      <c r="BG34" s="793"/>
+      <c r="BH34" s="793"/>
+      <c r="BI34" s="793"/>
+      <c r="BJ34" s="793"/>
       <c r="BK34" s="131"/>
       <c r="BL34" s="130"/>
       <c r="BM34" s="128"/>
@@ -9970,16 +9971,16 @@
       <c r="B35" s="123"/>
       <c r="C35" s="124"/>
       <c r="D35" s="125"/>
-      <c r="E35" s="789"/>
-      <c r="F35" s="790"/>
-      <c r="G35" s="789"/>
-      <c r="H35" s="791"/>
-      <c r="I35" s="791"/>
-      <c r="J35" s="791"/>
-      <c r="K35" s="791"/>
-      <c r="L35" s="791"/>
-      <c r="M35" s="791"/>
-      <c r="N35" s="791"/>
+      <c r="E35" s="790"/>
+      <c r="F35" s="791"/>
+      <c r="G35" s="790"/>
+      <c r="H35" s="792"/>
+      <c r="I35" s="792"/>
+      <c r="J35" s="792"/>
+      <c r="K35" s="792"/>
+      <c r="L35" s="792"/>
+      <c r="M35" s="792"/>
+      <c r="N35" s="792"/>
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
       <c r="Q35" s="126"/>
@@ -10018,16 +10019,16 @@
       <c r="AX35" s="126"/>
       <c r="AY35" s="126"/>
       <c r="AZ35" s="126"/>
-      <c r="BA35" s="789"/>
-      <c r="BB35" s="792"/>
-      <c r="BC35" s="792"/>
-      <c r="BD35" s="792"/>
-      <c r="BE35" s="792"/>
-      <c r="BF35" s="789"/>
-      <c r="BG35" s="792"/>
-      <c r="BH35" s="792"/>
-      <c r="BI35" s="792"/>
-      <c r="BJ35" s="792"/>
+      <c r="BA35" s="790"/>
+      <c r="BB35" s="793"/>
+      <c r="BC35" s="793"/>
+      <c r="BD35" s="793"/>
+      <c r="BE35" s="793"/>
+      <c r="BF35" s="790"/>
+      <c r="BG35" s="793"/>
+      <c r="BH35" s="793"/>
+      <c r="BI35" s="793"/>
+      <c r="BJ35" s="793"/>
       <c r="BK35" s="131"/>
       <c r="BL35" s="130"/>
       <c r="BM35" s="128"/>
@@ -10036,16 +10037,16 @@
       <c r="B36" s="123"/>
       <c r="C36" s="124"/>
       <c r="D36" s="125"/>
-      <c r="E36" s="789"/>
-      <c r="F36" s="790"/>
-      <c r="G36" s="789"/>
-      <c r="H36" s="791"/>
-      <c r="I36" s="791"/>
-      <c r="J36" s="791"/>
-      <c r="K36" s="791"/>
-      <c r="L36" s="791"/>
-      <c r="M36" s="791"/>
-      <c r="N36" s="791"/>
+      <c r="E36" s="790"/>
+      <c r="F36" s="791"/>
+      <c r="G36" s="790"/>
+      <c r="H36" s="792"/>
+      <c r="I36" s="792"/>
+      <c r="J36" s="792"/>
+      <c r="K36" s="792"/>
+      <c r="L36" s="792"/>
+      <c r="M36" s="792"/>
+      <c r="N36" s="792"/>
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
       <c r="Q36" s="126"/>
@@ -10084,16 +10085,16 @@
       <c r="AX36" s="126"/>
       <c r="AY36" s="126"/>
       <c r="AZ36" s="126"/>
-      <c r="BA36" s="789"/>
-      <c r="BB36" s="792"/>
-      <c r="BC36" s="792"/>
-      <c r="BD36" s="792"/>
-      <c r="BE36" s="792"/>
-      <c r="BF36" s="789"/>
-      <c r="BG36" s="792"/>
-      <c r="BH36" s="792"/>
-      <c r="BI36" s="792"/>
-      <c r="BJ36" s="792"/>
+      <c r="BA36" s="790"/>
+      <c r="BB36" s="793"/>
+      <c r="BC36" s="793"/>
+      <c r="BD36" s="793"/>
+      <c r="BE36" s="793"/>
+      <c r="BF36" s="790"/>
+      <c r="BG36" s="793"/>
+      <c r="BH36" s="793"/>
+      <c r="BI36" s="793"/>
+      <c r="BJ36" s="793"/>
       <c r="BK36" s="131"/>
       <c r="BL36" s="130"/>
       <c r="BM36" s="128"/>
@@ -10102,16 +10103,16 @@
       <c r="B37" s="123"/>
       <c r="C37" s="124"/>
       <c r="D37" s="125"/>
-      <c r="E37" s="789"/>
-      <c r="F37" s="790"/>
-      <c r="G37" s="789"/>
-      <c r="H37" s="791"/>
-      <c r="I37" s="791"/>
-      <c r="J37" s="791"/>
-      <c r="K37" s="791"/>
-      <c r="L37" s="791"/>
-      <c r="M37" s="791"/>
-      <c r="N37" s="791"/>
+      <c r="E37" s="790"/>
+      <c r="F37" s="791"/>
+      <c r="G37" s="790"/>
+      <c r="H37" s="792"/>
+      <c r="I37" s="792"/>
+      <c r="J37" s="792"/>
+      <c r="K37" s="792"/>
+      <c r="L37" s="792"/>
+      <c r="M37" s="792"/>
+      <c r="N37" s="792"/>
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
       <c r="Q37" s="126"/>
@@ -10150,16 +10151,16 @@
       <c r="AX37" s="126"/>
       <c r="AY37" s="126"/>
       <c r="AZ37" s="126"/>
-      <c r="BA37" s="789"/>
-      <c r="BB37" s="792"/>
-      <c r="BC37" s="792"/>
-      <c r="BD37" s="792"/>
-      <c r="BE37" s="792"/>
-      <c r="BF37" s="789"/>
-      <c r="BG37" s="792"/>
-      <c r="BH37" s="792"/>
-      <c r="BI37" s="792"/>
-      <c r="BJ37" s="792"/>
+      <c r="BA37" s="790"/>
+      <c r="BB37" s="793"/>
+      <c r="BC37" s="793"/>
+      <c r="BD37" s="793"/>
+      <c r="BE37" s="793"/>
+      <c r="BF37" s="790"/>
+      <c r="BG37" s="793"/>
+      <c r="BH37" s="793"/>
+      <c r="BI37" s="793"/>
+      <c r="BJ37" s="793"/>
       <c r="BK37" s="131"/>
       <c r="BL37" s="130"/>
       <c r="BM37" s="128"/>
@@ -10168,16 +10169,16 @@
       <c r="B38" s="123"/>
       <c r="C38" s="124"/>
       <c r="D38" s="125"/>
-      <c r="E38" s="789"/>
-      <c r="F38" s="790"/>
-      <c r="G38" s="789"/>
-      <c r="H38" s="791"/>
-      <c r="I38" s="791"/>
-      <c r="J38" s="791"/>
-      <c r="K38" s="791"/>
-      <c r="L38" s="791"/>
-      <c r="M38" s="791"/>
-      <c r="N38" s="791"/>
+      <c r="E38" s="790"/>
+      <c r="F38" s="791"/>
+      <c r="G38" s="790"/>
+      <c r="H38" s="792"/>
+      <c r="I38" s="792"/>
+      <c r="J38" s="792"/>
+      <c r="K38" s="792"/>
+      <c r="L38" s="792"/>
+      <c r="M38" s="792"/>
+      <c r="N38" s="792"/>
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
       <c r="Q38" s="126"/>
@@ -10216,16 +10217,16 @@
       <c r="AX38" s="126"/>
       <c r="AY38" s="126"/>
       <c r="AZ38" s="126"/>
-      <c r="BA38" s="789"/>
-      <c r="BB38" s="792"/>
-      <c r="BC38" s="792"/>
-      <c r="BD38" s="792"/>
-      <c r="BE38" s="792"/>
-      <c r="BF38" s="789"/>
-      <c r="BG38" s="792"/>
-      <c r="BH38" s="792"/>
-      <c r="BI38" s="792"/>
-      <c r="BJ38" s="792"/>
+      <c r="BA38" s="790"/>
+      <c r="BB38" s="793"/>
+      <c r="BC38" s="793"/>
+      <c r="BD38" s="793"/>
+      <c r="BE38" s="793"/>
+      <c r="BF38" s="790"/>
+      <c r="BG38" s="793"/>
+      <c r="BH38" s="793"/>
+      <c r="BI38" s="793"/>
+      <c r="BJ38" s="793"/>
       <c r="BK38" s="131"/>
       <c r="BL38" s="130"/>
       <c r="BM38" s="128"/>
@@ -10234,16 +10235,16 @@
       <c r="B39" s="123"/>
       <c r="C39" s="124"/>
       <c r="D39" s="125"/>
-      <c r="E39" s="789"/>
-      <c r="F39" s="790"/>
-      <c r="G39" s="789"/>
-      <c r="H39" s="791"/>
-      <c r="I39" s="791"/>
-      <c r="J39" s="791"/>
-      <c r="K39" s="791"/>
-      <c r="L39" s="791"/>
-      <c r="M39" s="791"/>
-      <c r="N39" s="791"/>
+      <c r="E39" s="790"/>
+      <c r="F39" s="791"/>
+      <c r="G39" s="790"/>
+      <c r="H39" s="792"/>
+      <c r="I39" s="792"/>
+      <c r="J39" s="792"/>
+      <c r="K39" s="792"/>
+      <c r="L39" s="792"/>
+      <c r="M39" s="792"/>
+      <c r="N39" s="792"/>
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
       <c r="Q39" s="126"/>
@@ -10282,16 +10283,16 @@
       <c r="AX39" s="126"/>
       <c r="AY39" s="126"/>
       <c r="AZ39" s="126"/>
-      <c r="BA39" s="789"/>
-      <c r="BB39" s="792"/>
-      <c r="BC39" s="792"/>
-      <c r="BD39" s="792"/>
-      <c r="BE39" s="792"/>
-      <c r="BF39" s="789"/>
-      <c r="BG39" s="792"/>
-      <c r="BH39" s="792"/>
-      <c r="BI39" s="792"/>
-      <c r="BJ39" s="792"/>
+      <c r="BA39" s="790"/>
+      <c r="BB39" s="793"/>
+      <c r="BC39" s="793"/>
+      <c r="BD39" s="793"/>
+      <c r="BE39" s="793"/>
+      <c r="BF39" s="790"/>
+      <c r="BG39" s="793"/>
+      <c r="BH39" s="793"/>
+      <c r="BI39" s="793"/>
+      <c r="BJ39" s="793"/>
       <c r="BK39" s="131"/>
       <c r="BL39" s="130"/>
       <c r="BM39" s="128"/>
@@ -10300,16 +10301,16 @@
       <c r="B40" s="123"/>
       <c r="C40" s="124"/>
       <c r="D40" s="125"/>
-      <c r="E40" s="789"/>
-      <c r="F40" s="790"/>
-      <c r="G40" s="789"/>
-      <c r="H40" s="791"/>
-      <c r="I40" s="791"/>
-      <c r="J40" s="791"/>
-      <c r="K40" s="791"/>
-      <c r="L40" s="791"/>
-      <c r="M40" s="791"/>
-      <c r="N40" s="791"/>
+      <c r="E40" s="790"/>
+      <c r="F40" s="791"/>
+      <c r="G40" s="790"/>
+      <c r="H40" s="792"/>
+      <c r="I40" s="792"/>
+      <c r="J40" s="792"/>
+      <c r="K40" s="792"/>
+      <c r="L40" s="792"/>
+      <c r="M40" s="792"/>
+      <c r="N40" s="792"/>
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
       <c r="Q40" s="126"/>
@@ -10348,16 +10349,16 @@
       <c r="AX40" s="126"/>
       <c r="AY40" s="126"/>
       <c r="AZ40" s="126"/>
-      <c r="BA40" s="789"/>
-      <c r="BB40" s="792"/>
-      <c r="BC40" s="792"/>
-      <c r="BD40" s="792"/>
-      <c r="BE40" s="792"/>
-      <c r="BF40" s="789"/>
-      <c r="BG40" s="792"/>
-      <c r="BH40" s="792"/>
-      <c r="BI40" s="792"/>
-      <c r="BJ40" s="792"/>
+      <c r="BA40" s="790"/>
+      <c r="BB40" s="793"/>
+      <c r="BC40" s="793"/>
+      <c r="BD40" s="793"/>
+      <c r="BE40" s="793"/>
+      <c r="BF40" s="790"/>
+      <c r="BG40" s="793"/>
+      <c r="BH40" s="793"/>
+      <c r="BI40" s="793"/>
+      <c r="BJ40" s="793"/>
       <c r="BK40" s="131"/>
       <c r="BL40" s="130"/>
       <c r="BM40" s="128"/>
@@ -10366,16 +10367,16 @@
       <c r="B41" s="123"/>
       <c r="C41" s="124"/>
       <c r="D41" s="125"/>
-      <c r="E41" s="789"/>
-      <c r="F41" s="790"/>
-      <c r="G41" s="789"/>
-      <c r="H41" s="791"/>
-      <c r="I41" s="791"/>
-      <c r="J41" s="791"/>
-      <c r="K41" s="791"/>
-      <c r="L41" s="791"/>
-      <c r="M41" s="791"/>
-      <c r="N41" s="791"/>
+      <c r="E41" s="790"/>
+      <c r="F41" s="791"/>
+      <c r="G41" s="790"/>
+      <c r="H41" s="792"/>
+      <c r="I41" s="792"/>
+      <c r="J41" s="792"/>
+      <c r="K41" s="792"/>
+      <c r="L41" s="792"/>
+      <c r="M41" s="792"/>
+      <c r="N41" s="792"/>
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
       <c r="Q41" s="126"/>
@@ -10414,16 +10415,16 @@
       <c r="AX41" s="126"/>
       <c r="AY41" s="126"/>
       <c r="AZ41" s="126"/>
-      <c r="BA41" s="789"/>
-      <c r="BB41" s="792"/>
-      <c r="BC41" s="792"/>
-      <c r="BD41" s="792"/>
-      <c r="BE41" s="792"/>
-      <c r="BF41" s="789"/>
-      <c r="BG41" s="792"/>
-      <c r="BH41" s="792"/>
-      <c r="BI41" s="792"/>
-      <c r="BJ41" s="792"/>
+      <c r="BA41" s="790"/>
+      <c r="BB41" s="793"/>
+      <c r="BC41" s="793"/>
+      <c r="BD41" s="793"/>
+      <c r="BE41" s="793"/>
+      <c r="BF41" s="790"/>
+      <c r="BG41" s="793"/>
+      <c r="BH41" s="793"/>
+      <c r="BI41" s="793"/>
+      <c r="BJ41" s="793"/>
       <c r="BK41" s="131"/>
       <c r="BL41" s="130"/>
       <c r="BM41" s="128"/>
@@ -10498,16 +10499,16 @@
       <c r="B43" s="123"/>
       <c r="C43" s="124"/>
       <c r="D43" s="125"/>
-      <c r="E43" s="789"/>
-      <c r="F43" s="790"/>
-      <c r="G43" s="789"/>
-      <c r="H43" s="791"/>
-      <c r="I43" s="791"/>
-      <c r="J43" s="791"/>
-      <c r="K43" s="791"/>
-      <c r="L43" s="791"/>
-      <c r="M43" s="791"/>
-      <c r="N43" s="791"/>
+      <c r="E43" s="790"/>
+      <c r="F43" s="791"/>
+      <c r="G43" s="790"/>
+      <c r="H43" s="792"/>
+      <c r="I43" s="792"/>
+      <c r="J43" s="792"/>
+      <c r="K43" s="792"/>
+      <c r="L43" s="792"/>
+      <c r="M43" s="792"/>
+      <c r="N43" s="792"/>
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
       <c r="Q43" s="126"/>
@@ -10546,851 +10547,851 @@
       <c r="AX43" s="126"/>
       <c r="AY43" s="126"/>
       <c r="AZ43" s="126"/>
-      <c r="BA43" s="789"/>
-      <c r="BB43" s="792"/>
-      <c r="BC43" s="792"/>
-      <c r="BD43" s="792"/>
-      <c r="BE43" s="792"/>
-      <c r="BF43" s="789"/>
-      <c r="BG43" s="792"/>
-      <c r="BH43" s="792"/>
-      <c r="BI43" s="792"/>
-      <c r="BJ43" s="792"/>
+      <c r="BA43" s="790"/>
+      <c r="BB43" s="793"/>
+      <c r="BC43" s="793"/>
+      <c r="BD43" s="793"/>
+      <c r="BE43" s="793"/>
+      <c r="BF43" s="790"/>
+      <c r="BG43" s="793"/>
+      <c r="BH43" s="793"/>
+      <c r="BI43" s="793"/>
+      <c r="BJ43" s="793"/>
       <c r="BK43" s="131"/>
       <c r="BL43" s="130"/>
       <c r="BM43" s="128"/>
     </row>
     <row r="44" spans="2:65" s="25" customFormat="1" ht="20.25" customHeight="1">
       <c r="B44" s="123"/>
-      <c r="C44" s="793"/>
-      <c r="D44" s="794"/>
-      <c r="E44" s="794"/>
-      <c r="F44" s="794"/>
-      <c r="G44" s="794"/>
-      <c r="H44" s="794"/>
-      <c r="I44" s="794"/>
-      <c r="J44" s="794"/>
-      <c r="K44" s="794"/>
-      <c r="L44" s="794"/>
-      <c r="M44" s="794"/>
-      <c r="N44" s="794"/>
-      <c r="O44" s="794"/>
-      <c r="P44" s="794"/>
-      <c r="Q44" s="794"/>
-      <c r="R44" s="794"/>
-      <c r="S44" s="794"/>
-      <c r="T44" s="794"/>
-      <c r="U44" s="794"/>
-      <c r="V44" s="794"/>
-      <c r="W44" s="795"/>
-      <c r="X44" s="801" t="s">
+      <c r="C44" s="794"/>
+      <c r="D44" s="795"/>
+      <c r="E44" s="795"/>
+      <c r="F44" s="795"/>
+      <c r="G44" s="795"/>
+      <c r="H44" s="795"/>
+      <c r="I44" s="795"/>
+      <c r="J44" s="795"/>
+      <c r="K44" s="795"/>
+      <c r="L44" s="795"/>
+      <c r="M44" s="795"/>
+      <c r="N44" s="795"/>
+      <c r="O44" s="795"/>
+      <c r="P44" s="795"/>
+      <c r="Q44" s="795"/>
+      <c r="R44" s="795"/>
+      <c r="S44" s="795"/>
+      <c r="T44" s="795"/>
+      <c r="U44" s="795"/>
+      <c r="V44" s="795"/>
+      <c r="W44" s="796"/>
+      <c r="X44" s="802" t="s">
         <v>124</v>
       </c>
-      <c r="Y44" s="802"/>
-      <c r="Z44" s="802"/>
-      <c r="AA44" s="802"/>
-      <c r="AB44" s="802"/>
-      <c r="AC44" s="802"/>
-      <c r="AD44" s="802"/>
-      <c r="AE44" s="802"/>
-      <c r="AF44" s="802"/>
-      <c r="AG44" s="802"/>
-      <c r="AH44" s="802"/>
-      <c r="AI44" s="802"/>
-      <c r="AJ44" s="802"/>
-      <c r="AK44" s="802"/>
-      <c r="AL44" s="802"/>
-      <c r="AM44" s="802"/>
-      <c r="AN44" s="802"/>
-      <c r="AO44" s="802"/>
-      <c r="AP44" s="802"/>
-      <c r="AQ44" s="802"/>
-      <c r="AR44" s="802"/>
-      <c r="AS44" s="803"/>
-      <c r="AT44" s="810" t="s">
+      <c r="Y44" s="803"/>
+      <c r="Z44" s="803"/>
+      <c r="AA44" s="803"/>
+      <c r="AB44" s="803"/>
+      <c r="AC44" s="803"/>
+      <c r="AD44" s="803"/>
+      <c r="AE44" s="803"/>
+      <c r="AF44" s="803"/>
+      <c r="AG44" s="803"/>
+      <c r="AH44" s="803"/>
+      <c r="AI44" s="803"/>
+      <c r="AJ44" s="803"/>
+      <c r="AK44" s="803"/>
+      <c r="AL44" s="803"/>
+      <c r="AM44" s="803"/>
+      <c r="AN44" s="803"/>
+      <c r="AO44" s="803"/>
+      <c r="AP44" s="803"/>
+      <c r="AQ44" s="803"/>
+      <c r="AR44" s="803"/>
+      <c r="AS44" s="804"/>
+      <c r="AT44" s="811" t="s">
         <v>42</v>
       </c>
-      <c r="AU44" s="811"/>
-      <c r="AV44" s="811"/>
-      <c r="AW44" s="811"/>
-      <c r="AX44" s="811"/>
-      <c r="AY44" s="811"/>
-      <c r="AZ44" s="811"/>
-      <c r="BA44" s="811"/>
-      <c r="BB44" s="811"/>
-      <c r="BC44" s="811"/>
-      <c r="BD44" s="811"/>
-      <c r="BE44" s="811"/>
-      <c r="BF44" s="811"/>
-      <c r="BG44" s="811"/>
-      <c r="BH44" s="811"/>
-      <c r="BI44" s="811"/>
-      <c r="BJ44" s="811"/>
-      <c r="BK44" s="811"/>
-      <c r="BL44" s="812"/>
+      <c r="AU44" s="812"/>
+      <c r="AV44" s="812"/>
+      <c r="AW44" s="812"/>
+      <c r="AX44" s="812"/>
+      <c r="AY44" s="812"/>
+      <c r="AZ44" s="812"/>
+      <c r="BA44" s="812"/>
+      <c r="BB44" s="812"/>
+      <c r="BC44" s="812"/>
+      <c r="BD44" s="812"/>
+      <c r="BE44" s="812"/>
+      <c r="BF44" s="812"/>
+      <c r="BG44" s="812"/>
+      <c r="BH44" s="812"/>
+      <c r="BI44" s="812"/>
+      <c r="BJ44" s="812"/>
+      <c r="BK44" s="812"/>
+      <c r="BL44" s="813"/>
       <c r="BM44" s="135"/>
     </row>
     <row r="45" spans="2:65" ht="16.25" customHeight="1">
       <c r="B45" s="136"/>
-      <c r="C45" s="796"/>
-      <c r="D45" s="789"/>
-      <c r="E45" s="789"/>
-      <c r="F45" s="789"/>
-      <c r="G45" s="789"/>
-      <c r="H45" s="789"/>
-      <c r="I45" s="789"/>
-      <c r="J45" s="789"/>
-      <c r="K45" s="789"/>
-      <c r="L45" s="789"/>
-      <c r="M45" s="789"/>
-      <c r="N45" s="789"/>
-      <c r="O45" s="789"/>
-      <c r="P45" s="789"/>
-      <c r="Q45" s="789"/>
-      <c r="R45" s="789"/>
-      <c r="S45" s="789"/>
-      <c r="T45" s="789"/>
-      <c r="U45" s="789"/>
-      <c r="V45" s="789"/>
-      <c r="W45" s="797"/>
-      <c r="X45" s="804"/>
-      <c r="Y45" s="805"/>
-      <c r="Z45" s="805"/>
-      <c r="AA45" s="805"/>
-      <c r="AB45" s="805"/>
-      <c r="AC45" s="805"/>
-      <c r="AD45" s="805"/>
-      <c r="AE45" s="805"/>
-      <c r="AF45" s="805"/>
-      <c r="AG45" s="805"/>
-      <c r="AH45" s="805"/>
-      <c r="AI45" s="805"/>
-      <c r="AJ45" s="805"/>
-      <c r="AK45" s="805"/>
-      <c r="AL45" s="805"/>
-      <c r="AM45" s="805"/>
-      <c r="AN45" s="805"/>
-      <c r="AO45" s="805"/>
-      <c r="AP45" s="805"/>
-      <c r="AQ45" s="805"/>
-      <c r="AR45" s="805"/>
-      <c r="AS45" s="806"/>
-      <c r="AT45" s="813"/>
-      <c r="AU45" s="814"/>
-      <c r="AV45" s="814"/>
-      <c r="AW45" s="814"/>
-      <c r="AX45" s="814"/>
-      <c r="AY45" s="814"/>
-      <c r="AZ45" s="814"/>
-      <c r="BA45" s="814"/>
-      <c r="BB45" s="814"/>
-      <c r="BC45" s="814"/>
-      <c r="BD45" s="814"/>
-      <c r="BE45" s="814"/>
-      <c r="BF45" s="814"/>
-      <c r="BG45" s="814"/>
-      <c r="BH45" s="814"/>
-      <c r="BI45" s="814"/>
-      <c r="BJ45" s="814"/>
-      <c r="BK45" s="814"/>
-      <c r="BL45" s="815"/>
+      <c r="C45" s="797"/>
+      <c r="D45" s="790"/>
+      <c r="E45" s="790"/>
+      <c r="F45" s="790"/>
+      <c r="G45" s="790"/>
+      <c r="H45" s="790"/>
+      <c r="I45" s="790"/>
+      <c r="J45" s="790"/>
+      <c r="K45" s="790"/>
+      <c r="L45" s="790"/>
+      <c r="M45" s="790"/>
+      <c r="N45" s="790"/>
+      <c r="O45" s="790"/>
+      <c r="P45" s="790"/>
+      <c r="Q45" s="790"/>
+      <c r="R45" s="790"/>
+      <c r="S45" s="790"/>
+      <c r="T45" s="790"/>
+      <c r="U45" s="790"/>
+      <c r="V45" s="790"/>
+      <c r="W45" s="798"/>
+      <c r="X45" s="805"/>
+      <c r="Y45" s="806"/>
+      <c r="Z45" s="806"/>
+      <c r="AA45" s="806"/>
+      <c r="AB45" s="806"/>
+      <c r="AC45" s="806"/>
+      <c r="AD45" s="806"/>
+      <c r="AE45" s="806"/>
+      <c r="AF45" s="806"/>
+      <c r="AG45" s="806"/>
+      <c r="AH45" s="806"/>
+      <c r="AI45" s="806"/>
+      <c r="AJ45" s="806"/>
+      <c r="AK45" s="806"/>
+      <c r="AL45" s="806"/>
+      <c r="AM45" s="806"/>
+      <c r="AN45" s="806"/>
+      <c r="AO45" s="806"/>
+      <c r="AP45" s="806"/>
+      <c r="AQ45" s="806"/>
+      <c r="AR45" s="806"/>
+      <c r="AS45" s="807"/>
+      <c r="AT45" s="814"/>
+      <c r="AU45" s="815"/>
+      <c r="AV45" s="815"/>
+      <c r="AW45" s="815"/>
+      <c r="AX45" s="815"/>
+      <c r="AY45" s="815"/>
+      <c r="AZ45" s="815"/>
+      <c r="BA45" s="815"/>
+      <c r="BB45" s="815"/>
+      <c r="BC45" s="815"/>
+      <c r="BD45" s="815"/>
+      <c r="BE45" s="815"/>
+      <c r="BF45" s="815"/>
+      <c r="BG45" s="815"/>
+      <c r="BH45" s="815"/>
+      <c r="BI45" s="815"/>
+      <c r="BJ45" s="815"/>
+      <c r="BK45" s="815"/>
+      <c r="BL45" s="816"/>
       <c r="BM45" s="137"/>
     </row>
     <row r="46" spans="2:65" ht="16.25" customHeight="1" thickBot="1">
       <c r="B46" s="136"/>
-      <c r="C46" s="798"/>
-      <c r="D46" s="799"/>
-      <c r="E46" s="799"/>
-      <c r="F46" s="799"/>
-      <c r="G46" s="799"/>
-      <c r="H46" s="799"/>
-      <c r="I46" s="799"/>
-      <c r="J46" s="799"/>
-      <c r="K46" s="799"/>
-      <c r="L46" s="799"/>
-      <c r="M46" s="799"/>
-      <c r="N46" s="799"/>
-      <c r="O46" s="799"/>
-      <c r="P46" s="799"/>
-      <c r="Q46" s="799"/>
-      <c r="R46" s="799"/>
-      <c r="S46" s="799"/>
-      <c r="T46" s="799"/>
-      <c r="U46" s="799"/>
-      <c r="V46" s="799"/>
-      <c r="W46" s="800"/>
-      <c r="X46" s="807"/>
-      <c r="Y46" s="808"/>
-      <c r="Z46" s="808"/>
-      <c r="AA46" s="808"/>
-      <c r="AB46" s="808"/>
-      <c r="AC46" s="808"/>
-      <c r="AD46" s="808"/>
-      <c r="AE46" s="808"/>
-      <c r="AF46" s="808"/>
-      <c r="AG46" s="808"/>
-      <c r="AH46" s="808"/>
-      <c r="AI46" s="808"/>
-      <c r="AJ46" s="808"/>
-      <c r="AK46" s="808"/>
-      <c r="AL46" s="808"/>
-      <c r="AM46" s="808"/>
-      <c r="AN46" s="808"/>
-      <c r="AO46" s="808"/>
-      <c r="AP46" s="808"/>
-      <c r="AQ46" s="808"/>
-      <c r="AR46" s="808"/>
-      <c r="AS46" s="809"/>
-      <c r="AT46" s="816"/>
-      <c r="AU46" s="817"/>
-      <c r="AV46" s="817"/>
-      <c r="AW46" s="817"/>
-      <c r="AX46" s="817"/>
-      <c r="AY46" s="817"/>
-      <c r="AZ46" s="817"/>
-      <c r="BA46" s="817"/>
-      <c r="BB46" s="817"/>
-      <c r="BC46" s="817"/>
-      <c r="BD46" s="817"/>
-      <c r="BE46" s="817"/>
-      <c r="BF46" s="817"/>
-      <c r="BG46" s="817"/>
-      <c r="BH46" s="817"/>
-      <c r="BI46" s="817"/>
-      <c r="BJ46" s="817"/>
-      <c r="BK46" s="817"/>
-      <c r="BL46" s="818"/>
+      <c r="C46" s="799"/>
+      <c r="D46" s="800"/>
+      <c r="E46" s="800"/>
+      <c r="F46" s="800"/>
+      <c r="G46" s="800"/>
+      <c r="H46" s="800"/>
+      <c r="I46" s="800"/>
+      <c r="J46" s="800"/>
+      <c r="K46" s="800"/>
+      <c r="L46" s="800"/>
+      <c r="M46" s="800"/>
+      <c r="N46" s="800"/>
+      <c r="O46" s="800"/>
+      <c r="P46" s="800"/>
+      <c r="Q46" s="800"/>
+      <c r="R46" s="800"/>
+      <c r="S46" s="800"/>
+      <c r="T46" s="800"/>
+      <c r="U46" s="800"/>
+      <c r="V46" s="800"/>
+      <c r="W46" s="801"/>
+      <c r="X46" s="808"/>
+      <c r="Y46" s="809"/>
+      <c r="Z46" s="809"/>
+      <c r="AA46" s="809"/>
+      <c r="AB46" s="809"/>
+      <c r="AC46" s="809"/>
+      <c r="AD46" s="809"/>
+      <c r="AE46" s="809"/>
+      <c r="AF46" s="809"/>
+      <c r="AG46" s="809"/>
+      <c r="AH46" s="809"/>
+      <c r="AI46" s="809"/>
+      <c r="AJ46" s="809"/>
+      <c r="AK46" s="809"/>
+      <c r="AL46" s="809"/>
+      <c r="AM46" s="809"/>
+      <c r="AN46" s="809"/>
+      <c r="AO46" s="809"/>
+      <c r="AP46" s="809"/>
+      <c r="AQ46" s="809"/>
+      <c r="AR46" s="809"/>
+      <c r="AS46" s="810"/>
+      <c r="AT46" s="817"/>
+      <c r="AU46" s="818"/>
+      <c r="AV46" s="818"/>
+      <c r="AW46" s="818"/>
+      <c r="AX46" s="818"/>
+      <c r="AY46" s="818"/>
+      <c r="AZ46" s="818"/>
+      <c r="BA46" s="818"/>
+      <c r="BB46" s="818"/>
+      <c r="BC46" s="818"/>
+      <c r="BD46" s="818"/>
+      <c r="BE46" s="818"/>
+      <c r="BF46" s="818"/>
+      <c r="BG46" s="818"/>
+      <c r="BH46" s="818"/>
+      <c r="BI46" s="818"/>
+      <c r="BJ46" s="818"/>
+      <c r="BK46" s="818"/>
+      <c r="BL46" s="819"/>
       <c r="BM46" s="137"/>
     </row>
     <row r="47" spans="2:65" ht="16.25" customHeight="1" thickBot="1">
       <c r="B47" s="136"/>
-      <c r="C47" s="810" t="s">
+      <c r="C47" s="811" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="811"/>
-      <c r="E47" s="811"/>
-      <c r="F47" s="811"/>
-      <c r="G47" s="811"/>
-      <c r="H47" s="811"/>
-      <c r="I47" s="811"/>
-      <c r="J47" s="811"/>
-      <c r="K47" s="811"/>
-      <c r="L47" s="811"/>
-      <c r="M47" s="811"/>
-      <c r="N47" s="811"/>
-      <c r="O47" s="811"/>
-      <c r="P47" s="811"/>
-      <c r="Q47" s="811"/>
-      <c r="R47" s="811"/>
-      <c r="S47" s="811"/>
-      <c r="T47" s="811"/>
-      <c r="U47" s="811"/>
-      <c r="V47" s="811"/>
-      <c r="W47" s="811"/>
-      <c r="X47" s="811"/>
-      <c r="Y47" s="811"/>
-      <c r="Z47" s="811"/>
-      <c r="AA47" s="811"/>
-      <c r="AB47" s="811"/>
-      <c r="AC47" s="811"/>
-      <c r="AD47" s="811"/>
-      <c r="AE47" s="811"/>
-      <c r="AF47" s="811"/>
-      <c r="AG47" s="811"/>
-      <c r="AH47" s="811"/>
-      <c r="AI47" s="811"/>
-      <c r="AJ47" s="811"/>
-      <c r="AK47" s="811"/>
-      <c r="AL47" s="811"/>
-      <c r="AM47" s="811"/>
-      <c r="AN47" s="811"/>
-      <c r="AO47" s="811"/>
-      <c r="AP47" s="811"/>
-      <c r="AQ47" s="811"/>
-      <c r="AR47" s="811"/>
-      <c r="AS47" s="812"/>
-      <c r="AT47" s="819"/>
-      <c r="AU47" s="820"/>
-      <c r="AV47" s="820"/>
-      <c r="AW47" s="820"/>
-      <c r="AX47" s="820"/>
-      <c r="AY47" s="820"/>
-      <c r="AZ47" s="821"/>
-      <c r="BA47" s="822" t="s">
+      <c r="D47" s="812"/>
+      <c r="E47" s="812"/>
+      <c r="F47" s="812"/>
+      <c r="G47" s="812"/>
+      <c r="H47" s="812"/>
+      <c r="I47" s="812"/>
+      <c r="J47" s="812"/>
+      <c r="K47" s="812"/>
+      <c r="L47" s="812"/>
+      <c r="M47" s="812"/>
+      <c r="N47" s="812"/>
+      <c r="O47" s="812"/>
+      <c r="P47" s="812"/>
+      <c r="Q47" s="812"/>
+      <c r="R47" s="812"/>
+      <c r="S47" s="812"/>
+      <c r="T47" s="812"/>
+      <c r="U47" s="812"/>
+      <c r="V47" s="812"/>
+      <c r="W47" s="812"/>
+      <c r="X47" s="812"/>
+      <c r="Y47" s="812"/>
+      <c r="Z47" s="812"/>
+      <c r="AA47" s="812"/>
+      <c r="AB47" s="812"/>
+      <c r="AC47" s="812"/>
+      <c r="AD47" s="812"/>
+      <c r="AE47" s="812"/>
+      <c r="AF47" s="812"/>
+      <c r="AG47" s="812"/>
+      <c r="AH47" s="812"/>
+      <c r="AI47" s="812"/>
+      <c r="AJ47" s="812"/>
+      <c r="AK47" s="812"/>
+      <c r="AL47" s="812"/>
+      <c r="AM47" s="812"/>
+      <c r="AN47" s="812"/>
+      <c r="AO47" s="812"/>
+      <c r="AP47" s="812"/>
+      <c r="AQ47" s="812"/>
+      <c r="AR47" s="812"/>
+      <c r="AS47" s="813"/>
+      <c r="AT47" s="820"/>
+      <c r="AU47" s="821"/>
+      <c r="AV47" s="821"/>
+      <c r="AW47" s="821"/>
+      <c r="AX47" s="821"/>
+      <c r="AY47" s="821"/>
+      <c r="AZ47" s="822"/>
+      <c r="BA47" s="823" t="s">
         <v>52</v>
       </c>
-      <c r="BB47" s="823"/>
-      <c r="BC47" s="823"/>
-      <c r="BD47" s="823"/>
-      <c r="BE47" s="823"/>
-      <c r="BF47" s="824"/>
-      <c r="BG47" s="822" t="s">
+      <c r="BB47" s="824"/>
+      <c r="BC47" s="824"/>
+      <c r="BD47" s="824"/>
+      <c r="BE47" s="824"/>
+      <c r="BF47" s="825"/>
+      <c r="BG47" s="823" t="s">
         <v>43</v>
       </c>
-      <c r="BH47" s="823"/>
-      <c r="BI47" s="823"/>
-      <c r="BJ47" s="823"/>
-      <c r="BK47" s="823"/>
-      <c r="BL47" s="824"/>
+      <c r="BH47" s="824"/>
+      <c r="BI47" s="824"/>
+      <c r="BJ47" s="824"/>
+      <c r="BK47" s="824"/>
+      <c r="BL47" s="825"/>
       <c r="BM47" s="137"/>
     </row>
     <row r="48" spans="2:65" ht="16.25" customHeight="1" thickBot="1">
       <c r="B48" s="136"/>
-      <c r="C48" s="825"/>
-      <c r="D48" s="826"/>
-      <c r="E48" s="826"/>
-      <c r="F48" s="826"/>
-      <c r="G48" s="826"/>
-      <c r="H48" s="826"/>
-      <c r="I48" s="826"/>
-      <c r="J48" s="826"/>
-      <c r="K48" s="826"/>
-      <c r="L48" s="826"/>
-      <c r="M48" s="826"/>
-      <c r="N48" s="826"/>
-      <c r="O48" s="826"/>
-      <c r="P48" s="826"/>
-      <c r="Q48" s="826"/>
-      <c r="R48" s="826"/>
-      <c r="S48" s="826"/>
-      <c r="T48" s="826"/>
-      <c r="U48" s="826"/>
-      <c r="V48" s="826"/>
-      <c r="W48" s="826"/>
-      <c r="X48" s="826"/>
-      <c r="Y48" s="826"/>
-      <c r="Z48" s="826"/>
-      <c r="AA48" s="826"/>
-      <c r="AB48" s="826"/>
-      <c r="AC48" s="826"/>
-      <c r="AD48" s="826"/>
-      <c r="AE48" s="826"/>
-      <c r="AF48" s="826"/>
-      <c r="AG48" s="826"/>
-      <c r="AH48" s="826"/>
-      <c r="AI48" s="826"/>
-      <c r="AJ48" s="826"/>
-      <c r="AK48" s="826"/>
-      <c r="AL48" s="826"/>
-      <c r="AM48" s="826"/>
-      <c r="AN48" s="826"/>
-      <c r="AO48" s="826"/>
-      <c r="AP48" s="826"/>
-      <c r="AQ48" s="826"/>
-      <c r="AR48" s="826"/>
-      <c r="AS48" s="827"/>
-      <c r="AT48" s="828" t="s">
+      <c r="C48" s="826"/>
+      <c r="D48" s="827"/>
+      <c r="E48" s="827"/>
+      <c r="F48" s="827"/>
+      <c r="G48" s="827"/>
+      <c r="H48" s="827"/>
+      <c r="I48" s="827"/>
+      <c r="J48" s="827"/>
+      <c r="K48" s="827"/>
+      <c r="L48" s="827"/>
+      <c r="M48" s="827"/>
+      <c r="N48" s="827"/>
+      <c r="O48" s="827"/>
+      <c r="P48" s="827"/>
+      <c r="Q48" s="827"/>
+      <c r="R48" s="827"/>
+      <c r="S48" s="827"/>
+      <c r="T48" s="827"/>
+      <c r="U48" s="827"/>
+      <c r="V48" s="827"/>
+      <c r="W48" s="827"/>
+      <c r="X48" s="827"/>
+      <c r="Y48" s="827"/>
+      <c r="Z48" s="827"/>
+      <c r="AA48" s="827"/>
+      <c r="AB48" s="827"/>
+      <c r="AC48" s="827"/>
+      <c r="AD48" s="827"/>
+      <c r="AE48" s="827"/>
+      <c r="AF48" s="827"/>
+      <c r="AG48" s="827"/>
+      <c r="AH48" s="827"/>
+      <c r="AI48" s="827"/>
+      <c r="AJ48" s="827"/>
+      <c r="AK48" s="827"/>
+      <c r="AL48" s="827"/>
+      <c r="AM48" s="827"/>
+      <c r="AN48" s="827"/>
+      <c r="AO48" s="827"/>
+      <c r="AP48" s="827"/>
+      <c r="AQ48" s="827"/>
+      <c r="AR48" s="827"/>
+      <c r="AS48" s="828"/>
+      <c r="AT48" s="829" t="s">
         <v>50</v>
       </c>
-      <c r="AU48" s="829"/>
-      <c r="AV48" s="829"/>
-      <c r="AW48" s="829"/>
-      <c r="AX48" s="829"/>
-      <c r="AY48" s="829"/>
-      <c r="AZ48" s="830"/>
-      <c r="BA48" s="831"/>
-      <c r="BB48" s="832"/>
-      <c r="BC48" s="832"/>
-      <c r="BD48" s="832"/>
-      <c r="BE48" s="832"/>
-      <c r="BF48" s="833"/>
-      <c r="BG48" s="834"/>
-      <c r="BH48" s="835"/>
-      <c r="BI48" s="835"/>
-      <c r="BJ48" s="835"/>
-      <c r="BK48" s="835"/>
-      <c r="BL48" s="836"/>
+      <c r="AU48" s="830"/>
+      <c r="AV48" s="830"/>
+      <c r="AW48" s="830"/>
+      <c r="AX48" s="830"/>
+      <c r="AY48" s="830"/>
+      <c r="AZ48" s="831"/>
+      <c r="BA48" s="832"/>
+      <c r="BB48" s="833"/>
+      <c r="BC48" s="833"/>
+      <c r="BD48" s="833"/>
+      <c r="BE48" s="833"/>
+      <c r="BF48" s="834"/>
+      <c r="BG48" s="835"/>
+      <c r="BH48" s="836"/>
+      <c r="BI48" s="836"/>
+      <c r="BJ48" s="836"/>
+      <c r="BK48" s="836"/>
+      <c r="BL48" s="837"/>
       <c r="BM48" s="137"/>
     </row>
     <row r="49" spans="2:65" ht="16.25" customHeight="1" thickBot="1">
       <c r="B49" s="136"/>
-      <c r="C49" s="837"/>
-      <c r="D49" s="838"/>
-      <c r="E49" s="838"/>
-      <c r="F49" s="838"/>
-      <c r="G49" s="838"/>
-      <c r="H49" s="838"/>
-      <c r="I49" s="838"/>
-      <c r="J49" s="838"/>
-      <c r="K49" s="838"/>
-      <c r="L49" s="838"/>
-      <c r="M49" s="838"/>
-      <c r="N49" s="838"/>
-      <c r="O49" s="838"/>
-      <c r="P49" s="838"/>
-      <c r="Q49" s="838"/>
-      <c r="R49" s="838"/>
-      <c r="S49" s="838"/>
-      <c r="T49" s="838"/>
-      <c r="U49" s="838"/>
-      <c r="V49" s="838"/>
-      <c r="W49" s="838"/>
-      <c r="X49" s="838"/>
-      <c r="Y49" s="838"/>
-      <c r="Z49" s="838"/>
-      <c r="AA49" s="838"/>
-      <c r="AB49" s="838"/>
-      <c r="AC49" s="838"/>
-      <c r="AD49" s="838"/>
-      <c r="AE49" s="838"/>
-      <c r="AF49" s="838"/>
-      <c r="AG49" s="838"/>
-      <c r="AH49" s="838"/>
-      <c r="AI49" s="838"/>
-      <c r="AJ49" s="838"/>
-      <c r="AK49" s="838"/>
-      <c r="AL49" s="838"/>
-      <c r="AM49" s="838"/>
-      <c r="AN49" s="838"/>
-      <c r="AO49" s="838"/>
-      <c r="AP49" s="838"/>
-      <c r="AQ49" s="838"/>
-      <c r="AR49" s="838"/>
-      <c r="AS49" s="839"/>
-      <c r="AT49" s="828" t="s">
+      <c r="C49" s="838"/>
+      <c r="D49" s="839"/>
+      <c r="E49" s="839"/>
+      <c r="F49" s="839"/>
+      <c r="G49" s="839"/>
+      <c r="H49" s="839"/>
+      <c r="I49" s="839"/>
+      <c r="J49" s="839"/>
+      <c r="K49" s="839"/>
+      <c r="L49" s="839"/>
+      <c r="M49" s="839"/>
+      <c r="N49" s="839"/>
+      <c r="O49" s="839"/>
+      <c r="P49" s="839"/>
+      <c r="Q49" s="839"/>
+      <c r="R49" s="839"/>
+      <c r="S49" s="839"/>
+      <c r="T49" s="839"/>
+      <c r="U49" s="839"/>
+      <c r="V49" s="839"/>
+      <c r="W49" s="839"/>
+      <c r="X49" s="839"/>
+      <c r="Y49" s="839"/>
+      <c r="Z49" s="839"/>
+      <c r="AA49" s="839"/>
+      <c r="AB49" s="839"/>
+      <c r="AC49" s="839"/>
+      <c r="AD49" s="839"/>
+      <c r="AE49" s="839"/>
+      <c r="AF49" s="839"/>
+      <c r="AG49" s="839"/>
+      <c r="AH49" s="839"/>
+      <c r="AI49" s="839"/>
+      <c r="AJ49" s="839"/>
+      <c r="AK49" s="839"/>
+      <c r="AL49" s="839"/>
+      <c r="AM49" s="839"/>
+      <c r="AN49" s="839"/>
+      <c r="AO49" s="839"/>
+      <c r="AP49" s="839"/>
+      <c r="AQ49" s="839"/>
+      <c r="AR49" s="839"/>
+      <c r="AS49" s="840"/>
+      <c r="AT49" s="829" t="s">
         <v>51</v>
       </c>
-      <c r="AU49" s="829"/>
-      <c r="AV49" s="829"/>
-      <c r="AW49" s="829"/>
-      <c r="AX49" s="829"/>
-      <c r="AY49" s="829"/>
-      <c r="AZ49" s="830"/>
-      <c r="BA49" s="831"/>
-      <c r="BB49" s="832"/>
-      <c r="BC49" s="832"/>
-      <c r="BD49" s="832"/>
-      <c r="BE49" s="832"/>
-      <c r="BF49" s="833"/>
-      <c r="BG49" s="834"/>
-      <c r="BH49" s="835"/>
-      <c r="BI49" s="835"/>
-      <c r="BJ49" s="835"/>
-      <c r="BK49" s="835"/>
-      <c r="BL49" s="836"/>
+      <c r="AU49" s="830"/>
+      <c r="AV49" s="830"/>
+      <c r="AW49" s="830"/>
+      <c r="AX49" s="830"/>
+      <c r="AY49" s="830"/>
+      <c r="AZ49" s="831"/>
+      <c r="BA49" s="832"/>
+      <c r="BB49" s="833"/>
+      <c r="BC49" s="833"/>
+      <c r="BD49" s="833"/>
+      <c r="BE49" s="833"/>
+      <c r="BF49" s="834"/>
+      <c r="BG49" s="835"/>
+      <c r="BH49" s="836"/>
+      <c r="BI49" s="836"/>
+      <c r="BJ49" s="836"/>
+      <c r="BK49" s="836"/>
+      <c r="BL49" s="837"/>
       <c r="BM49" s="137"/>
     </row>
     <row r="50" spans="2:65" ht="16.25" customHeight="1" thickBot="1">
       <c r="B50" s="136"/>
-      <c r="C50" s="840"/>
-      <c r="D50" s="841"/>
-      <c r="E50" s="841"/>
-      <c r="F50" s="841"/>
-      <c r="G50" s="841"/>
-      <c r="H50" s="841"/>
-      <c r="I50" s="841"/>
-      <c r="J50" s="841"/>
-      <c r="K50" s="841"/>
-      <c r="L50" s="841"/>
-      <c r="M50" s="841"/>
-      <c r="N50" s="841"/>
-      <c r="O50" s="841"/>
-      <c r="P50" s="841"/>
-      <c r="Q50" s="841"/>
-      <c r="R50" s="841"/>
-      <c r="S50" s="841"/>
-      <c r="T50" s="841"/>
-      <c r="U50" s="841"/>
-      <c r="V50" s="841"/>
-      <c r="W50" s="841"/>
-      <c r="X50" s="841"/>
-      <c r="Y50" s="841"/>
-      <c r="Z50" s="841"/>
-      <c r="AA50" s="841"/>
-      <c r="AB50" s="841"/>
-      <c r="AC50" s="841"/>
-      <c r="AD50" s="841"/>
-      <c r="AE50" s="841"/>
-      <c r="AF50" s="841"/>
-      <c r="AG50" s="841"/>
-      <c r="AH50" s="841"/>
-      <c r="AI50" s="841"/>
-      <c r="AJ50" s="841"/>
-      <c r="AK50" s="841"/>
-      <c r="AL50" s="841"/>
-      <c r="AM50" s="841"/>
-      <c r="AN50" s="841"/>
-      <c r="AO50" s="841"/>
-      <c r="AP50" s="841"/>
-      <c r="AQ50" s="841"/>
-      <c r="AR50" s="841"/>
-      <c r="AS50" s="842"/>
-      <c r="AT50" s="828" t="s">
+      <c r="C50" s="841"/>
+      <c r="D50" s="842"/>
+      <c r="E50" s="842"/>
+      <c r="F50" s="842"/>
+      <c r="G50" s="842"/>
+      <c r="H50" s="842"/>
+      <c r="I50" s="842"/>
+      <c r="J50" s="842"/>
+      <c r="K50" s="842"/>
+      <c r="L50" s="842"/>
+      <c r="M50" s="842"/>
+      <c r="N50" s="842"/>
+      <c r="O50" s="842"/>
+      <c r="P50" s="842"/>
+      <c r="Q50" s="842"/>
+      <c r="R50" s="842"/>
+      <c r="S50" s="842"/>
+      <c r="T50" s="842"/>
+      <c r="U50" s="842"/>
+      <c r="V50" s="842"/>
+      <c r="W50" s="842"/>
+      <c r="X50" s="842"/>
+      <c r="Y50" s="842"/>
+      <c r="Z50" s="842"/>
+      <c r="AA50" s="842"/>
+      <c r="AB50" s="842"/>
+      <c r="AC50" s="842"/>
+      <c r="AD50" s="842"/>
+      <c r="AE50" s="842"/>
+      <c r="AF50" s="842"/>
+      <c r="AG50" s="842"/>
+      <c r="AH50" s="842"/>
+      <c r="AI50" s="842"/>
+      <c r="AJ50" s="842"/>
+      <c r="AK50" s="842"/>
+      <c r="AL50" s="842"/>
+      <c r="AM50" s="842"/>
+      <c r="AN50" s="842"/>
+      <c r="AO50" s="842"/>
+      <c r="AP50" s="842"/>
+      <c r="AQ50" s="842"/>
+      <c r="AR50" s="842"/>
+      <c r="AS50" s="843"/>
+      <c r="AT50" s="829" t="s">
         <v>475</v>
       </c>
-      <c r="AU50" s="829"/>
-      <c r="AV50" s="829"/>
-      <c r="AW50" s="829"/>
-      <c r="AX50" s="829"/>
-      <c r="AY50" s="829"/>
-      <c r="AZ50" s="830"/>
-      <c r="BA50" s="831"/>
-      <c r="BB50" s="832"/>
-      <c r="BC50" s="832"/>
-      <c r="BD50" s="832"/>
-      <c r="BE50" s="832"/>
-      <c r="BF50" s="833"/>
-      <c r="BG50" s="834"/>
-      <c r="BH50" s="835"/>
-      <c r="BI50" s="835"/>
-      <c r="BJ50" s="835"/>
-      <c r="BK50" s="835"/>
-      <c r="BL50" s="836"/>
+      <c r="AU50" s="830"/>
+      <c r="AV50" s="830"/>
+      <c r="AW50" s="830"/>
+      <c r="AX50" s="830"/>
+      <c r="AY50" s="830"/>
+      <c r="AZ50" s="831"/>
+      <c r="BA50" s="832"/>
+      <c r="BB50" s="833"/>
+      <c r="BC50" s="833"/>
+      <c r="BD50" s="833"/>
+      <c r="BE50" s="833"/>
+      <c r="BF50" s="834"/>
+      <c r="BG50" s="835"/>
+      <c r="BH50" s="836"/>
+      <c r="BI50" s="836"/>
+      <c r="BJ50" s="836"/>
+      <c r="BK50" s="836"/>
+      <c r="BL50" s="837"/>
       <c r="BM50" s="137"/>
     </row>
     <row r="51" spans="2:65" ht="16.25" customHeight="1" thickBot="1">
       <c r="B51" s="136"/>
-      <c r="C51" s="822" t="s">
+      <c r="C51" s="823" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="824"/>
-      <c r="E51" s="822" t="s">
+      <c r="D51" s="825"/>
+      <c r="E51" s="823" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="823"/>
-      <c r="G51" s="823"/>
-      <c r="H51" s="823"/>
-      <c r="I51" s="823"/>
-      <c r="J51" s="824"/>
-      <c r="K51" s="843"/>
-      <c r="L51" s="844"/>
-      <c r="M51" s="844"/>
-      <c r="N51" s="844"/>
-      <c r="O51" s="844"/>
-      <c r="P51" s="844"/>
-      <c r="Q51" s="844"/>
-      <c r="R51" s="844"/>
-      <c r="S51" s="844"/>
-      <c r="T51" s="844"/>
-      <c r="U51" s="844"/>
-      <c r="V51" s="844"/>
-      <c r="W51" s="844"/>
-      <c r="X51" s="844"/>
-      <c r="Y51" s="844"/>
-      <c r="Z51" s="844"/>
-      <c r="AA51" s="844"/>
-      <c r="AB51" s="844"/>
-      <c r="AC51" s="844"/>
-      <c r="AD51" s="844"/>
-      <c r="AE51" s="844"/>
-      <c r="AF51" s="844"/>
-      <c r="AG51" s="845"/>
-      <c r="AH51" s="846" t="s">
+      <c r="F51" s="824"/>
+      <c r="G51" s="824"/>
+      <c r="H51" s="824"/>
+      <c r="I51" s="824"/>
+      <c r="J51" s="825"/>
+      <c r="K51" s="844"/>
+      <c r="L51" s="845"/>
+      <c r="M51" s="845"/>
+      <c r="N51" s="845"/>
+      <c r="O51" s="845"/>
+      <c r="P51" s="845"/>
+      <c r="Q51" s="845"/>
+      <c r="R51" s="845"/>
+      <c r="S51" s="845"/>
+      <c r="T51" s="845"/>
+      <c r="U51" s="845"/>
+      <c r="V51" s="845"/>
+      <c r="W51" s="845"/>
+      <c r="X51" s="845"/>
+      <c r="Y51" s="845"/>
+      <c r="Z51" s="845"/>
+      <c r="AA51" s="845"/>
+      <c r="AB51" s="845"/>
+      <c r="AC51" s="845"/>
+      <c r="AD51" s="845"/>
+      <c r="AE51" s="845"/>
+      <c r="AF51" s="845"/>
+      <c r="AG51" s="846"/>
+      <c r="AH51" s="847" t="s">
         <v>50</v>
       </c>
-      <c r="AI51" s="847"/>
-      <c r="AJ51" s="847"/>
-      <c r="AK51" s="847"/>
-      <c r="AL51" s="847"/>
-      <c r="AM51" s="848"/>
-      <c r="AN51" s="846" t="s">
+      <c r="AI51" s="848"/>
+      <c r="AJ51" s="848"/>
+      <c r="AK51" s="848"/>
+      <c r="AL51" s="848"/>
+      <c r="AM51" s="849"/>
+      <c r="AN51" s="847" t="s">
         <v>51</v>
       </c>
-      <c r="AO51" s="847"/>
-      <c r="AP51" s="847"/>
-      <c r="AQ51" s="847"/>
-      <c r="AR51" s="847"/>
-      <c r="AS51" s="848"/>
-      <c r="AT51" s="852"/>
-      <c r="AU51" s="853"/>
-      <c r="AV51" s="853"/>
-      <c r="AW51" s="853"/>
-      <c r="AX51" s="853"/>
-      <c r="AY51" s="853"/>
-      <c r="AZ51" s="854"/>
-      <c r="BA51" s="861" t="s">
+      <c r="AO51" s="848"/>
+      <c r="AP51" s="848"/>
+      <c r="AQ51" s="848"/>
+      <c r="AR51" s="848"/>
+      <c r="AS51" s="849"/>
+      <c r="AT51" s="853"/>
+      <c r="AU51" s="854"/>
+      <c r="AV51" s="854"/>
+      <c r="AW51" s="854"/>
+      <c r="AX51" s="854"/>
+      <c r="AY51" s="854"/>
+      <c r="AZ51" s="855"/>
+      <c r="BA51" s="862" t="s">
         <v>47</v>
       </c>
-      <c r="BB51" s="862"/>
-      <c r="BC51" s="862"/>
-      <c r="BD51" s="862"/>
-      <c r="BE51" s="862"/>
-      <c r="BF51" s="863"/>
-      <c r="BG51" s="828" t="s">
+      <c r="BB51" s="863"/>
+      <c r="BC51" s="863"/>
+      <c r="BD51" s="863"/>
+      <c r="BE51" s="863"/>
+      <c r="BF51" s="864"/>
+      <c r="BG51" s="829" t="s">
         <v>45</v>
       </c>
-      <c r="BH51" s="829"/>
-      <c r="BI51" s="829"/>
-      <c r="BJ51" s="829"/>
-      <c r="BK51" s="829"/>
-      <c r="BL51" s="830"/>
+      <c r="BH51" s="830"/>
+      <c r="BI51" s="830"/>
+      <c r="BJ51" s="830"/>
+      <c r="BK51" s="830"/>
+      <c r="BL51" s="831"/>
       <c r="BM51" s="137"/>
     </row>
     <row r="52" spans="2:65" ht="18" customHeight="1" thickBot="1">
       <c r="B52" s="136"/>
-      <c r="C52" s="822"/>
-      <c r="D52" s="824"/>
-      <c r="E52" s="822"/>
-      <c r="F52" s="823"/>
-      <c r="G52" s="823"/>
-      <c r="H52" s="823">
+      <c r="C52" s="823"/>
+      <c r="D52" s="825"/>
+      <c r="E52" s="823"/>
+      <c r="F52" s="824"/>
+      <c r="G52" s="824"/>
+      <c r="H52" s="824">
         <v>0</v>
       </c>
-      <c r="I52" s="823"/>
-      <c r="J52" s="824"/>
-      <c r="K52" s="843"/>
-      <c r="L52" s="844"/>
-      <c r="M52" s="844"/>
-      <c r="N52" s="844"/>
-      <c r="O52" s="844"/>
-      <c r="P52" s="844"/>
-      <c r="Q52" s="844"/>
-      <c r="R52" s="844"/>
-      <c r="S52" s="844"/>
-      <c r="T52" s="844"/>
-      <c r="U52" s="844"/>
-      <c r="V52" s="844"/>
-      <c r="W52" s="844"/>
-      <c r="X52" s="844"/>
-      <c r="Y52" s="844"/>
-      <c r="Z52" s="844"/>
-      <c r="AA52" s="844"/>
-      <c r="AB52" s="844"/>
-      <c r="AC52" s="844"/>
-      <c r="AD52" s="844"/>
-      <c r="AE52" s="844"/>
-      <c r="AF52" s="844"/>
-      <c r="AG52" s="845"/>
-      <c r="AH52" s="846"/>
-      <c r="AI52" s="847"/>
-      <c r="AJ52" s="847"/>
-      <c r="AK52" s="847"/>
-      <c r="AL52" s="847"/>
-      <c r="AM52" s="848"/>
-      <c r="AN52" s="846"/>
-      <c r="AO52" s="847"/>
-      <c r="AP52" s="847"/>
-      <c r="AQ52" s="847"/>
-      <c r="AR52" s="847"/>
-      <c r="AS52" s="848"/>
-      <c r="AT52" s="855"/>
-      <c r="AU52" s="856"/>
-      <c r="AV52" s="856"/>
-      <c r="AW52" s="856"/>
-      <c r="AX52" s="856"/>
-      <c r="AY52" s="856"/>
-      <c r="AZ52" s="857"/>
-      <c r="BA52" s="849" t="s">
+      <c r="I52" s="824"/>
+      <c r="J52" s="825"/>
+      <c r="K52" s="844"/>
+      <c r="L52" s="845"/>
+      <c r="M52" s="845"/>
+      <c r="N52" s="845"/>
+      <c r="O52" s="845"/>
+      <c r="P52" s="845"/>
+      <c r="Q52" s="845"/>
+      <c r="R52" s="845"/>
+      <c r="S52" s="845"/>
+      <c r="T52" s="845"/>
+      <c r="U52" s="845"/>
+      <c r="V52" s="845"/>
+      <c r="W52" s="845"/>
+      <c r="X52" s="845"/>
+      <c r="Y52" s="845"/>
+      <c r="Z52" s="845"/>
+      <c r="AA52" s="845"/>
+      <c r="AB52" s="845"/>
+      <c r="AC52" s="845"/>
+      <c r="AD52" s="845"/>
+      <c r="AE52" s="845"/>
+      <c r="AF52" s="845"/>
+      <c r="AG52" s="846"/>
+      <c r="AH52" s="847"/>
+      <c r="AI52" s="848"/>
+      <c r="AJ52" s="848"/>
+      <c r="AK52" s="848"/>
+      <c r="AL52" s="848"/>
+      <c r="AM52" s="849"/>
+      <c r="AN52" s="847"/>
+      <c r="AO52" s="848"/>
+      <c r="AP52" s="848"/>
+      <c r="AQ52" s="848"/>
+      <c r="AR52" s="848"/>
+      <c r="AS52" s="849"/>
+      <c r="AT52" s="856"/>
+      <c r="AU52" s="857"/>
+      <c r="AV52" s="857"/>
+      <c r="AW52" s="857"/>
+      <c r="AX52" s="857"/>
+      <c r="AY52" s="857"/>
+      <c r="AZ52" s="858"/>
+      <c r="BA52" s="850" t="s">
         <v>48</v>
       </c>
-      <c r="BB52" s="850"/>
-      <c r="BC52" s="850"/>
-      <c r="BD52" s="850"/>
-      <c r="BE52" s="850"/>
-      <c r="BF52" s="851"/>
-      <c r="BG52" s="849"/>
-      <c r="BH52" s="850"/>
-      <c r="BI52" s="850"/>
-      <c r="BJ52" s="850"/>
-      <c r="BK52" s="850"/>
-      <c r="BL52" s="851"/>
+      <c r="BB52" s="851"/>
+      <c r="BC52" s="851"/>
+      <c r="BD52" s="851"/>
+      <c r="BE52" s="851"/>
+      <c r="BF52" s="852"/>
+      <c r="BG52" s="850"/>
+      <c r="BH52" s="851"/>
+      <c r="BI52" s="851"/>
+      <c r="BJ52" s="851"/>
+      <c r="BK52" s="851"/>
+      <c r="BL52" s="852"/>
       <c r="BM52" s="137"/>
     </row>
     <row r="53" spans="2:65" ht="18" customHeight="1" thickBot="1">
       <c r="B53" s="136"/>
-      <c r="C53" s="822"/>
-      <c r="D53" s="824"/>
-      <c r="E53" s="822"/>
-      <c r="F53" s="823"/>
-      <c r="G53" s="823"/>
-      <c r="H53" s="823"/>
-      <c r="I53" s="823"/>
-      <c r="J53" s="824"/>
-      <c r="K53" s="843"/>
-      <c r="L53" s="844"/>
-      <c r="M53" s="844"/>
-      <c r="N53" s="844"/>
-      <c r="O53" s="844"/>
-      <c r="P53" s="844"/>
-      <c r="Q53" s="844"/>
-      <c r="R53" s="844"/>
-      <c r="S53" s="844"/>
-      <c r="T53" s="844"/>
-      <c r="U53" s="844"/>
-      <c r="V53" s="844"/>
-      <c r="W53" s="844"/>
-      <c r="X53" s="844"/>
-      <c r="Y53" s="844"/>
-      <c r="Z53" s="844"/>
-      <c r="AA53" s="844"/>
-      <c r="AB53" s="844"/>
-      <c r="AC53" s="844"/>
-      <c r="AD53" s="844"/>
-      <c r="AE53" s="844"/>
-      <c r="AF53" s="844"/>
-      <c r="AG53" s="845"/>
-      <c r="AH53" s="846"/>
-      <c r="AI53" s="847"/>
-      <c r="AJ53" s="847"/>
-      <c r="AK53" s="847"/>
-      <c r="AL53" s="847"/>
-      <c r="AM53" s="848"/>
-      <c r="AN53" s="846"/>
-      <c r="AO53" s="847"/>
-      <c r="AP53" s="847"/>
-      <c r="AQ53" s="847"/>
-      <c r="AR53" s="847"/>
-      <c r="AS53" s="848"/>
-      <c r="AT53" s="858"/>
-      <c r="AU53" s="859"/>
-      <c r="AV53" s="859"/>
-      <c r="AW53" s="859"/>
-      <c r="AX53" s="859"/>
-      <c r="AY53" s="859"/>
-      <c r="AZ53" s="860"/>
-      <c r="BA53" s="822"/>
-      <c r="BB53" s="823"/>
-      <c r="BC53" s="823"/>
-      <c r="BD53" s="823"/>
-      <c r="BE53" s="823"/>
-      <c r="BF53" s="824"/>
-      <c r="BG53" s="822"/>
-      <c r="BH53" s="823"/>
-      <c r="BI53" s="823"/>
-      <c r="BJ53" s="823"/>
-      <c r="BK53" s="823"/>
-      <c r="BL53" s="824"/>
+      <c r="C53" s="823"/>
+      <c r="D53" s="825"/>
+      <c r="E53" s="823"/>
+      <c r="F53" s="824"/>
+      <c r="G53" s="824"/>
+      <c r="H53" s="824"/>
+      <c r="I53" s="824"/>
+      <c r="J53" s="825"/>
+      <c r="K53" s="844"/>
+      <c r="L53" s="845"/>
+      <c r="M53" s="845"/>
+      <c r="N53" s="845"/>
+      <c r="O53" s="845"/>
+      <c r="P53" s="845"/>
+      <c r="Q53" s="845"/>
+      <c r="R53" s="845"/>
+      <c r="S53" s="845"/>
+      <c r="T53" s="845"/>
+      <c r="U53" s="845"/>
+      <c r="V53" s="845"/>
+      <c r="W53" s="845"/>
+      <c r="X53" s="845"/>
+      <c r="Y53" s="845"/>
+      <c r="Z53" s="845"/>
+      <c r="AA53" s="845"/>
+      <c r="AB53" s="845"/>
+      <c r="AC53" s="845"/>
+      <c r="AD53" s="845"/>
+      <c r="AE53" s="845"/>
+      <c r="AF53" s="845"/>
+      <c r="AG53" s="846"/>
+      <c r="AH53" s="847"/>
+      <c r="AI53" s="848"/>
+      <c r="AJ53" s="848"/>
+      <c r="AK53" s="848"/>
+      <c r="AL53" s="848"/>
+      <c r="AM53" s="849"/>
+      <c r="AN53" s="847"/>
+      <c r="AO53" s="848"/>
+      <c r="AP53" s="848"/>
+      <c r="AQ53" s="848"/>
+      <c r="AR53" s="848"/>
+      <c r="AS53" s="849"/>
+      <c r="AT53" s="859"/>
+      <c r="AU53" s="860"/>
+      <c r="AV53" s="860"/>
+      <c r="AW53" s="860"/>
+      <c r="AX53" s="860"/>
+      <c r="AY53" s="860"/>
+      <c r="AZ53" s="861"/>
+      <c r="BA53" s="823"/>
+      <c r="BB53" s="824"/>
+      <c r="BC53" s="824"/>
+      <c r="BD53" s="824"/>
+      <c r="BE53" s="824"/>
+      <c r="BF53" s="825"/>
+      <c r="BG53" s="823"/>
+      <c r="BH53" s="824"/>
+      <c r="BI53" s="824"/>
+      <c r="BJ53" s="824"/>
+      <c r="BK53" s="824"/>
+      <c r="BL53" s="825"/>
       <c r="BM53" s="137"/>
     </row>
     <row r="54" spans="2:65" ht="18" customHeight="1" thickBot="1">
       <c r="B54" s="136"/>
-      <c r="C54" s="822"/>
-      <c r="D54" s="824"/>
-      <c r="E54" s="822"/>
-      <c r="F54" s="823"/>
-      <c r="G54" s="823"/>
-      <c r="H54" s="823">
+      <c r="C54" s="823"/>
+      <c r="D54" s="825"/>
+      <c r="E54" s="823"/>
+      <c r="F54" s="824"/>
+      <c r="G54" s="824"/>
+      <c r="H54" s="824">
         <v>0</v>
       </c>
-      <c r="I54" s="823"/>
-      <c r="J54" s="824"/>
-      <c r="K54" s="843"/>
-      <c r="L54" s="844"/>
-      <c r="M54" s="844"/>
-      <c r="N54" s="844"/>
-      <c r="O54" s="844"/>
-      <c r="P54" s="844"/>
-      <c r="Q54" s="844"/>
-      <c r="R54" s="844"/>
-      <c r="S54" s="844"/>
-      <c r="T54" s="844"/>
-      <c r="U54" s="844"/>
-      <c r="V54" s="844"/>
-      <c r="W54" s="844"/>
-      <c r="X54" s="844"/>
-      <c r="Y54" s="844"/>
-      <c r="Z54" s="844"/>
-      <c r="AA54" s="844"/>
-      <c r="AB54" s="844"/>
-      <c r="AC54" s="844"/>
-      <c r="AD54" s="844"/>
-      <c r="AE54" s="844"/>
-      <c r="AF54" s="844"/>
-      <c r="AG54" s="845"/>
-      <c r="AH54" s="846"/>
-      <c r="AI54" s="847"/>
-      <c r="AJ54" s="847"/>
-      <c r="AK54" s="847"/>
-      <c r="AL54" s="847"/>
-      <c r="AM54" s="848"/>
-      <c r="AN54" s="846"/>
-      <c r="AO54" s="847"/>
-      <c r="AP54" s="847"/>
-      <c r="AQ54" s="847"/>
-      <c r="AR54" s="847"/>
-      <c r="AS54" s="848"/>
-      <c r="AT54" s="864" t="s">
+      <c r="I54" s="824"/>
+      <c r="J54" s="825"/>
+      <c r="K54" s="844"/>
+      <c r="L54" s="845"/>
+      <c r="M54" s="845"/>
+      <c r="N54" s="845"/>
+      <c r="O54" s="845"/>
+      <c r="P54" s="845"/>
+      <c r="Q54" s="845"/>
+      <c r="R54" s="845"/>
+      <c r="S54" s="845"/>
+      <c r="T54" s="845"/>
+      <c r="U54" s="845"/>
+      <c r="V54" s="845"/>
+      <c r="W54" s="845"/>
+      <c r="X54" s="845"/>
+      <c r="Y54" s="845"/>
+      <c r="Z54" s="845"/>
+      <c r="AA54" s="845"/>
+      <c r="AB54" s="845"/>
+      <c r="AC54" s="845"/>
+      <c r="AD54" s="845"/>
+      <c r="AE54" s="845"/>
+      <c r="AF54" s="845"/>
+      <c r="AG54" s="846"/>
+      <c r="AH54" s="847"/>
+      <c r="AI54" s="848"/>
+      <c r="AJ54" s="848"/>
+      <c r="AK54" s="848"/>
+      <c r="AL54" s="848"/>
+      <c r="AM54" s="849"/>
+      <c r="AN54" s="847"/>
+      <c r="AO54" s="848"/>
+      <c r="AP54" s="848"/>
+      <c r="AQ54" s="848"/>
+      <c r="AR54" s="848"/>
+      <c r="AS54" s="849"/>
+      <c r="AT54" s="865" t="s">
         <v>447</v>
       </c>
-      <c r="AU54" s="865"/>
-      <c r="AV54" s="865"/>
-      <c r="AW54" s="865"/>
-      <c r="AX54" s="865"/>
-      <c r="AY54" s="865"/>
-      <c r="AZ54" s="865"/>
-      <c r="BA54" s="865"/>
-      <c r="BB54" s="865"/>
-      <c r="BC54" s="865"/>
-      <c r="BD54" s="865"/>
-      <c r="BE54" s="865"/>
-      <c r="BF54" s="865"/>
-      <c r="BG54" s="865"/>
-      <c r="BH54" s="865"/>
-      <c r="BI54" s="865"/>
-      <c r="BJ54" s="865"/>
-      <c r="BK54" s="865"/>
-      <c r="BL54" s="866"/>
+      <c r="AU54" s="866"/>
+      <c r="AV54" s="866"/>
+      <c r="AW54" s="866"/>
+      <c r="AX54" s="866"/>
+      <c r="AY54" s="866"/>
+      <c r="AZ54" s="866"/>
+      <c r="BA54" s="866"/>
+      <c r="BB54" s="866"/>
+      <c r="BC54" s="866"/>
+      <c r="BD54" s="866"/>
+      <c r="BE54" s="866"/>
+      <c r="BF54" s="866"/>
+      <c r="BG54" s="866"/>
+      <c r="BH54" s="866"/>
+      <c r="BI54" s="866"/>
+      <c r="BJ54" s="866"/>
+      <c r="BK54" s="866"/>
+      <c r="BL54" s="867"/>
       <c r="BM54" s="137"/>
     </row>
     <row r="55" spans="2:65" ht="18" customHeight="1" thickBot="1">
       <c r="B55" s="138"/>
-      <c r="C55" s="822"/>
-      <c r="D55" s="824"/>
-      <c r="E55" s="822"/>
-      <c r="F55" s="823"/>
-      <c r="G55" s="823"/>
-      <c r="H55" s="823">
+      <c r="C55" s="823"/>
+      <c r="D55" s="825"/>
+      <c r="E55" s="823"/>
+      <c r="F55" s="824"/>
+      <c r="G55" s="824"/>
+      <c r="H55" s="824">
         <v>0</v>
       </c>
-      <c r="I55" s="823"/>
-      <c r="J55" s="824"/>
-      <c r="K55" s="843"/>
-      <c r="L55" s="844"/>
-      <c r="M55" s="844"/>
-      <c r="N55" s="844"/>
-      <c r="O55" s="844"/>
-      <c r="P55" s="844"/>
-      <c r="Q55" s="844"/>
-      <c r="R55" s="844"/>
-      <c r="S55" s="844"/>
-      <c r="T55" s="844"/>
-      <c r="U55" s="844"/>
-      <c r="V55" s="844"/>
-      <c r="W55" s="844"/>
-      <c r="X55" s="844"/>
-      <c r="Y55" s="844"/>
-      <c r="Z55" s="844"/>
-      <c r="AA55" s="844"/>
-      <c r="AB55" s="844"/>
-      <c r="AC55" s="844"/>
-      <c r="AD55" s="844"/>
-      <c r="AE55" s="844"/>
-      <c r="AF55" s="844"/>
-      <c r="AG55" s="845"/>
-      <c r="AH55" s="846"/>
-      <c r="AI55" s="847"/>
-      <c r="AJ55" s="847"/>
-      <c r="AK55" s="847"/>
-      <c r="AL55" s="847"/>
-      <c r="AM55" s="848"/>
-      <c r="AN55" s="846"/>
-      <c r="AO55" s="847"/>
-      <c r="AP55" s="847"/>
-      <c r="AQ55" s="847"/>
-      <c r="AR55" s="847"/>
-      <c r="AS55" s="848"/>
-      <c r="AT55" s="867"/>
-      <c r="AU55" s="868"/>
-      <c r="AV55" s="868"/>
-      <c r="AW55" s="868"/>
-      <c r="AX55" s="868"/>
-      <c r="AY55" s="868"/>
-      <c r="AZ55" s="868"/>
-      <c r="BA55" s="868"/>
-      <c r="BB55" s="868"/>
-      <c r="BC55" s="868"/>
-      <c r="BD55" s="868"/>
-      <c r="BE55" s="868"/>
-      <c r="BF55" s="868"/>
-      <c r="BG55" s="868"/>
-      <c r="BH55" s="868"/>
-      <c r="BI55" s="868"/>
-      <c r="BJ55" s="868"/>
-      <c r="BK55" s="868"/>
-      <c r="BL55" s="869"/>
+      <c r="I55" s="824"/>
+      <c r="J55" s="825"/>
+      <c r="K55" s="844"/>
+      <c r="L55" s="845"/>
+      <c r="M55" s="845"/>
+      <c r="N55" s="845"/>
+      <c r="O55" s="845"/>
+      <c r="P55" s="845"/>
+      <c r="Q55" s="845"/>
+      <c r="R55" s="845"/>
+      <c r="S55" s="845"/>
+      <c r="T55" s="845"/>
+      <c r="U55" s="845"/>
+      <c r="V55" s="845"/>
+      <c r="W55" s="845"/>
+      <c r="X55" s="845"/>
+      <c r="Y55" s="845"/>
+      <c r="Z55" s="845"/>
+      <c r="AA55" s="845"/>
+      <c r="AB55" s="845"/>
+      <c r="AC55" s="845"/>
+      <c r="AD55" s="845"/>
+      <c r="AE55" s="845"/>
+      <c r="AF55" s="845"/>
+      <c r="AG55" s="846"/>
+      <c r="AH55" s="847"/>
+      <c r="AI55" s="848"/>
+      <c r="AJ55" s="848"/>
+      <c r="AK55" s="848"/>
+      <c r="AL55" s="848"/>
+      <c r="AM55" s="849"/>
+      <c r="AN55" s="847"/>
+      <c r="AO55" s="848"/>
+      <c r="AP55" s="848"/>
+      <c r="AQ55" s="848"/>
+      <c r="AR55" s="848"/>
+      <c r="AS55" s="849"/>
+      <c r="AT55" s="868"/>
+      <c r="AU55" s="869"/>
+      <c r="AV55" s="869"/>
+      <c r="AW55" s="869"/>
+      <c r="AX55" s="869"/>
+      <c r="AY55" s="869"/>
+      <c r="AZ55" s="869"/>
+      <c r="BA55" s="869"/>
+      <c r="BB55" s="869"/>
+      <c r="BC55" s="869"/>
+      <c r="BD55" s="869"/>
+      <c r="BE55" s="869"/>
+      <c r="BF55" s="869"/>
+      <c r="BG55" s="869"/>
+      <c r="BH55" s="869"/>
+      <c r="BI55" s="869"/>
+      <c r="BJ55" s="869"/>
+      <c r="BK55" s="869"/>
+      <c r="BL55" s="870"/>
       <c r="BM55" s="137"/>
     </row>
-    <row r="56" spans="2:65" ht="9" customHeight="1">
+    <row r="56" spans="2:65" ht="19" customHeight="1">
       <c r="B56" s="139"/>
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
@@ -11633,14 +11634,14 @@
   </sheetPr>
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="200" zoomScaleNormal="85" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" zoomScale="143" zoomScaleNormal="85" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="1.3984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28" style="8" customWidth="1"/>
     <col min="4" max="4" width="9.796875" style="8" customWidth="1"/>
     <col min="5" max="5" width="4" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.3984375" style="8" customWidth="1"/>
@@ -11660,60 +11661,60 @@
     <row r="1" spans="1:30" ht="7" customHeight="1"/>
     <row r="2" spans="1:30" ht="10" customHeight="1"/>
     <row r="3" spans="1:30" ht="69" customHeight="1">
-      <c r="C3" s="888"/>
-      <c r="D3" s="888"/>
-      <c r="F3" s="889"/>
-      <c r="G3" s="889"/>
-      <c r="H3" s="889"/>
-      <c r="I3" s="889"/>
-      <c r="J3" s="889"/>
-      <c r="K3" s="889"/>
-      <c r="L3" s="889"/>
-      <c r="M3" s="890" t="s">
+      <c r="C3" s="889"/>
+      <c r="D3" s="889"/>
+      <c r="F3" s="890"/>
+      <c r="G3" s="890"/>
+      <c r="H3" s="890"/>
+      <c r="I3" s="890"/>
+      <c r="J3" s="890"/>
+      <c r="K3" s="890"/>
+      <c r="L3" s="890"/>
+      <c r="M3" s="891" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="891"/>
-      <c r="O3" s="891"/>
+      <c r="N3" s="892"/>
+      <c r="O3" s="892"/>
     </row>
     <row r="4" spans="1:30" ht="1.25" customHeight="1">
-      <c r="M4" s="892"/>
-      <c r="N4" s="892"/>
-      <c r="O4" s="892"/>
+      <c r="M4" s="893"/>
+      <c r="N4" s="893"/>
+      <c r="O4" s="893"/>
     </row>
     <row r="5" spans="1:30" ht="20.25" customHeight="1">
-      <c r="C5" s="893" t="s">
+      <c r="C5" s="894" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="893"/>
-      <c r="E5" s="893"/>
-      <c r="F5" s="893"/>
-      <c r="G5" s="893"/>
-      <c r="H5" s="893"/>
-      <c r="I5" s="893"/>
-      <c r="J5" s="893"/>
-      <c r="K5" s="893"/>
-      <c r="L5" s="893"/>
-      <c r="M5" s="893"/>
-      <c r="N5" s="893"/>
-      <c r="O5" s="893"/>
+      <c r="D5" s="894"/>
+      <c r="E5" s="894"/>
+      <c r="F5" s="894"/>
+      <c r="G5" s="894"/>
+      <c r="H5" s="894"/>
+      <c r="I5" s="894"/>
+      <c r="J5" s="894"/>
+      <c r="K5" s="894"/>
+      <c r="L5" s="894"/>
+      <c r="M5" s="894"/>
+      <c r="N5" s="894"/>
+      <c r="O5" s="894"/>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1"/>
     <row r="7" spans="1:30" ht="20" customHeight="1">
-      <c r="C7" s="879" t="s">
+      <c r="C7" s="880" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="879"/>
-      <c r="E7" s="879"/>
-      <c r="F7" s="879"/>
+      <c r="D7" s="880"/>
+      <c r="E7" s="880"/>
+      <c r="F7" s="880"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="884"/>
-      <c r="K7" s="884"/>
-      <c r="L7" s="884"/>
-      <c r="M7" s="884"/>
-      <c r="N7" s="884"/>
-      <c r="O7" s="884"/>
+      <c r="J7" s="885"/>
+      <c r="K7" s="885"/>
+      <c r="L7" s="885"/>
+      <c r="M7" s="885"/>
+      <c r="N7" s="885"/>
+      <c r="O7" s="885"/>
     </row>
     <row r="8" spans="1:30" ht="1.25" customHeight="1">
       <c r="C8" s="9"/>
@@ -11744,21 +11745,21 @@
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1" thickTop="1"/>
     <row r="11" spans="1:30" ht="50" customHeight="1">
-      <c r="C11" s="885" t="s">
+      <c r="C11" s="886" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="885"/>
-      <c r="E11" s="885"/>
-      <c r="F11" s="885"/>
+      <c r="D11" s="886"/>
+      <c r="E11" s="886"/>
+      <c r="F11" s="886"/>
       <c r="G11" s="36"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="886"/>
-      <c r="J11" s="886"/>
-      <c r="K11" s="886"/>
-      <c r="L11" s="886"/>
-      <c r="M11" s="886"/>
-      <c r="N11" s="886"/>
-      <c r="O11" s="886"/>
+      <c r="I11" s="887"/>
+      <c r="J11" s="887"/>
+      <c r="K11" s="887"/>
+      <c r="L11" s="887"/>
+      <c r="M11" s="887"/>
+      <c r="N11" s="887"/>
+      <c r="O11" s="887"/>
     </row>
     <row r="12" spans="1:30" s="69" customFormat="1" ht="5.25" customHeight="1">
       <c r="A12" s="8"/>
@@ -11795,21 +11796,21 @@
     <row r="13" spans="1:30" s="69" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="887" t="s">
+      <c r="C13" s="888" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="887"/>
-      <c r="E13" s="887"/>
-      <c r="F13" s="887"/>
+      <c r="D13" s="888"/>
+      <c r="E13" s="888"/>
+      <c r="F13" s="888"/>
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="886"/>
-      <c r="J13" s="886"/>
-      <c r="K13" s="886"/>
-      <c r="L13" s="886"/>
-      <c r="M13" s="886"/>
-      <c r="N13" s="886"/>
-      <c r="O13" s="886"/>
+      <c r="I13" s="887"/>
+      <c r="J13" s="887"/>
+      <c r="K13" s="887"/>
+      <c r="L13" s="887"/>
+      <c r="M13" s="887"/>
+      <c r="N13" s="887"/>
+      <c r="O13" s="887"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -11874,12 +11875,12 @@
       <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:30" ht="17.25" customHeight="1">
-      <c r="C16" s="879" t="s">
+      <c r="C16" s="880" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="879"/>
-      <c r="E16" s="879"/>
-      <c r="F16" s="879"/>
+      <c r="D16" s="880"/>
+      <c r="E16" s="880"/>
+      <c r="F16" s="880"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
       <c r="I16" s="47"/>
@@ -11887,8 +11888,8 @@
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
-      <c r="N16" s="880"/>
-      <c r="O16" s="880"/>
+      <c r="N16" s="881"/>
+      <c r="O16" s="881"/>
     </row>
     <row r="17" spans="1:15" ht="1.25" customHeight="1" thickBot="1">
       <c r="C17" s="12"/>
@@ -11922,77 +11923,77 @@
       <c r="G19" s="769"/>
       <c r="H19" s="769"/>
       <c r="I19" s="769"/>
-      <c r="J19" s="881"/>
-      <c r="K19" s="881"/>
-      <c r="L19" s="881"/>
-      <c r="M19" s="882"/>
-      <c r="N19" s="882"/>
+      <c r="J19" s="882"/>
+      <c r="K19" s="882"/>
+      <c r="L19" s="882"/>
+      <c r="M19" s="883"/>
+      <c r="N19" s="883"/>
       <c r="O19" s="770"/>
     </row>
     <row r="20" spans="1:15" ht="1" customHeight="1">
-      <c r="J20" s="883"/>
-      <c r="K20" s="883"/>
-      <c r="L20" s="883"/>
+      <c r="J20" s="884"/>
+      <c r="K20" s="884"/>
+      <c r="L20" s="884"/>
       <c r="M20" s="767"/>
       <c r="N20" s="767"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1"/>
     <row r="22" spans="1:15" ht="14.25" customHeight="1">
-      <c r="C22" s="876" t="s">
+      <c r="C22" s="877" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="876"/>
-      <c r="E22" s="876"/>
-      <c r="F22" s="876"/>
+      <c r="D22" s="877"/>
+      <c r="E22" s="877"/>
+      <c r="F22" s="877"/>
       <c r="G22" s="49"/>
-      <c r="H22" s="877" t="s">
+      <c r="H22" s="878" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="877"/>
-      <c r="J22" s="877"/>
-      <c r="K22" s="877"/>
+      <c r="I22" s="878"/>
+      <c r="J22" s="878"/>
+      <c r="K22" s="878"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="877" t="s">
+      <c r="M22" s="878" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="877"/>
-      <c r="O22" s="877"/>
+      <c r="N22" s="878"/>
+      <c r="O22" s="878"/>
     </row>
     <row r="23" spans="1:15" ht="1.25" customHeight="1" thickBot="1">
-      <c r="C23" s="878"/>
-      <c r="D23" s="878"/>
-      <c r="E23" s="878"/>
-      <c r="F23" s="878"/>
+      <c r="C23" s="879"/>
+      <c r="D23" s="879"/>
+      <c r="E23" s="879"/>
+      <c r="F23" s="879"/>
       <c r="G23" s="71"/>
-      <c r="H23" s="878"/>
-      <c r="I23" s="878"/>
-      <c r="J23" s="878"/>
-      <c r="K23" s="878"/>
+      <c r="H23" s="879"/>
+      <c r="I23" s="879"/>
+      <c r="J23" s="879"/>
+      <c r="K23" s="879"/>
       <c r="L23" s="50"/>
-      <c r="M23" s="878"/>
-      <c r="N23" s="878"/>
-      <c r="O23" s="878"/>
+      <c r="M23" s="879"/>
+      <c r="N23" s="879"/>
+      <c r="O23" s="879"/>
     </row>
     <row r="24" spans="1:15" ht="24.75" customHeight="1" thickTop="1">
-      <c r="C24" s="874"/>
-      <c r="D24" s="874"/>
-      <c r="E24" s="874"/>
-      <c r="F24" s="874"/>
+      <c r="C24" s="875"/>
+      <c r="D24" s="875"/>
+      <c r="E24" s="875"/>
+      <c r="F24" s="875"/>
       <c r="G24" s="51"/>
-      <c r="H24" s="875"/>
-      <c r="I24" s="875"/>
-      <c r="J24" s="875"/>
-      <c r="K24" s="875"/>
+      <c r="H24" s="876"/>
+      <c r="I24" s="876"/>
+      <c r="J24" s="876"/>
+      <c r="K24" s="876"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="874"/>
-      <c r="N24" s="874"/>
-      <c r="O24" s="874"/>
+      <c r="M24" s="875"/>
+      <c r="N24" s="875"/>
+      <c r="O24" s="875"/>
     </row>
     <row r="25" spans="1:15" ht="5.25" customHeight="1">
       <c r="C25" s="63"/>
-      <c r="D25" s="870"/>
-      <c r="E25" s="870"/>
-      <c r="F25" s="870"/>
+      <c r="D25" s="871"/>
+      <c r="E25" s="871"/>
+      <c r="F25" s="871"/>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
@@ -12022,21 +12023,21 @@
       <c r="O27" s="57"/>
     </row>
     <row r="28" spans="1:15" ht="36" customHeight="1">
-      <c r="C28" s="871" t="s">
+      <c r="C28" s="872" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="872"/>
-      <c r="E28" s="872"/>
-      <c r="F28" s="872"/>
-      <c r="G28" s="872"/>
-      <c r="H28" s="872"/>
-      <c r="I28" s="872"/>
-      <c r="J28" s="872"/>
-      <c r="K28" s="872"/>
-      <c r="L28" s="872"/>
-      <c r="M28" s="872"/>
-      <c r="N28" s="872"/>
-      <c r="O28" s="873"/>
+      <c r="D28" s="873"/>
+      <c r="E28" s="873"/>
+      <c r="F28" s="873"/>
+      <c r="G28" s="873"/>
+      <c r="H28" s="873"/>
+      <c r="I28" s="873"/>
+      <c r="J28" s="873"/>
+      <c r="K28" s="873"/>
+      <c r="L28" s="873"/>
+      <c r="M28" s="873"/>
+      <c r="N28" s="873"/>
+      <c r="O28" s="874"/>
     </row>
     <row r="29" spans="1:15" ht="5.25" customHeight="1">
       <c r="A29" s="159"/>
@@ -12102,7 +12103,7 @@
   </sheetPr>
   <dimension ref="B1:P1005"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -12137,17 +12138,17 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="12" customHeight="1">
-      <c r="B2" s="909"/>
-      <c r="C2" s="909"/>
-      <c r="D2" s="909"/>
-      <c r="E2" s="909"/>
-      <c r="F2" s="909"/>
-      <c r="G2" s="909"/>
-      <c r="H2" s="909"/>
-      <c r="I2" s="909"/>
-      <c r="J2" s="909"/>
-      <c r="K2" s="909"/>
-      <c r="L2" s="909"/>
+      <c r="B2" s="910"/>
+      <c r="C2" s="910"/>
+      <c r="D2" s="910"/>
+      <c r="E2" s="910"/>
+      <c r="F2" s="910"/>
+      <c r="G2" s="910"/>
+      <c r="H2" s="910"/>
+      <c r="I2" s="910"/>
+      <c r="J2" s="910"/>
+      <c r="K2" s="910"/>
+      <c r="L2" s="910"/>
       <c r="N2" s="733" t="s">
         <v>68</v>
       </c>
@@ -12157,50 +12158,50 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="B3" s="909" t="s">
+      <c r="B3" s="910" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="909"/>
-      <c r="D3" s="909"/>
-      <c r="E3" s="909"/>
-      <c r="F3" s="909"/>
-      <c r="G3" s="909"/>
-      <c r="H3" s="909"/>
-      <c r="I3" s="909"/>
-      <c r="J3" s="909"/>
-      <c r="K3" s="910" t="str">
+      <c r="C3" s="910"/>
+      <c r="D3" s="910"/>
+      <c r="E3" s="910"/>
+      <c r="F3" s="910"/>
+      <c r="G3" s="910"/>
+      <c r="H3" s="910"/>
+      <c r="I3" s="910"/>
+      <c r="J3" s="910"/>
+      <c r="K3" s="911" t="str">
         <f>"Sets in delivery - "&amp;N1</f>
         <v>Sets in delivery - 1</v>
       </c>
-      <c r="L3" s="910"/>
+      <c r="L3" s="911"/>
     </row>
     <row r="4" spans="2:16" ht="17" customHeight="1" outlineLevel="1">
-      <c r="B4" s="909" t="s">
+      <c r="B4" s="910" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="909"/>
-      <c r="D4" s="909"/>
-      <c r="E4" s="909"/>
-      <c r="F4" s="909"/>
-      <c r="G4" s="909"/>
-      <c r="H4" s="909"/>
-      <c r="I4" s="909"/>
-      <c r="J4" s="909"/>
-      <c r="K4" s="910"/>
-      <c r="L4" s="910"/>
+      <c r="C4" s="910"/>
+      <c r="D4" s="910"/>
+      <c r="E4" s="910"/>
+      <c r="F4" s="910"/>
+      <c r="G4" s="910"/>
+      <c r="H4" s="910"/>
+      <c r="I4" s="910"/>
+      <c r="J4" s="910"/>
+      <c r="K4" s="911"/>
+      <c r="L4" s="911"/>
     </row>
     <row r="5" spans="2:16" ht="12" customHeight="1" thickBot="1">
-      <c r="B5" s="909"/>
-      <c r="C5" s="909"/>
-      <c r="D5" s="909"/>
-      <c r="E5" s="909"/>
-      <c r="F5" s="909"/>
-      <c r="G5" s="909"/>
-      <c r="H5" s="909"/>
-      <c r="I5" s="909"/>
-      <c r="J5" s="909"/>
-      <c r="K5" s="909"/>
-      <c r="L5" s="909"/>
+      <c r="B5" s="910"/>
+      <c r="C5" s="910"/>
+      <c r="D5" s="910"/>
+      <c r="E5" s="910"/>
+      <c r="F5" s="910"/>
+      <c r="G5" s="910"/>
+      <c r="H5" s="910"/>
+      <c r="I5" s="910"/>
+      <c r="J5" s="910"/>
+      <c r="K5" s="910"/>
+      <c r="L5" s="910"/>
     </row>
     <row r="6" spans="2:16" ht="5" customHeight="1">
       <c r="B6" s="745"/>
@@ -12209,56 +12210,56 @@
       <c r="E6" s="747"/>
       <c r="F6" s="747"/>
       <c r="G6" s="747"/>
-      <c r="H6" s="906"/>
-      <c r="I6" s="907"/>
+      <c r="H6" s="907"/>
+      <c r="I6" s="908"/>
       <c r="J6" s="738"/>
-      <c r="K6" s="906"/>
-      <c r="L6" s="908"/>
+      <c r="K6" s="907"/>
+      <c r="L6" s="909"/>
       <c r="N6" s="736"/>
       <c r="O6" s="737"/>
       <c r="P6" s="738"/>
     </row>
     <row r="7" spans="2:16" ht="17.25" customHeight="1">
-      <c r="B7" s="899" t="s">
+      <c r="B7" s="900" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="748"/>
-      <c r="D7" s="901" t="s">
+      <c r="D7" s="902" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="901" t="s">
+      <c r="E7" s="902" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1167" t="s">
+      <c r="F7" s="775" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="903" t="s">
+      <c r="G7" s="904" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="897" t="s">
+      <c r="H7" s="898" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="905"/>
+      <c r="I7" s="906"/>
       <c r="J7" s="749"/>
-      <c r="K7" s="897" t="s">
+      <c r="K7" s="898" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="898"/>
-      <c r="N7" s="894" t="s">
+      <c r="L7" s="899"/>
+      <c r="N7" s="895" t="s">
         <v>469</v>
       </c>
-      <c r="O7" s="895"/>
-      <c r="P7" s="896"/>
+      <c r="O7" s="896"/>
+      <c r="P7" s="897"/>
     </row>
     <row r="8" spans="2:16" ht="17.25" customHeight="1">
-      <c r="B8" s="900"/>
+      <c r="B8" s="901"/>
       <c r="C8" s="750"/>
-      <c r="D8" s="902"/>
-      <c r="E8" s="902"/>
+      <c r="D8" s="903"/>
+      <c r="E8" s="903"/>
       <c r="F8" s="774" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="904"/>
+      <c r="G8" s="905"/>
       <c r="H8" s="751" t="s">
         <v>57</v>
       </c>
@@ -13106,43 +13107,43 @@
     </row>
     <row r="7" spans="1:21" ht="45" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="958" t="s">
+      <c r="B7" s="959" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="959"/>
+      <c r="C7" s="960"/>
       <c r="D7" s="164"/>
-      <c r="E7" s="919"/>
-      <c r="F7" s="920"/>
+      <c r="E7" s="920"/>
+      <c r="F7" s="921"/>
     </row>
     <row r="8" spans="1:21" ht="20" customHeight="1" collapsed="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="960" t="s">
+      <c r="B8" s="961" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="961"/>
+      <c r="C8" s="962"/>
       <c r="D8" s="165"/>
-      <c r="E8" s="921">
+      <c r="E8" s="922">
         <v>0</v>
       </c>
-      <c r="F8" s="922"/>
+      <c r="F8" s="923"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:21" ht="20" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="960" t="s">
+      <c r="B9" s="961" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="964"/>
+      <c r="C9" s="965"/>
       <c r="D9" s="166"/>
-      <c r="E9" s="940"/>
-      <c r="F9" s="941"/>
+      <c r="E9" s="941"/>
+      <c r="F9" s="942"/>
     </row>
     <row r="10" spans="1:21" ht="101.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="942" t="s">
+      <c r="B10" s="943" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="943"/>
+      <c r="C10" s="944"/>
       <c r="D10" s="167"/>
       <c r="E10" s="174"/>
       <c r="F10" s="163"/>
@@ -13150,51 +13151,51 @@
     </row>
     <row r="11" spans="1:21" ht="20" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="944" t="s">
+      <c r="B11" s="945" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="945"/>
+      <c r="C11" s="946"/>
       <c r="D11" s="168"/>
-      <c r="E11" s="946"/>
-      <c r="F11" s="947"/>
+      <c r="E11" s="947"/>
+      <c r="F11" s="948"/>
     </row>
     <row r="12" spans="1:21" ht="20" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="944" t="s">
+      <c r="B12" s="945" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="945"/>
+      <c r="C12" s="946"/>
       <c r="D12" s="168"/>
-      <c r="E12" s="923"/>
-      <c r="F12" s="924"/>
+      <c r="E12" s="924"/>
+      <c r="F12" s="925"/>
     </row>
     <row r="13" spans="1:21" ht="20" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="962" t="s">
+      <c r="B13" s="963" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="963"/>
+      <c r="C13" s="964"/>
       <c r="D13" s="168"/>
-      <c r="E13" s="925" t="s">
+      <c r="E13" s="926" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="926"/>
+      <c r="F13" s="927"/>
     </row>
     <row r="14" spans="1:21" ht="0.75" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="950"/>
-      <c r="C14" s="951"/>
+      <c r="B14" s="951"/>
+      <c r="C14" s="952"/>
       <c r="D14" s="169"/>
-      <c r="E14" s="952"/>
-      <c r="F14" s="953"/>
+      <c r="E14" s="953"/>
+      <c r="F14" s="954"/>
     </row>
     <row r="15" spans="1:21" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="954"/>
-      <c r="C15" s="955"/>
+      <c r="B15" s="955"/>
+      <c r="C15" s="956"/>
       <c r="D15" s="180"/>
-      <c r="E15" s="956"/>
-      <c r="F15" s="957"/>
+      <c r="E15" s="957"/>
+      <c r="F15" s="958"/>
     </row>
     <row r="16" spans="1:21" ht="16" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
@@ -13206,57 +13207,57 @@
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="938" t="s">
+      <c r="B17" s="939" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="939"/>
+      <c r="C17" s="940"/>
       <c r="D17" s="170"/>
-      <c r="E17" s="927">
+      <c r="E17" s="928">
         <f xml:space="preserve"> SUM(E14:E15)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="928"/>
+      <c r="F17" s="929"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="948" t="s">
+      <c r="B18" s="949" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="949"/>
+      <c r="C18" s="950"/>
       <c r="D18" s="171"/>
-      <c r="E18" s="929"/>
-      <c r="F18" s="930"/>
+      <c r="E18" s="930"/>
+      <c r="F18" s="931"/>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="934"/>
-      <c r="C19" s="935"/>
+      <c r="B19" s="935"/>
+      <c r="C19" s="936"/>
       <c r="D19" s="172"/>
-      <c r="E19" s="911">
+      <c r="E19" s="912">
         <f>ROUND((1+E18)*E17,0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="912"/>
+      <c r="F19" s="913"/>
       <c r="G19" s="7"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="936" t="s">
+      <c r="B20" s="937" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="937"/>
+      <c r="C20" s="938"/>
       <c r="D20" s="173"/>
-      <c r="E20" s="913">
+      <c r="E20" s="914">
         <f>ROUND(E12*E19/1000,3)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="914"/>
+      <c r="F20" s="915"/>
     </row>
     <row r="21" spans="1:9" ht="5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="931"/>
-      <c r="C21" s="931"/>
+      <c r="B21" s="932"/>
+      <c r="C21" s="932"/>
       <c r="D21" s="162"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -13290,29 +13291,29 @@
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="932" t="s">
+      <c r="B26" s="933" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="933"/>
+      <c r="C26" s="934"/>
       <c r="D26" s="161"/>
-      <c r="E26" s="927">
+      <c r="E26" s="928">
         <f>COUNT(E14:E15)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="928"/>
+      <c r="F26" s="929"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="915" t="s">
+      <c r="B27" s="916" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="916"/>
+      <c r="C27" s="917"/>
       <c r="D27" s="160"/>
-      <c r="E27" s="917" t="e">
+      <c r="E27" s="918" t="e">
         <f>E17/E26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="918"/>
+      <c r="F27" s="919"/>
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1"/>
     <row r="29" spans="1:9" ht="12" customHeight="1"/>
@@ -13450,10 +13451,10 @@
       <c r="AI3" s="204"/>
     </row>
     <row r="4" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="D4" s="967" t="s">
+      <c r="D4" s="968" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="967"/>
+      <c r="E4" s="968"/>
       <c r="F4" s="208"/>
       <c r="G4" s="209"/>
       <c r="H4" s="205"/>
@@ -13480,8 +13481,8 @@
     <row r="5" spans="2:53" ht="21" customHeight="1" thickBot="1">
       <c r="B5" s="214"/>
       <c r="C5" s="214"/>
-      <c r="D5" s="967"/>
-      <c r="E5" s="967"/>
+      <c r="D5" s="968"/>
+      <c r="E5" s="968"/>
       <c r="G5" s="208"/>
       <c r="H5" s="205"/>
       <c r="I5" s="201"/>
@@ -13508,10 +13509,10 @@
       <c r="AL5" s="201"/>
     </row>
     <row r="6" spans="2:53" ht="21" customHeight="1">
-      <c r="D6" s="968" t="s">
+      <c r="D6" s="969" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="969"/>
+      <c r="E6" s="970"/>
       <c r="F6" s="219"/>
       <c r="G6" s="220"/>
       <c r="H6" s="221"/>
@@ -13545,10 +13546,10 @@
     </row>
     <row r="7" spans="2:53" ht="21" customHeight="1">
       <c r="B7" s="214"/>
-      <c r="D7" s="970" t="s">
+      <c r="D7" s="971" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="967"/>
+      <c r="E7" s="968"/>
       <c r="G7" s="209"/>
       <c r="H7" s="205"/>
       <c r="I7" s="229"/>
@@ -13588,10 +13589,10 @@
     </row>
     <row r="8" spans="2:53" ht="21" customHeight="1">
       <c r="B8" s="214"/>
-      <c r="D8" s="970" t="s">
+      <c r="D8" s="971" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="967"/>
+      <c r="E8" s="968"/>
       <c r="G8" s="235"/>
       <c r="H8" s="205"/>
       <c r="I8" s="229"/>
@@ -13633,10 +13634,10 @@
     </row>
     <row r="9" spans="2:53" ht="21" customHeight="1" thickBot="1">
       <c r="B9" s="214"/>
-      <c r="D9" s="965" t="s">
+      <c r="D9" s="966" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="966"/>
+      <c r="E9" s="967"/>
       <c r="F9" s="242"/>
       <c r="G9" s="243"/>
       <c r="H9" s="244"/>
@@ -13660,17 +13661,17 @@
       </c>
       <c r="Q9" s="216"/>
       <c r="R9" s="208"/>
-      <c r="W9" s="972" t="s">
+      <c r="W9" s="973" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="973"/>
-      <c r="Y9" s="978" t="s">
+      <c r="X9" s="974"/>
+      <c r="Y9" s="979" t="s">
         <v>146</v>
       </c>
-      <c r="Z9" s="978" t="s">
+      <c r="Z9" s="979" t="s">
         <v>147</v>
       </c>
-      <c r="AA9" s="978" t="s">
+      <c r="AA9" s="979" t="s">
         <v>148</v>
       </c>
       <c r="AB9" s="250"/>
@@ -13687,7 +13688,7 @@
       <c r="AM9" s="234"/>
     </row>
     <row r="10" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B10" s="988"/>
+      <c r="B10" s="989"/>
       <c r="D10" s="251" t="s">
         <v>149</v>
       </c>
@@ -13713,11 +13714,11 @@
         <v>152</v>
       </c>
       <c r="R10" s="208"/>
-      <c r="W10" s="974"/>
-      <c r="X10" s="975"/>
-      <c r="Y10" s="979"/>
-      <c r="Z10" s="979"/>
-      <c r="AA10" s="979"/>
+      <c r="W10" s="975"/>
+      <c r="X10" s="976"/>
+      <c r="Y10" s="980"/>
+      <c r="Z10" s="980"/>
+      <c r="AA10" s="980"/>
       <c r="AB10" s="250"/>
       <c r="AC10" s="250"/>
       <c r="AD10" s="204"/>
@@ -13732,7 +13733,7 @@
       <c r="AM10" s="234"/>
     </row>
     <row r="11" spans="2:53" ht="21" customHeight="1">
-      <c r="B11" s="988"/>
+      <c r="B11" s="989"/>
       <c r="D11" s="217" t="s">
         <v>44</v>
       </c>
@@ -13762,11 +13763,11 @@
       <c r="T11" s="262"/>
       <c r="U11" s="262"/>
       <c r="V11" s="263"/>
-      <c r="W11" s="976"/>
-      <c r="X11" s="977"/>
-      <c r="Y11" s="980"/>
-      <c r="Z11" s="980"/>
-      <c r="AA11" s="980"/>
+      <c r="W11" s="977"/>
+      <c r="X11" s="978"/>
+      <c r="Y11" s="981"/>
+      <c r="Z11" s="981"/>
+      <c r="AA11" s="981"/>
       <c r="AB11" s="250"/>
       <c r="AC11" s="250"/>
       <c r="AD11" s="204"/>
@@ -13778,7 +13779,7 @@
       <c r="AM11" s="234"/>
     </row>
     <row r="12" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B12" s="988"/>
+      <c r="B12" s="989"/>
       <c r="D12" s="228" t="s">
         <v>49</v>
       </c>
@@ -13812,10 +13813,10 @@
       <c r="T12" s="270"/>
       <c r="U12" s="270"/>
       <c r="V12" s="271"/>
-      <c r="W12" s="981">
+      <c r="W12" s="982">
         <v>24</v>
       </c>
-      <c r="X12" s="982"/>
+      <c r="X12" s="983"/>
       <c r="Y12" s="272">
         <f>CEILING(N30/W12,1)</f>
         <v>0</v>
@@ -13840,7 +13841,7 @@
       <c r="BA12" s="200"/>
     </row>
     <row r="13" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B13" s="988"/>
+      <c r="B13" s="989"/>
       <c r="D13" s="228" t="s">
         <v>97</v>
       </c>
@@ -13871,22 +13872,22 @@
       <c r="T13" s="270"/>
       <c r="U13" s="270"/>
       <c r="V13" s="271"/>
-      <c r="W13" s="978" t="s">
+      <c r="W13" s="979" t="s">
         <v>162</v>
       </c>
-      <c r="X13" s="978" t="s">
+      <c r="X13" s="979" t="s">
         <v>163</v>
       </c>
-      <c r="Y13" s="978" t="s">
+      <c r="Y13" s="979" t="s">
         <v>122</v>
       </c>
-      <c r="Z13" s="983" t="s">
+      <c r="Z13" s="984" t="s">
         <v>164</v>
       </c>
-      <c r="AA13" s="983" t="s">
+      <c r="AA13" s="984" t="s">
         <v>165</v>
       </c>
-      <c r="AB13" s="983"/>
+      <c r="AB13" s="984"/>
       <c r="AC13" s="278"/>
       <c r="AD13" s="275"/>
       <c r="AE13" s="275"/>
@@ -13903,7 +13904,7 @@
       <c r="BA13" s="200"/>
     </row>
     <row r="14" spans="2:53" ht="21" customHeight="1">
-      <c r="B14" s="988"/>
+      <c r="B14" s="989"/>
       <c r="D14" s="228" t="s">
         <v>166</v>
       </c>
@@ -13934,12 +13935,12 @@
       <c r="T14" s="270"/>
       <c r="U14" s="270"/>
       <c r="V14" s="271"/>
-      <c r="W14" s="979"/>
-      <c r="X14" s="979"/>
-      <c r="Y14" s="979"/>
-      <c r="Z14" s="983"/>
-      <c r="AA14" s="983"/>
-      <c r="AB14" s="983"/>
+      <c r="W14" s="980"/>
+      <c r="X14" s="980"/>
+      <c r="Y14" s="980"/>
+      <c r="Z14" s="984"/>
+      <c r="AA14" s="984"/>
+      <c r="AB14" s="984"/>
       <c r="AC14" s="278"/>
       <c r="AD14" s="275"/>
       <c r="AE14" s="275"/>
@@ -13958,7 +13959,7 @@
       <c r="BA14" s="200"/>
     </row>
     <row r="15" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B15" s="984"/>
+      <c r="B15" s="985"/>
       <c r="D15" s="240" t="s">
         <v>98</v>
       </c>
@@ -13988,12 +13989,12 @@
       <c r="T15" s="270"/>
       <c r="U15" s="270"/>
       <c r="V15" s="271"/>
-      <c r="W15" s="980"/>
-      <c r="X15" s="980"/>
-      <c r="Y15" s="979"/>
-      <c r="Z15" s="983"/>
-      <c r="AA15" s="983"/>
-      <c r="AB15" s="983"/>
+      <c r="W15" s="981"/>
+      <c r="X15" s="981"/>
+      <c r="Y15" s="980"/>
+      <c r="Z15" s="984"/>
+      <c r="AA15" s="984"/>
+      <c r="AB15" s="984"/>
       <c r="AC15" s="278"/>
       <c r="AD15" s="275"/>
       <c r="AE15" s="275"/>
@@ -14012,7 +14013,7 @@
       <c r="BA15" s="200"/>
     </row>
     <row r="16" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B16" s="984"/>
+      <c r="B16" s="985"/>
       <c r="D16" s="251" t="s">
         <v>168</v>
       </c>
@@ -14046,14 +14047,14 @@
       <c r="X16" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="Y16" s="980"/>
+      <c r="Y16" s="981"/>
       <c r="Z16" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="AA16" s="985" t="s">
+      <c r="AA16" s="986" t="s">
         <v>135</v>
       </c>
-      <c r="AB16" s="985"/>
+      <c r="AB16" s="986"/>
       <c r="AC16" s="301"/>
       <c r="AD16" s="275"/>
       <c r="AE16" s="275"/>
@@ -14072,7 +14073,7 @@
       <c r="BA16" s="200"/>
     </row>
     <row r="17" spans="2:55" ht="21" customHeight="1">
-      <c r="B17" s="984"/>
+      <c r="B17" s="985"/>
       <c r="D17" s="303" t="s">
         <v>109</v>
       </c>
@@ -14119,10 +14120,10 @@
       <c r="Z17" s="311">
         <v>0</v>
       </c>
-      <c r="AA17" s="986">
+      <c r="AA17" s="987">
         <v>0</v>
       </c>
-      <c r="AB17" s="986"/>
+      <c r="AB17" s="987"/>
       <c r="AC17" s="313"/>
       <c r="AG17" s="314"/>
       <c r="AH17" s="315"/>
@@ -14171,10 +14172,10 @@
       <c r="Z18" s="321" t="s">
         <v>69</v>
       </c>
-      <c r="AA18" s="987" t="s">
+      <c r="AA18" s="988" t="s">
         <v>69</v>
       </c>
-      <c r="AB18" s="987"/>
+      <c r="AB18" s="988"/>
       <c r="AC18" s="321" t="s">
         <v>69</v>
       </c>
@@ -14233,11 +14234,11 @@
         <f>CEILING($N$30/$Z$12,1)*$Z$17/$N$30*VLOOKUP($Z$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA19" s="971" t="e">
+      <c r="AA19" s="972" t="e">
         <f>$AA$17/$N$30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" s="971"/>
+      <c r="AB19" s="972"/>
       <c r="AC19" s="334" t="e">
         <f>$AC$28*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
@@ -14257,10 +14258,10 @@
       <c r="W20" s="226" t="s">
         <v>173</v>
       </c>
-      <c r="X20" s="989" t="s">
+      <c r="X20" s="990" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="989"/>
+      <c r="Y20" s="990"/>
       <c r="Z20" s="226" t="s">
         <v>175</v>
       </c>
@@ -14305,59 +14306,59 @@
       <c r="Q21" s="274"/>
       <c r="R21" s="274"/>
       <c r="W21" s="208"/>
-      <c r="X21" s="990" t="s">
+      <c r="X21" s="991" t="s">
         <v>116</v>
       </c>
-      <c r="Y21" s="991"/>
-      <c r="AB21" s="992" t="s">
+      <c r="Y21" s="992"/>
+      <c r="AB21" s="993" t="s">
         <v>101</v>
       </c>
-      <c r="AC21" s="993"/>
+      <c r="AC21" s="994"/>
       <c r="AD21" s="336" t="s">
         <v>121</v>
       </c>
-      <c r="AE21" s="994" t="s">
+      <c r="AE21" s="995" t="s">
         <v>179</v>
       </c>
-      <c r="AF21" s="995"/>
-      <c r="AG21" s="996"/>
-      <c r="AH21" s="997" t="s">
+      <c r="AF21" s="996"/>
+      <c r="AG21" s="997"/>
+      <c r="AH21" s="998" t="s">
         <v>180</v>
       </c>
-      <c r="AI21" s="1019" t="s">
+      <c r="AI21" s="1020" t="s">
         <v>181</v>
       </c>
-      <c r="AJ21" s="1020"/>
-      <c r="AK21" s="1020"/>
-      <c r="AL21" s="1020"/>
-      <c r="AM21" s="1021"/>
+      <c r="AJ21" s="1021"/>
+      <c r="AK21" s="1021"/>
+      <c r="AL21" s="1021"/>
+      <c r="AM21" s="1022"/>
       <c r="AN21" s="337"/>
       <c r="AO21" s="338"/>
-      <c r="AP21" s="1007" t="s">
+      <c r="AP21" s="1008" t="s">
         <v>182</v>
       </c>
-      <c r="AQ21" s="1008"/>
+      <c r="AQ21" s="1009"/>
       <c r="AR21" s="339" t="s">
         <v>68</v>
       </c>
       <c r="AS21" s="340"/>
-      <c r="AT21" s="1009" t="s">
+      <c r="AT21" s="1010" t="s">
         <v>103</v>
       </c>
-      <c r="AU21" s="1010"/>
+      <c r="AU21" s="1011"/>
       <c r="AV21" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="AW21" s="1011" t="s">
+      <c r="AW21" s="1012" t="s">
         <v>105</v>
       </c>
-      <c r="AX21" s="1012"/>
+      <c r="AX21" s="1013"/>
       <c r="AY21" s="201"/>
       <c r="AZ21" s="201"/>
-      <c r="BB21" s="1011" t="s">
+      <c r="BB21" s="1012" t="s">
         <v>183</v>
       </c>
-      <c r="BC21" s="1012"/>
+      <c r="BC21" s="1013"/>
     </row>
     <row r="22" spans="2:55" ht="21" customHeight="1">
       <c r="E22" s="200"/>
@@ -14375,93 +14376,93 @@
       <c r="O22" s="219" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="1013" t="s">
+      <c r="P22" s="1014" t="s">
         <v>184</v>
       </c>
-      <c r="Q22" s="1014"/>
+      <c r="Q22" s="1015"/>
       <c r="R22" s="343"/>
-      <c r="S22" s="1013" t="s">
+      <c r="S22" s="1014" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="1014"/>
-      <c r="U22" s="1013" t="s">
+      <c r="T22" s="1015"/>
+      <c r="U22" s="1014" t="s">
         <v>186</v>
       </c>
-      <c r="V22" s="1014"/>
-      <c r="W22" s="1013" t="s">
+      <c r="V22" s="1015"/>
+      <c r="W22" s="1014" t="s">
         <v>187</v>
       </c>
-      <c r="X22" s="1017" t="s">
+      <c r="X22" s="1018" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" s="1000" t="s">
+      <c r="Y22" s="1001" t="s">
         <v>118</v>
       </c>
-      <c r="Z22" s="1000" t="s">
+      <c r="Z22" s="1001" t="s">
         <v>188</v>
       </c>
-      <c r="AA22" s="1002" t="s">
+      <c r="AA22" s="1003" t="s">
         <v>100</v>
       </c>
       <c r="AB22" s="344"/>
       <c r="AC22" s="345"/>
-      <c r="AD22" s="1002" t="s">
+      <c r="AD22" s="1003" t="s">
         <v>189</v>
       </c>
-      <c r="AE22" s="1005" t="s">
+      <c r="AE22" s="1006" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" s="1029" t="s">
+      <c r="AF22" s="1030" t="s">
         <v>190</v>
       </c>
-      <c r="AG22" s="1031" t="s">
+      <c r="AG22" s="1032" t="s">
         <v>102</v>
       </c>
-      <c r="AH22" s="998"/>
-      <c r="AI22" s="1033" t="str">
+      <c r="AH22" s="999"/>
+      <c r="AI22" s="1034" t="str">
         <f>CONCATENATE(I12," ",H12)</f>
         <v>DAP Origin</v>
       </c>
-      <c r="AJ22" s="1034"/>
-      <c r="AK22" s="1033" t="s">
+      <c r="AJ22" s="1035"/>
+      <c r="AK22" s="1034" t="s">
         <v>191</v>
       </c>
-      <c r="AL22" s="1037"/>
-      <c r="AM22" s="1041" t="s">
+      <c r="AL22" s="1038"/>
+      <c r="AM22" s="1042" t="s">
         <v>192</v>
       </c>
-      <c r="AN22" s="1034" t="s">
+      <c r="AN22" s="1035" t="s">
         <v>193</v>
       </c>
-      <c r="AO22" s="1037"/>
-      <c r="AP22" s="1053" t="s">
+      <c r="AO22" s="1038"/>
+      <c r="AP22" s="1054" t="s">
         <v>107</v>
       </c>
-      <c r="AQ22" s="1053" t="s">
+      <c r="AQ22" s="1054" t="s">
         <v>194</v>
       </c>
-      <c r="AR22" s="1053" t="s">
+      <c r="AR22" s="1054" t="s">
         <v>195</v>
       </c>
-      <c r="AS22" s="1053" t="s">
+      <c r="AS22" s="1054" t="s">
         <v>196</v>
       </c>
-      <c r="AT22" s="1022" t="s">
+      <c r="AT22" s="1023" t="s">
         <v>194</v>
       </c>
-      <c r="AU22" s="1023"/>
-      <c r="AV22" s="1026" t="s">
+      <c r="AU22" s="1024"/>
+      <c r="AV22" s="1027" t="s">
         <v>197</v>
       </c>
-      <c r="AW22" s="1057"/>
-      <c r="AX22" s="1058"/>
+      <c r="AW22" s="1058"/>
+      <c r="AX22" s="1059"/>
       <c r="AY22" s="346" t="s">
         <v>198</v>
       </c>
       <c r="AZ22" s="346"/>
       <c r="BA22" s="346"/>
-      <c r="BB22" s="1057"/>
-      <c r="BC22" s="1058"/>
+      <c r="BB22" s="1058"/>
+      <c r="BC22" s="1059"/>
     </row>
     <row r="23" spans="2:55" ht="21" customHeight="1">
       <c r="D23" s="335" t="s">
@@ -14473,52 +14474,52 @@
       <c r="K23" s="335"/>
       <c r="M23" s="347"/>
       <c r="N23" s="201"/>
-      <c r="P23" s="1015"/>
-      <c r="Q23" s="1016"/>
+      <c r="P23" s="1016"/>
+      <c r="Q23" s="1017"/>
       <c r="R23" s="348"/>
-      <c r="S23" s="1015"/>
-      <c r="T23" s="1016"/>
-      <c r="U23" s="1015"/>
-      <c r="V23" s="1016"/>
-      <c r="W23" s="1015"/>
-      <c r="X23" s="1018"/>
-      <c r="Y23" s="1001"/>
-      <c r="Z23" s="1001"/>
-      <c r="AA23" s="1003"/>
+      <c r="S23" s="1016"/>
+      <c r="T23" s="1017"/>
+      <c r="U23" s="1016"/>
+      <c r="V23" s="1017"/>
+      <c r="W23" s="1016"/>
+      <c r="X23" s="1019"/>
+      <c r="Y23" s="1002"/>
+      <c r="Z23" s="1002"/>
+      <c r="AA23" s="1004"/>
       <c r="AB23" s="344"/>
       <c r="AC23" s="345"/>
-      <c r="AD23" s="1003"/>
-      <c r="AE23" s="1006"/>
-      <c r="AF23" s="1030"/>
-      <c r="AG23" s="1032"/>
-      <c r="AH23" s="998"/>
-      <c r="AI23" s="1035"/>
-      <c r="AJ23" s="1036"/>
-      <c r="AK23" s="1035"/>
-      <c r="AL23" s="1038"/>
-      <c r="AM23" s="1042"/>
-      <c r="AN23" s="1036"/>
-      <c r="AO23" s="1038"/>
-      <c r="AP23" s="1054"/>
-      <c r="AQ23" s="1054"/>
-      <c r="AR23" s="1054"/>
-      <c r="AS23" s="1054"/>
-      <c r="AT23" s="1024"/>
-      <c r="AU23" s="1025"/>
-      <c r="AV23" s="1027"/>
-      <c r="AW23" s="1059"/>
-      <c r="AX23" s="1060"/>
-      <c r="AY23" s="1036" t="s">
+      <c r="AD23" s="1004"/>
+      <c r="AE23" s="1007"/>
+      <c r="AF23" s="1031"/>
+      <c r="AG23" s="1033"/>
+      <c r="AH23" s="999"/>
+      <c r="AI23" s="1036"/>
+      <c r="AJ23" s="1037"/>
+      <c r="AK23" s="1036"/>
+      <c r="AL23" s="1039"/>
+      <c r="AM23" s="1043"/>
+      <c r="AN23" s="1037"/>
+      <c r="AO23" s="1039"/>
+      <c r="AP23" s="1055"/>
+      <c r="AQ23" s="1055"/>
+      <c r="AR23" s="1055"/>
+      <c r="AS23" s="1055"/>
+      <c r="AT23" s="1025"/>
+      <c r="AU23" s="1026"/>
+      <c r="AV23" s="1028"/>
+      <c r="AW23" s="1060"/>
+      <c r="AX23" s="1061"/>
+      <c r="AY23" s="1037" t="s">
         <v>200</v>
       </c>
-      <c r="AZ23" s="1036" t="s">
+      <c r="AZ23" s="1037" t="s">
         <v>201</v>
       </c>
-      <c r="BA23" s="1036" t="s">
+      <c r="BA23" s="1037" t="s">
         <v>202</v>
       </c>
-      <c r="BB23" s="1059"/>
-      <c r="BC23" s="1060"/>
+      <c r="BB23" s="1060"/>
+      <c r="BC23" s="1061"/>
     </row>
     <row r="24" spans="2:55" s="216" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="C24" s="306" t="s">
@@ -14558,19 +14559,19 @@
         <v>211</v>
       </c>
       <c r="O24" s="351"/>
-      <c r="P24" s="1047" t="s">
+      <c r="P24" s="1048" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" s="1048"/>
+      <c r="Q24" s="1049"/>
       <c r="R24" s="353" t="str">
         <f>CONCATENATE(P24,(" / Pc"))</f>
         <v>EUR / Pc</v>
       </c>
-      <c r="S24" s="1049" t="str">
+      <c r="S24" s="1050" t="str">
         <f>CONCATENATE(I17," ",H17)</f>
         <v>FCA Destination</v>
       </c>
-      <c r="T24" s="1050"/>
+      <c r="T24" s="1051"/>
       <c r="U24" s="352" t="s">
         <v>68</v>
       </c>
@@ -14582,11 +14583,11 @@
         <f>CONCATENATE(W16,(" / MT"))</f>
         <v>USD / MT</v>
       </c>
-      <c r="X24" s="1051" t="str">
+      <c r="X24" s="1052" t="str">
         <f>CONCATENATE(X16,(" / MT"))</f>
         <v>EUR / MT</v>
       </c>
-      <c r="Y24" s="1052"/>
+      <c r="Y24" s="1053"/>
       <c r="Z24" s="356" t="str">
         <f>CONCATENATE(Z16,(" / MT"))</f>
         <v>EUR / MT</v>
@@ -14602,7 +14603,7 @@
         <f>CONCATENATE(AA16,(" / MT"))</f>
         <v>EUR / MT</v>
       </c>
-      <c r="AD24" s="1004"/>
+      <c r="AD24" s="1005"/>
       <c r="AE24" s="359" t="s">
         <v>212</v>
       </c>
@@ -14612,15 +14613,15 @@
       <c r="AG24" s="360" t="s">
         <v>212</v>
       </c>
-      <c r="AH24" s="999"/>
+      <c r="AH24" s="1000"/>
       <c r="AI24" s="361" t="s">
         <v>213</v>
       </c>
       <c r="AJ24" s="362" t="s">
         <v>135</v>
       </c>
-      <c r="AK24" s="1039"/>
-      <c r="AL24" s="1040"/>
+      <c r="AK24" s="1040"/>
+      <c r="AL24" s="1041"/>
       <c r="AM24" s="328"/>
       <c r="AN24" s="232" t="str">
         <f>AJ24</f>
@@ -14647,14 +14648,14 @@
       <c r="AU24" s="365" t="s">
         <v>69</v>
       </c>
-      <c r="AV24" s="1028"/>
-      <c r="AW24" s="1061"/>
-      <c r="AX24" s="1062"/>
-      <c r="AY24" s="1036"/>
-      <c r="AZ24" s="1036"/>
-      <c r="BA24" s="1036"/>
-      <c r="BB24" s="1061"/>
-      <c r="BC24" s="1062"/>
+      <c r="AV24" s="1029"/>
+      <c r="AW24" s="1062"/>
+      <c r="AX24" s="1063"/>
+      <c r="AY24" s="1037"/>
+      <c r="AZ24" s="1037"/>
+      <c r="BA24" s="1037"/>
+      <c r="BB24" s="1062"/>
+      <c r="BC24" s="1063"/>
     </row>
     <row r="25" spans="2:55" s="366" customFormat="1" ht="21" customHeight="1">
       <c r="C25" s="367" t="str">
@@ -14737,12 +14738,12 @@
     </row>
     <row r="26" spans="2:55" s="406" customFormat="1" ht="21" customHeight="1">
       <c r="C26" s="407"/>
-      <c r="D26" s="1063"/>
-      <c r="E26" s="1064"/>
-      <c r="F26" s="1064"/>
-      <c r="G26" s="1064"/>
-      <c r="H26" s="1064"/>
-      <c r="I26" s="1064"/>
+      <c r="D26" s="1064"/>
+      <c r="E26" s="1065"/>
+      <c r="F26" s="1065"/>
+      <c r="G26" s="1065"/>
+      <c r="H26" s="1065"/>
+      <c r="I26" s="1065"/>
       <c r="J26" s="408"/>
       <c r="K26" s="409" t="s">
         <v>216</v>
@@ -14962,11 +14963,11 @@
       <c r="G28" s="200"/>
       <c r="J28" s="274"/>
       <c r="K28" s="335"/>
-      <c r="P28" s="1065" t="e">
+      <c r="P28" s="1066" t="e">
         <f>P29/$N$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="1066"/>
+      <c r="Q28" s="1067"/>
       <c r="R28" s="487"/>
       <c r="S28" s="487" t="e">
         <f>S29/$N$29</f>
@@ -15043,28 +15044,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AS28" s="503"/>
-      <c r="AT28" s="1067" t="e">
+      <c r="AT28" s="1068" t="e">
         <f>AT29/$AG$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU28" s="1068"/>
+      <c r="AU28" s="1069"/>
       <c r="AV28" s="504" t="e">
         <f>AV29/S29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW28" s="1069" t="e">
+      <c r="AW28" s="1070" t="e">
         <f>AW29/N29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX28" s="1070"/>
+      <c r="AX28" s="1071"/>
       <c r="AY28" s="505"/>
       <c r="AZ28" s="505"/>
       <c r="BA28" s="506"/>
-      <c r="BB28" s="1071" t="e">
+      <c r="BB28" s="1072" t="e">
         <f>BB29/P29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC28" s="1070"/>
+      <c r="BC28" s="1071"/>
     </row>
     <row r="29" spans="2:55" ht="21" customHeight="1">
       <c r="D29" s="485" t="s">
@@ -15082,11 +15083,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="508"/>
-      <c r="P29" s="1043">
+      <c r="P29" s="1044">
         <f>SUMPRODUCT($O$25:$O$27,P25:P27)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="1044"/>
+      <c r="Q29" s="1045"/>
       <c r="R29" s="487"/>
       <c r="S29" s="488">
         <f>SUMPRODUCT($O$25:$O$27,S25:S27)</f>
@@ -15169,28 +15170,28 @@
         <v>0</v>
       </c>
       <c r="AS29" s="502"/>
-      <c r="AT29" s="1045" t="e">
+      <c r="AT29" s="1046" t="e">
         <f>SUMPRODUCT(AT25:AT27,$AG$25:$AG$27,$N$25:$N$27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU29" s="1046"/>
+      <c r="AU29" s="1047"/>
       <c r="AV29" s="518">
         <f>SUMPRODUCT(AV25:AV27,$S$25:$S$27,$O$25:$O$27)</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="1055">
+      <c r="AW29" s="1056">
         <f>SUMPRODUCT(AW25:AW27,$O$25:$O$27)</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="1056"/>
+      <c r="AX29" s="1057"/>
       <c r="AY29" s="501"/>
       <c r="AZ29" s="501"/>
       <c r="BA29" s="519"/>
-      <c r="BB29" s="1055">
+      <c r="BB29" s="1056">
         <f>SUMPRODUCT(BB25:BB27,$O$25:$O$27)</f>
         <v>0</v>
       </c>
-      <c r="BC29" s="1056"/>
+      <c r="BC29" s="1057"/>
     </row>
     <row r="30" spans="2:55" ht="21" customHeight="1">
       <c r="D30" s="520" t="str">
@@ -15208,11 +15209,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="508"/>
-      <c r="P30" s="1043">
+      <c r="P30" s="1044">
         <f>P29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="1044"/>
+      <c r="Q30" s="1045"/>
       <c r="R30" s="487"/>
       <c r="S30" s="487">
         <f>S29*$G$19</f>
@@ -15292,28 +15293,28 @@
         <v>0</v>
       </c>
       <c r="AS30" s="502"/>
-      <c r="AT30" s="1072" t="e">
+      <c r="AT30" s="1073" t="e">
         <f>AT29*$G$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU30" s="1046"/>
+      <c r="AU30" s="1047"/>
       <c r="AV30" s="518">
         <f>AV29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="1055">
+      <c r="AW30" s="1056">
         <f>AW29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="AX30" s="1056"/>
+      <c r="AX30" s="1057"/>
       <c r="AY30" s="501"/>
       <c r="AZ30" s="501"/>
       <c r="BA30" s="519"/>
-      <c r="BB30" s="1055">
+      <c r="BB30" s="1056">
         <f>BB29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="BC30" s="1056"/>
+      <c r="BC30" s="1057"/>
     </row>
     <row r="31" spans="2:55" ht="21" customHeight="1" thickBot="1">
       <c r="D31" s="448"/>
@@ -15328,8 +15329,8 @@
       <c r="M31" s="327"/>
       <c r="N31" s="327"/>
       <c r="O31" s="242"/>
-      <c r="P31" s="1073"/>
-      <c r="Q31" s="1074"/>
+      <c r="P31" s="1074"/>
+      <c r="Q31" s="1075"/>
       <c r="R31" s="456"/>
       <c r="S31" s="456"/>
       <c r="T31" s="521"/>
@@ -15367,16 +15368,16 @@
         <v>USD/MT</v>
       </c>
       <c r="AS31" s="535"/>
-      <c r="AT31" s="1075"/>
-      <c r="AU31" s="1076"/>
+      <c r="AT31" s="1076"/>
+      <c r="AU31" s="1077"/>
       <c r="AV31" s="536"/>
-      <c r="AW31" s="1077"/>
-      <c r="AX31" s="1078"/>
+      <c r="AW31" s="1078"/>
+      <c r="AX31" s="1079"/>
       <c r="AY31" s="501"/>
       <c r="AZ31" s="501"/>
       <c r="BA31" s="519"/>
-      <c r="BB31" s="1077"/>
-      <c r="BC31" s="1078"/>
+      <c r="BB31" s="1078"/>
+      <c r="BC31" s="1079"/>
     </row>
     <row r="32" spans="2:55" ht="21" customHeight="1" thickBot="1">
       <c r="D32" s="216"/>
@@ -15389,14 +15390,14 @@
       <c r="R32" s="208" t="s">
         <v>190</v>
       </c>
-      <c r="S32" s="1088" t="e">
+      <c r="S32" s="1089" t="e">
         <f>S30*VLOOKUP($P$24,$AG$13:$AI$18,3,FALSE)+V30*VLOOKUP($U$24,$AG$13:$AI$18,3,FALSE)+W30*VLOOKUP($W$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="1089"/>
-      <c r="U32" s="1089"/>
-      <c r="V32" s="1089"/>
-      <c r="W32" s="1090"/>
+      <c r="T32" s="1090"/>
+      <c r="U32" s="1090"/>
+      <c r="V32" s="1090"/>
+      <c r="W32" s="1091"/>
       <c r="X32" s="219"/>
       <c r="Y32" s="537"/>
       <c r="Z32" s="537"/>
@@ -15404,12 +15405,12 @@
       <c r="AB32" s="537"/>
       <c r="AC32" s="538"/>
       <c r="AD32" s="335"/>
-      <c r="AE32" s="1091" t="e">
+      <c r="AE32" s="1092" t="e">
         <f>AG30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF32" s="1092"/>
-      <c r="AG32" s="1093"/>
+      <c r="AF32" s="1093"/>
+      <c r="AG32" s="1094"/>
       <c r="AH32" s="283"/>
       <c r="AI32" s="539">
         <f>AI30</f>
@@ -15422,37 +15423,37 @@
       <c r="AK32" s="540"/>
       <c r="AL32" s="540"/>
       <c r="AM32" s="285"/>
-      <c r="AN32" s="1096"/>
-      <c r="AO32" s="1041"/>
-      <c r="AP32" s="1100" t="e">
+      <c r="AN32" s="1097"/>
+      <c r="AO32" s="1042"/>
+      <c r="AP32" s="1101" t="e">
         <f>AP30+AQ30+AR30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ32" s="1101"/>
-      <c r="AR32" s="1101"/>
-      <c r="AS32" s="1102"/>
-      <c r="AT32" s="1091" t="e">
+      <c r="AQ32" s="1102"/>
+      <c r="AR32" s="1102"/>
+      <c r="AS32" s="1103"/>
+      <c r="AT32" s="1092" t="e">
         <f>AT30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU32" s="1093"/>
-      <c r="AV32" s="1091">
+      <c r="AU32" s="1094"/>
+      <c r="AV32" s="1092">
         <f>AV30</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="1079">
+      <c r="AW32" s="1080">
         <f>AW30</f>
         <v>0</v>
       </c>
-      <c r="AX32" s="1080"/>
+      <c r="AX32" s="1081"/>
       <c r="AY32" s="501"/>
       <c r="AZ32" s="501"/>
       <c r="BA32" s="519"/>
-      <c r="BB32" s="1079">
+      <c r="BB32" s="1080">
         <f>BB30</f>
         <v>0</v>
       </c>
-      <c r="BC32" s="1080"/>
+      <c r="BC32" s="1081"/>
     </row>
     <row r="33" spans="4:56" ht="21" customHeight="1" thickBot="1">
       <c r="H33" s="201"/>
@@ -15468,46 +15469,46 @@
       <c r="R33" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="S33" s="1083" t="e">
+      <c r="S33" s="1084" t="e">
         <f>S32+X30*VLOOKUP($X$16,$AG$13:$AI$18,3,FALSE)+Y30*VLOOKUP($X$16,$AG$13:$AI$18,3,FALSE)+Z30*VLOOKUP($Z$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="1084"/>
-      <c r="U33" s="1084"/>
-      <c r="V33" s="1084"/>
-      <c r="W33" s="1084"/>
-      <c r="X33" s="1084"/>
-      <c r="Y33" s="1084"/>
-      <c r="Z33" s="1085"/>
+      <c r="T33" s="1085"/>
+      <c r="U33" s="1085"/>
+      <c r="V33" s="1085"/>
+      <c r="W33" s="1085"/>
+      <c r="X33" s="1085"/>
+      <c r="Y33" s="1085"/>
+      <c r="Z33" s="1086"/>
       <c r="AA33" s="571"/>
       <c r="AB33" s="542"/>
       <c r="AC33" s="543"/>
       <c r="AD33" s="335"/>
-      <c r="AE33" s="1079"/>
-      <c r="AF33" s="1094"/>
-      <c r="AG33" s="1080"/>
+      <c r="AE33" s="1080"/>
+      <c r="AF33" s="1095"/>
+      <c r="AG33" s="1081"/>
       <c r="AH33" s="216"/>
       <c r="AI33" s="544"/>
       <c r="AJ33" s="232"/>
       <c r="AK33" s="545"/>
       <c r="AL33" s="545"/>
       <c r="AM33" s="266"/>
-      <c r="AN33" s="1097"/>
-      <c r="AO33" s="1042"/>
-      <c r="AP33" s="1103"/>
-      <c r="AQ33" s="1104"/>
-      <c r="AR33" s="1104"/>
-      <c r="AS33" s="1105"/>
-      <c r="AT33" s="1079"/>
-      <c r="AU33" s="1080"/>
-      <c r="AV33" s="1079"/>
-      <c r="AW33" s="1079"/>
-      <c r="AX33" s="1080"/>
+      <c r="AN33" s="1098"/>
+      <c r="AO33" s="1043"/>
+      <c r="AP33" s="1104"/>
+      <c r="AQ33" s="1105"/>
+      <c r="AR33" s="1105"/>
+      <c r="AS33" s="1106"/>
+      <c r="AT33" s="1080"/>
+      <c r="AU33" s="1081"/>
+      <c r="AV33" s="1080"/>
+      <c r="AW33" s="1080"/>
+      <c r="AX33" s="1081"/>
       <c r="AY33" s="501"/>
       <c r="AZ33" s="501"/>
       <c r="BA33" s="519"/>
-      <c r="BB33" s="1079"/>
-      <c r="BC33" s="1080"/>
+      <c r="BB33" s="1080"/>
+      <c r="BC33" s="1081"/>
     </row>
     <row r="34" spans="4:56" ht="21" customHeight="1" thickBot="1">
       <c r="H34" s="201"/>
@@ -15521,46 +15522,46 @@
       <c r="R34" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="S34" s="1086" t="e">
+      <c r="S34" s="1087" t="e">
         <f>S33+AA30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)+AC30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="1084"/>
-      <c r="U34" s="1084"/>
-      <c r="V34" s="1084"/>
-      <c r="W34" s="1084"/>
-      <c r="X34" s="1084"/>
-      <c r="Y34" s="1084"/>
-      <c r="Z34" s="1084"/>
-      <c r="AA34" s="1084"/>
-      <c r="AB34" s="1084"/>
-      <c r="AC34" s="1085"/>
+      <c r="T34" s="1085"/>
+      <c r="U34" s="1085"/>
+      <c r="V34" s="1085"/>
+      <c r="W34" s="1085"/>
+      <c r="X34" s="1085"/>
+      <c r="Y34" s="1085"/>
+      <c r="Z34" s="1085"/>
+      <c r="AA34" s="1085"/>
+      <c r="AB34" s="1085"/>
+      <c r="AC34" s="1086"/>
       <c r="AD34" s="335"/>
-      <c r="AE34" s="1081"/>
-      <c r="AF34" s="1095"/>
-      <c r="AG34" s="1082"/>
+      <c r="AE34" s="1082"/>
+      <c r="AF34" s="1096"/>
+      <c r="AG34" s="1083"/>
       <c r="AH34" s="546"/>
       <c r="AI34" s="547"/>
       <c r="AJ34" s="248"/>
       <c r="AK34" s="548"/>
       <c r="AL34" s="548"/>
       <c r="AM34" s="299"/>
-      <c r="AN34" s="1098"/>
-      <c r="AO34" s="1099"/>
-      <c r="AP34" s="1106"/>
-      <c r="AQ34" s="1107"/>
-      <c r="AR34" s="1107"/>
-      <c r="AS34" s="1108"/>
-      <c r="AT34" s="1081"/>
-      <c r="AU34" s="1082"/>
-      <c r="AV34" s="1081"/>
-      <c r="AW34" s="1081"/>
-      <c r="AX34" s="1082"/>
+      <c r="AN34" s="1099"/>
+      <c r="AO34" s="1100"/>
+      <c r="AP34" s="1107"/>
+      <c r="AQ34" s="1108"/>
+      <c r="AR34" s="1108"/>
+      <c r="AS34" s="1109"/>
+      <c r="AT34" s="1082"/>
+      <c r="AU34" s="1083"/>
+      <c r="AV34" s="1082"/>
+      <c r="AW34" s="1082"/>
+      <c r="AX34" s="1083"/>
       <c r="AY34" s="501"/>
       <c r="AZ34" s="501"/>
       <c r="BA34" s="519"/>
-      <c r="BB34" s="1081"/>
-      <c r="BC34" s="1082"/>
+      <c r="BB34" s="1082"/>
+      <c r="BC34" s="1083"/>
     </row>
     <row r="35" spans="4:56" ht="21" customHeight="1">
       <c r="H35" s="201" t="s">
@@ -15649,8 +15650,8 @@
       <c r="Z37" s="552"/>
       <c r="AA37" s="551"/>
       <c r="AC37" s="200"/>
-      <c r="AF37" s="1087"/>
-      <c r="AG37" s="1087"/>
+      <c r="AF37" s="1088"/>
+      <c r="AG37" s="1088"/>
       <c r="AH37" s="553"/>
       <c r="AI37" s="554"/>
       <c r="AK37" s="555"/>
@@ -15693,8 +15694,8 @@
       <c r="Z38" s="552"/>
       <c r="AA38" s="551"/>
       <c r="AC38" s="200"/>
-      <c r="AF38" s="1087"/>
-      <c r="AG38" s="1087"/>
+      <c r="AF38" s="1088"/>
+      <c r="AG38" s="1088"/>
       <c r="AH38" s="553"/>
       <c r="AI38" s="554"/>
       <c r="AK38" s="555"/>
@@ -15737,8 +15738,8 @@
       <c r="Z39" s="551"/>
       <c r="AA39" s="200"/>
       <c r="AC39" s="200"/>
-      <c r="AE39" s="1087"/>
-      <c r="AF39" s="1087"/>
+      <c r="AE39" s="1088"/>
+      <c r="AF39" s="1088"/>
       <c r="AG39" s="553"/>
       <c r="AH39" s="554"/>
       <c r="AI39" s="201"/>
@@ -15781,8 +15782,8 @@
       <c r="Z40" s="552"/>
       <c r="AA40" s="200"/>
       <c r="AC40" s="200"/>
-      <c r="AE40" s="1087"/>
-      <c r="AF40" s="1087"/>
+      <c r="AE40" s="1088"/>
+      <c r="AF40" s="1088"/>
       <c r="AG40" s="553"/>
       <c r="AH40" s="554"/>
       <c r="AI40" s="201"/>
@@ -15826,8 +15827,8 @@
       <c r="Z41" s="552"/>
       <c r="AA41" s="200"/>
       <c r="AC41" s="200"/>
-      <c r="AE41" s="1087"/>
-      <c r="AF41" s="1087"/>
+      <c r="AE41" s="1088"/>
+      <c r="AF41" s="1088"/>
       <c r="AG41" s="553"/>
       <c r="AH41" s="554"/>
       <c r="AI41" s="201"/>
@@ -15871,8 +15872,8 @@
       <c r="Z42" s="552"/>
       <c r="AA42" s="200"/>
       <c r="AC42" s="200"/>
-      <c r="AE42" s="1087"/>
-      <c r="AF42" s="1087"/>
+      <c r="AE42" s="1088"/>
+      <c r="AF42" s="1088"/>
       <c r="AG42" s="553"/>
       <c r="AH42" s="554"/>
       <c r="AI42" s="201"/>
@@ -16625,10 +16626,10 @@
       <c r="AI3" s="204"/>
     </row>
     <row r="4" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="D4" s="967" t="s">
+      <c r="D4" s="968" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="967"/>
+      <c r="E4" s="968"/>
       <c r="F4" s="208"/>
       <c r="G4" s="209"/>
       <c r="H4" s="205"/>
@@ -16655,8 +16656,8 @@
     <row r="5" spans="2:53" ht="21" customHeight="1" thickBot="1">
       <c r="B5" s="214"/>
       <c r="C5" s="214"/>
-      <c r="D5" s="967"/>
-      <c r="E5" s="967"/>
+      <c r="D5" s="968"/>
+      <c r="E5" s="968"/>
       <c r="G5" s="208"/>
       <c r="H5" s="205"/>
       <c r="I5" s="201"/>
@@ -16683,10 +16684,10 @@
       <c r="AL5" s="201"/>
     </row>
     <row r="6" spans="2:53" ht="21" customHeight="1">
-      <c r="D6" s="968" t="s">
+      <c r="D6" s="969" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="969"/>
+      <c r="E6" s="970"/>
       <c r="F6" s="219"/>
       <c r="G6" s="220"/>
       <c r="H6" s="221"/>
@@ -16720,10 +16721,10 @@
     </row>
     <row r="7" spans="2:53" ht="21" customHeight="1">
       <c r="B7" s="214"/>
-      <c r="D7" s="970" t="s">
+      <c r="D7" s="971" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="967"/>
+      <c r="E7" s="968"/>
       <c r="G7" s="209"/>
       <c r="H7" s="205"/>
       <c r="I7" s="229"/>
@@ -16763,10 +16764,10 @@
     </row>
     <row r="8" spans="2:53" ht="21" customHeight="1">
       <c r="B8" s="214"/>
-      <c r="D8" s="970" t="s">
+      <c r="D8" s="971" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="967"/>
+      <c r="E8" s="968"/>
       <c r="G8" s="235"/>
       <c r="H8" s="205"/>
       <c r="I8" s="229"/>
@@ -16808,10 +16809,10 @@
     </row>
     <row r="9" spans="2:53" ht="21" customHeight="1" thickBot="1">
       <c r="B9" s="214"/>
-      <c r="D9" s="965" t="s">
+      <c r="D9" s="966" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="966"/>
+      <c r="E9" s="967"/>
       <c r="F9" s="242"/>
       <c r="G9" s="243"/>
       <c r="H9" s="244"/>
@@ -16835,17 +16836,17 @@
       </c>
       <c r="Q9" s="216"/>
       <c r="R9" s="208"/>
-      <c r="W9" s="972" t="s">
+      <c r="W9" s="973" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="973"/>
-      <c r="Y9" s="978" t="s">
+      <c r="X9" s="974"/>
+      <c r="Y9" s="979" t="s">
         <v>146</v>
       </c>
-      <c r="Z9" s="978" t="s">
+      <c r="Z9" s="979" t="s">
         <v>147</v>
       </c>
-      <c r="AA9" s="978" t="s">
+      <c r="AA9" s="979" t="s">
         <v>148</v>
       </c>
       <c r="AB9" s="250"/>
@@ -16862,7 +16863,7 @@
       <c r="AM9" s="234"/>
     </row>
     <row r="10" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B10" s="988"/>
+      <c r="B10" s="989"/>
       <c r="D10" s="251" t="s">
         <v>149</v>
       </c>
@@ -16888,11 +16889,11 @@
         <v>152</v>
       </c>
       <c r="R10" s="208"/>
-      <c r="W10" s="974"/>
-      <c r="X10" s="975"/>
-      <c r="Y10" s="979"/>
-      <c r="Z10" s="979"/>
-      <c r="AA10" s="979"/>
+      <c r="W10" s="975"/>
+      <c r="X10" s="976"/>
+      <c r="Y10" s="980"/>
+      <c r="Z10" s="980"/>
+      <c r="AA10" s="980"/>
       <c r="AB10" s="250"/>
       <c r="AC10" s="250"/>
       <c r="AD10" s="204"/>
@@ -16907,7 +16908,7 @@
       <c r="AM10" s="234"/>
     </row>
     <row r="11" spans="2:53" ht="21" customHeight="1">
-      <c r="B11" s="988"/>
+      <c r="B11" s="989"/>
       <c r="D11" s="217" t="s">
         <v>44</v>
       </c>
@@ -16937,11 +16938,11 @@
       <c r="T11" s="262"/>
       <c r="U11" s="262"/>
       <c r="V11" s="263"/>
-      <c r="W11" s="976"/>
-      <c r="X11" s="977"/>
-      <c r="Y11" s="980"/>
-      <c r="Z11" s="980"/>
-      <c r="AA11" s="980"/>
+      <c r="W11" s="977"/>
+      <c r="X11" s="978"/>
+      <c r="Y11" s="981"/>
+      <c r="Z11" s="981"/>
+      <c r="AA11" s="981"/>
       <c r="AB11" s="250"/>
       <c r="AC11" s="250"/>
       <c r="AD11" s="204"/>
@@ -16953,7 +16954,7 @@
       <c r="AM11" s="234"/>
     </row>
     <row r="12" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B12" s="988"/>
+      <c r="B12" s="989"/>
       <c r="D12" s="228" t="s">
         <v>49</v>
       </c>
@@ -16987,10 +16988,10 @@
       <c r="T12" s="270"/>
       <c r="U12" s="270"/>
       <c r="V12" s="271"/>
-      <c r="W12" s="981">
+      <c r="W12" s="982">
         <v>24</v>
       </c>
-      <c r="X12" s="982"/>
+      <c r="X12" s="983"/>
       <c r="Y12" s="272">
         <f>CEILING(N30/W12,1)</f>
         <v>1</v>
@@ -17015,7 +17016,7 @@
       <c r="BA12" s="200"/>
     </row>
     <row r="13" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B13" s="988"/>
+      <c r="B13" s="989"/>
       <c r="D13" s="228" t="s">
         <v>97</v>
       </c>
@@ -17046,22 +17047,22 @@
       <c r="T13" s="270"/>
       <c r="U13" s="270"/>
       <c r="V13" s="271"/>
-      <c r="W13" s="978" t="s">
+      <c r="W13" s="979" t="s">
         <v>162</v>
       </c>
-      <c r="X13" s="978" t="s">
+      <c r="X13" s="979" t="s">
         <v>163</v>
       </c>
-      <c r="Y13" s="978" t="s">
+      <c r="Y13" s="979" t="s">
         <v>122</v>
       </c>
-      <c r="Z13" s="983" t="s">
+      <c r="Z13" s="984" t="s">
         <v>164</v>
       </c>
-      <c r="AA13" s="983" t="s">
+      <c r="AA13" s="984" t="s">
         <v>165</v>
       </c>
-      <c r="AB13" s="983"/>
+      <c r="AB13" s="984"/>
       <c r="AC13" s="278"/>
       <c r="AD13" s="275"/>
       <c r="AE13" s="275"/>
@@ -17078,7 +17079,7 @@
       <c r="BA13" s="200"/>
     </row>
     <row r="14" spans="2:53" ht="21" customHeight="1">
-      <c r="B14" s="988"/>
+      <c r="B14" s="989"/>
       <c r="D14" s="228" t="s">
         <v>166</v>
       </c>
@@ -17109,12 +17110,12 @@
       <c r="T14" s="270"/>
       <c r="U14" s="270"/>
       <c r="V14" s="271"/>
-      <c r="W14" s="979"/>
-      <c r="X14" s="979"/>
-      <c r="Y14" s="979"/>
-      <c r="Z14" s="983"/>
-      <c r="AA14" s="983"/>
-      <c r="AB14" s="983"/>
+      <c r="W14" s="980"/>
+      <c r="X14" s="980"/>
+      <c r="Y14" s="980"/>
+      <c r="Z14" s="984"/>
+      <c r="AA14" s="984"/>
+      <c r="AB14" s="984"/>
       <c r="AC14" s="278"/>
       <c r="AD14" s="275"/>
       <c r="AE14" s="275"/>
@@ -17133,7 +17134,7 @@
       <c r="BA14" s="200"/>
     </row>
     <row r="15" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B15" s="984"/>
+      <c r="B15" s="985"/>
       <c r="D15" s="240" t="s">
         <v>98</v>
       </c>
@@ -17163,12 +17164,12 @@
       <c r="T15" s="270"/>
       <c r="U15" s="270"/>
       <c r="V15" s="271"/>
-      <c r="W15" s="980"/>
-      <c r="X15" s="980"/>
-      <c r="Y15" s="979"/>
-      <c r="Z15" s="983"/>
-      <c r="AA15" s="983"/>
-      <c r="AB15" s="983"/>
+      <c r="W15" s="981"/>
+      <c r="X15" s="981"/>
+      <c r="Y15" s="980"/>
+      <c r="Z15" s="984"/>
+      <c r="AA15" s="984"/>
+      <c r="AB15" s="984"/>
       <c r="AC15" s="278"/>
       <c r="AD15" s="275"/>
       <c r="AE15" s="275"/>
@@ -17187,7 +17188,7 @@
       <c r="BA15" s="200"/>
     </row>
     <row r="16" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B16" s="984"/>
+      <c r="B16" s="985"/>
       <c r="D16" s="251" t="s">
         <v>168</v>
       </c>
@@ -17221,14 +17222,14 @@
       <c r="X16" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="Y16" s="980"/>
+      <c r="Y16" s="981"/>
       <c r="Z16" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="AA16" s="985" t="s">
+      <c r="AA16" s="986" t="s">
         <v>135</v>
       </c>
-      <c r="AB16" s="985"/>
+      <c r="AB16" s="986"/>
       <c r="AC16" s="301"/>
       <c r="AD16" s="275"/>
       <c r="AE16" s="275"/>
@@ -17247,7 +17248,7 @@
       <c r="BA16" s="200"/>
     </row>
     <row r="17" spans="2:55" ht="21" customHeight="1">
-      <c r="B17" s="984"/>
+      <c r="B17" s="985"/>
       <c r="D17" s="303" t="s">
         <v>109</v>
       </c>
@@ -17294,10 +17295,10 @@
       <c r="Z17" s="311">
         <v>0</v>
       </c>
-      <c r="AA17" s="986">
+      <c r="AA17" s="987">
         <v>0</v>
       </c>
-      <c r="AB17" s="986"/>
+      <c r="AB17" s="987"/>
       <c r="AC17" s="313"/>
       <c r="AG17" s="314"/>
       <c r="AH17" s="315"/>
@@ -17346,10 +17347,10 @@
       <c r="Z18" s="321" t="s">
         <v>69</v>
       </c>
-      <c r="AA18" s="987" t="s">
+      <c r="AA18" s="988" t="s">
         <v>69</v>
       </c>
-      <c r="AB18" s="987"/>
+      <c r="AB18" s="988"/>
       <c r="AC18" s="321" t="s">
         <v>69</v>
       </c>
@@ -17408,11 +17409,11 @@
         <f>CEILING($N$30/$Z$12,1)*$Z$17/$N$30*VLOOKUP($Z$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="971">
+      <c r="AA19" s="972">
         <f>$AA$17/$N$30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="971"/>
+      <c r="AB19" s="972"/>
       <c r="AC19" s="334">
         <f>$AC$28*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>0</v>
@@ -17432,10 +17433,10 @@
       <c r="W20" s="226" t="s">
         <v>173</v>
       </c>
-      <c r="X20" s="989" t="s">
+      <c r="X20" s="990" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="989"/>
+      <c r="Y20" s="990"/>
       <c r="Z20" s="226" t="s">
         <v>175</v>
       </c>
@@ -17480,59 +17481,59 @@
       <c r="Q21" s="274"/>
       <c r="R21" s="274"/>
       <c r="W21" s="208"/>
-      <c r="X21" s="990" t="s">
+      <c r="X21" s="991" t="s">
         <v>116</v>
       </c>
-      <c r="Y21" s="991"/>
-      <c r="AB21" s="992" t="s">
+      <c r="Y21" s="992"/>
+      <c r="AB21" s="993" t="s">
         <v>101</v>
       </c>
-      <c r="AC21" s="993"/>
+      <c r="AC21" s="994"/>
       <c r="AD21" s="336" t="s">
         <v>121</v>
       </c>
-      <c r="AE21" s="994" t="s">
+      <c r="AE21" s="995" t="s">
         <v>179</v>
       </c>
-      <c r="AF21" s="995"/>
-      <c r="AG21" s="996"/>
-      <c r="AH21" s="997" t="s">
+      <c r="AF21" s="996"/>
+      <c r="AG21" s="997"/>
+      <c r="AH21" s="998" t="s">
         <v>180</v>
       </c>
-      <c r="AI21" s="1019" t="s">
+      <c r="AI21" s="1020" t="s">
         <v>181</v>
       </c>
-      <c r="AJ21" s="1020"/>
-      <c r="AK21" s="1020"/>
-      <c r="AL21" s="1020"/>
-      <c r="AM21" s="1021"/>
+      <c r="AJ21" s="1021"/>
+      <c r="AK21" s="1021"/>
+      <c r="AL21" s="1021"/>
+      <c r="AM21" s="1022"/>
       <c r="AN21" s="337"/>
       <c r="AO21" s="338"/>
-      <c r="AP21" s="1007" t="s">
+      <c r="AP21" s="1008" t="s">
         <v>182</v>
       </c>
-      <c r="AQ21" s="1008"/>
+      <c r="AQ21" s="1009"/>
       <c r="AR21" s="339" t="s">
         <v>68</v>
       </c>
       <c r="AS21" s="340"/>
-      <c r="AT21" s="1009" t="s">
+      <c r="AT21" s="1010" t="s">
         <v>103</v>
       </c>
-      <c r="AU21" s="1010"/>
+      <c r="AU21" s="1011"/>
       <c r="AV21" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="AW21" s="1011" t="s">
+      <c r="AW21" s="1012" t="s">
         <v>105</v>
       </c>
-      <c r="AX21" s="1012"/>
+      <c r="AX21" s="1013"/>
       <c r="AY21" s="201"/>
       <c r="AZ21" s="201"/>
-      <c r="BB21" s="1011" t="s">
+      <c r="BB21" s="1012" t="s">
         <v>183</v>
       </c>
-      <c r="BC21" s="1012"/>
+      <c r="BC21" s="1013"/>
     </row>
     <row r="22" spans="2:55" ht="21" customHeight="1">
       <c r="E22" s="200"/>
@@ -17550,93 +17551,93 @@
       <c r="O22" s="219" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="1013" t="s">
+      <c r="P22" s="1014" t="s">
         <v>184</v>
       </c>
-      <c r="Q22" s="1014"/>
+      <c r="Q22" s="1015"/>
       <c r="R22" s="343"/>
-      <c r="S22" s="1013" t="s">
+      <c r="S22" s="1014" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="1014"/>
-      <c r="U22" s="1013" t="s">
+      <c r="T22" s="1015"/>
+      <c r="U22" s="1014" t="s">
         <v>186</v>
       </c>
-      <c r="V22" s="1014"/>
-      <c r="W22" s="1013" t="s">
+      <c r="V22" s="1015"/>
+      <c r="W22" s="1014" t="s">
         <v>187</v>
       </c>
-      <c r="X22" s="1017" t="s">
+      <c r="X22" s="1018" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" s="1000" t="s">
+      <c r="Y22" s="1001" t="s">
         <v>118</v>
       </c>
-      <c r="Z22" s="1000" t="s">
+      <c r="Z22" s="1001" t="s">
         <v>188</v>
       </c>
-      <c r="AA22" s="1002" t="s">
+      <c r="AA22" s="1003" t="s">
         <v>100</v>
       </c>
       <c r="AB22" s="344"/>
       <c r="AC22" s="345"/>
-      <c r="AD22" s="1002" t="s">
+      <c r="AD22" s="1003" t="s">
         <v>189</v>
       </c>
-      <c r="AE22" s="1005" t="s">
+      <c r="AE22" s="1006" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" s="1029" t="s">
+      <c r="AF22" s="1030" t="s">
         <v>190</v>
       </c>
-      <c r="AG22" s="1031" t="s">
+      <c r="AG22" s="1032" t="s">
         <v>102</v>
       </c>
-      <c r="AH22" s="998"/>
-      <c r="AI22" s="1033" t="str">
+      <c r="AH22" s="999"/>
+      <c r="AI22" s="1034" t="str">
         <f>CONCATENATE(I12," ",H12)</f>
         <v>DAP Origin</v>
       </c>
-      <c r="AJ22" s="1034"/>
-      <c r="AK22" s="1033" t="s">
+      <c r="AJ22" s="1035"/>
+      <c r="AK22" s="1034" t="s">
         <v>191</v>
       </c>
-      <c r="AL22" s="1037"/>
-      <c r="AM22" s="1041" t="s">
+      <c r="AL22" s="1038"/>
+      <c r="AM22" s="1042" t="s">
         <v>192</v>
       </c>
-      <c r="AN22" s="1034" t="s">
+      <c r="AN22" s="1035" t="s">
         <v>193</v>
       </c>
-      <c r="AO22" s="1037"/>
-      <c r="AP22" s="1053" t="s">
+      <c r="AO22" s="1038"/>
+      <c r="AP22" s="1054" t="s">
         <v>107</v>
       </c>
-      <c r="AQ22" s="1053" t="s">
+      <c r="AQ22" s="1054" t="s">
         <v>194</v>
       </c>
-      <c r="AR22" s="1053" t="s">
+      <c r="AR22" s="1054" t="s">
         <v>195</v>
       </c>
-      <c r="AS22" s="1053" t="s">
+      <c r="AS22" s="1054" t="s">
         <v>196</v>
       </c>
-      <c r="AT22" s="1022" t="s">
+      <c r="AT22" s="1023" t="s">
         <v>194</v>
       </c>
-      <c r="AU22" s="1023"/>
-      <c r="AV22" s="1026" t="s">
+      <c r="AU22" s="1024"/>
+      <c r="AV22" s="1027" t="s">
         <v>197</v>
       </c>
-      <c r="AW22" s="1057"/>
-      <c r="AX22" s="1058"/>
+      <c r="AW22" s="1058"/>
+      <c r="AX22" s="1059"/>
       <c r="AY22" s="346" t="s">
         <v>198</v>
       </c>
       <c r="AZ22" s="346"/>
       <c r="BA22" s="346"/>
-      <c r="BB22" s="1057"/>
-      <c r="BC22" s="1058"/>
+      <c r="BB22" s="1058"/>
+      <c r="BC22" s="1059"/>
     </row>
     <row r="23" spans="2:55" ht="21" customHeight="1">
       <c r="D23" s="335" t="s">
@@ -17648,52 +17649,52 @@
       <c r="K23" s="335"/>
       <c r="M23" s="347"/>
       <c r="N23" s="201"/>
-      <c r="P23" s="1015"/>
-      <c r="Q23" s="1016"/>
+      <c r="P23" s="1016"/>
+      <c r="Q23" s="1017"/>
       <c r="R23" s="348"/>
-      <c r="S23" s="1015"/>
-      <c r="T23" s="1016"/>
-      <c r="U23" s="1015"/>
-      <c r="V23" s="1016"/>
-      <c r="W23" s="1015"/>
-      <c r="X23" s="1018"/>
-      <c r="Y23" s="1001"/>
-      <c r="Z23" s="1001"/>
-      <c r="AA23" s="1003"/>
+      <c r="S23" s="1016"/>
+      <c r="T23" s="1017"/>
+      <c r="U23" s="1016"/>
+      <c r="V23" s="1017"/>
+      <c r="W23" s="1016"/>
+      <c r="X23" s="1019"/>
+      <c r="Y23" s="1002"/>
+      <c r="Z23" s="1002"/>
+      <c r="AA23" s="1004"/>
       <c r="AB23" s="344"/>
       <c r="AC23" s="345"/>
-      <c r="AD23" s="1003"/>
-      <c r="AE23" s="1006"/>
-      <c r="AF23" s="1030"/>
-      <c r="AG23" s="1032"/>
-      <c r="AH23" s="998"/>
-      <c r="AI23" s="1035"/>
-      <c r="AJ23" s="1036"/>
-      <c r="AK23" s="1035"/>
-      <c r="AL23" s="1038"/>
-      <c r="AM23" s="1042"/>
-      <c r="AN23" s="1036"/>
-      <c r="AO23" s="1038"/>
-      <c r="AP23" s="1054"/>
-      <c r="AQ23" s="1054"/>
-      <c r="AR23" s="1054"/>
-      <c r="AS23" s="1054"/>
-      <c r="AT23" s="1024"/>
-      <c r="AU23" s="1025"/>
-      <c r="AV23" s="1027"/>
-      <c r="AW23" s="1059"/>
-      <c r="AX23" s="1060"/>
-      <c r="AY23" s="1036" t="s">
+      <c r="AD23" s="1004"/>
+      <c r="AE23" s="1007"/>
+      <c r="AF23" s="1031"/>
+      <c r="AG23" s="1033"/>
+      <c r="AH23" s="999"/>
+      <c r="AI23" s="1036"/>
+      <c r="AJ23" s="1037"/>
+      <c r="AK23" s="1036"/>
+      <c r="AL23" s="1039"/>
+      <c r="AM23" s="1043"/>
+      <c r="AN23" s="1037"/>
+      <c r="AO23" s="1039"/>
+      <c r="AP23" s="1055"/>
+      <c r="AQ23" s="1055"/>
+      <c r="AR23" s="1055"/>
+      <c r="AS23" s="1055"/>
+      <c r="AT23" s="1025"/>
+      <c r="AU23" s="1026"/>
+      <c r="AV23" s="1028"/>
+      <c r="AW23" s="1060"/>
+      <c r="AX23" s="1061"/>
+      <c r="AY23" s="1037" t="s">
         <v>200</v>
       </c>
-      <c r="AZ23" s="1036" t="s">
+      <c r="AZ23" s="1037" t="s">
         <v>201</v>
       </c>
-      <c r="BA23" s="1036" t="s">
+      <c r="BA23" s="1037" t="s">
         <v>202</v>
       </c>
-      <c r="BB23" s="1059"/>
-      <c r="BC23" s="1060"/>
+      <c r="BB23" s="1060"/>
+      <c r="BC23" s="1061"/>
     </row>
     <row r="24" spans="2:55" s="216" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="C24" s="306" t="s">
@@ -17733,19 +17734,19 @@
         <v>211</v>
       </c>
       <c r="O24" s="351"/>
-      <c r="P24" s="1047" t="s">
+      <c r="P24" s="1048" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" s="1048"/>
+      <c r="Q24" s="1049"/>
       <c r="R24" s="353" t="str">
         <f>CONCATENATE(P24,(" / Pc"))</f>
         <v>EUR / Pc</v>
       </c>
-      <c r="S24" s="1049" t="str">
+      <c r="S24" s="1050" t="str">
         <f>CONCATENATE(I17," ",H17)</f>
         <v>FCA Destination</v>
       </c>
-      <c r="T24" s="1050"/>
+      <c r="T24" s="1051"/>
       <c r="U24" s="352" t="s">
         <v>68</v>
       </c>
@@ -17757,11 +17758,11 @@
         <f>CONCATENATE(W16,(" / MT"))</f>
         <v>USD / MT</v>
       </c>
-      <c r="X24" s="1051" t="str">
+      <c r="X24" s="1052" t="str">
         <f>CONCATENATE(X16,(" / MT"))</f>
         <v>EUR / MT</v>
       </c>
-      <c r="Y24" s="1052"/>
+      <c r="Y24" s="1053"/>
       <c r="Z24" s="356" t="str">
         <f>CONCATENATE(Z16,(" / MT"))</f>
         <v>EUR / MT</v>
@@ -17777,7 +17778,7 @@
         <f>CONCATENATE(AA16,(" / MT"))</f>
         <v>EUR / MT</v>
       </c>
-      <c r="AD24" s="1004"/>
+      <c r="AD24" s="1005"/>
       <c r="AE24" s="359" t="s">
         <v>212</v>
       </c>
@@ -17787,15 +17788,15 @@
       <c r="AG24" s="360" t="s">
         <v>212</v>
       </c>
-      <c r="AH24" s="999"/>
+      <c r="AH24" s="1000"/>
       <c r="AI24" s="361" t="s">
         <v>213</v>
       </c>
       <c r="AJ24" s="362" t="s">
         <v>135</v>
       </c>
-      <c r="AK24" s="1039"/>
-      <c r="AL24" s="1040"/>
+      <c r="AK24" s="1040"/>
+      <c r="AL24" s="1041"/>
       <c r="AM24" s="328"/>
       <c r="AN24" s="232" t="str">
         <f>AJ24</f>
@@ -17822,14 +17823,14 @@
       <c r="AU24" s="365" t="s">
         <v>69</v>
       </c>
-      <c r="AV24" s="1028"/>
-      <c r="AW24" s="1061"/>
-      <c r="AX24" s="1062"/>
-      <c r="AY24" s="1036"/>
-      <c r="AZ24" s="1036"/>
-      <c r="BA24" s="1036"/>
-      <c r="BB24" s="1061"/>
-      <c r="BC24" s="1062"/>
+      <c r="AV24" s="1029"/>
+      <c r="AW24" s="1062"/>
+      <c r="AX24" s="1063"/>
+      <c r="AY24" s="1037"/>
+      <c r="AZ24" s="1037"/>
+      <c r="BA24" s="1037"/>
+      <c r="BB24" s="1062"/>
+      <c r="BC24" s="1063"/>
     </row>
     <row r="25" spans="2:55" s="366" customFormat="1" ht="21" customHeight="1">
       <c r="C25" s="367" t="str">
@@ -17912,12 +17913,12 @@
     </row>
     <row r="26" spans="2:55" s="406" customFormat="1" ht="21" customHeight="1">
       <c r="C26" s="407"/>
-      <c r="D26" s="1063"/>
-      <c r="E26" s="1064"/>
-      <c r="F26" s="1064"/>
-      <c r="G26" s="1064"/>
-      <c r="H26" s="1064"/>
-      <c r="I26" s="1064"/>
+      <c r="D26" s="1064"/>
+      <c r="E26" s="1065"/>
+      <c r="F26" s="1065"/>
+      <c r="G26" s="1065"/>
+      <c r="H26" s="1065"/>
+      <c r="I26" s="1065"/>
       <c r="J26" s="408"/>
       <c r="K26" s="409" t="s">
         <v>216</v>
@@ -18147,11 +18148,11 @@
       <c r="M28" s="598"/>
       <c r="N28" s="598"/>
       <c r="O28" s="597"/>
-      <c r="P28" s="1117">
+      <c r="P28" s="1118">
         <f>P29/$N$29</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="1118"/>
+      <c r="Q28" s="1119"/>
       <c r="R28" s="602"/>
       <c r="S28" s="602">
         <f>S29/$N$29</f>
@@ -18270,11 +18271,11 @@
         <v>2</v>
       </c>
       <c r="O29" s="617"/>
-      <c r="P29" s="1109">
+      <c r="P29" s="1110">
         <f>SUMPRODUCT($O$25:$O$27,P25:P27)</f>
         <v>2</v>
       </c>
-      <c r="Q29" s="1110"/>
+      <c r="Q29" s="1111"/>
       <c r="R29" s="602"/>
       <c r="S29" s="603">
         <f>SUMPRODUCT($O$25:$O$27,S25:S27)</f>
@@ -18402,11 +18403,11 @@
         <v>2</v>
       </c>
       <c r="O30" s="617"/>
-      <c r="P30" s="1109">
+      <c r="P30" s="1110">
         <f>P29*$G$19</f>
         <v>2</v>
       </c>
-      <c r="Q30" s="1110"/>
+      <c r="Q30" s="1111"/>
       <c r="R30" s="602"/>
       <c r="S30" s="602">
         <f>S29*$G$19</f>
@@ -18522,8 +18523,8 @@
       <c r="M31" s="649"/>
       <c r="N31" s="649"/>
       <c r="O31" s="648"/>
-      <c r="P31" s="1111"/>
-      <c r="Q31" s="1112"/>
+      <c r="P31" s="1112"/>
+      <c r="Q31" s="1113"/>
       <c r="R31" s="653"/>
       <c r="S31" s="653"/>
       <c r="T31" s="651"/>
@@ -18561,16 +18562,16 @@
         <v>USD/MT</v>
       </c>
       <c r="AS31" s="620"/>
-      <c r="AT31" s="1113"/>
-      <c r="AU31" s="1114"/>
+      <c r="AT31" s="1114"/>
+      <c r="AU31" s="1115"/>
       <c r="AV31" s="643"/>
       <c r="AW31" s="666"/>
       <c r="AX31" s="667"/>
       <c r="AY31" s="617"/>
       <c r="AZ31" s="617"/>
       <c r="BA31" s="646"/>
-      <c r="BB31" s="1115"/>
-      <c r="BC31" s="1116"/>
+      <c r="BB31" s="1116"/>
+      <c r="BC31" s="1117"/>
     </row>
     <row r="32" spans="2:55" ht="21" customHeight="1" thickBot="1">
       <c r="D32" s="668"/>
@@ -18588,14 +18589,14 @@
       <c r="P32" s="599"/>
       <c r="Q32" s="599"/>
       <c r="R32" s="617"/>
-      <c r="S32" s="1123">
+      <c r="S32" s="1124">
         <f>S30*VLOOKUP($P$24,$AG$13:$AI$18,3,FALSE)+V30*VLOOKUP($U$24,$AG$13:$AI$18,3,FALSE)+W30*VLOOKUP($W$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="T32" s="1124"/>
-      <c r="U32" s="1124"/>
-      <c r="V32" s="1124"/>
-      <c r="W32" s="1125"/>
+      <c r="T32" s="1125"/>
+      <c r="U32" s="1125"/>
+      <c r="V32" s="1125"/>
+      <c r="W32" s="1126"/>
       <c r="X32" s="669"/>
       <c r="Y32" s="670"/>
       <c r="Z32" s="670"/>
@@ -18603,12 +18604,12 @@
       <c r="AB32" s="670"/>
       <c r="AC32" s="671"/>
       <c r="AD32" s="600"/>
-      <c r="AE32" s="1126">
+      <c r="AE32" s="1127">
         <f>AG30</f>
         <v>2</v>
       </c>
-      <c r="AF32" s="1127"/>
-      <c r="AG32" s="1128"/>
+      <c r="AF32" s="1128"/>
+      <c r="AG32" s="1129"/>
       <c r="AH32" s="670"/>
       <c r="AI32" s="674">
         <f>AI30</f>
@@ -18621,37 +18622,37 @@
       <c r="AK32" s="675"/>
       <c r="AL32" s="675"/>
       <c r="AM32" s="673"/>
-      <c r="AN32" s="1135"/>
-      <c r="AO32" s="1135"/>
-      <c r="AP32" s="1135">
+      <c r="AN32" s="1136"/>
+      <c r="AO32" s="1136"/>
+      <c r="AP32" s="1136">
         <f>AP30+AQ30+AR30</f>
         <v>0</v>
       </c>
-      <c r="AQ32" s="1135"/>
-      <c r="AR32" s="1135"/>
-      <c r="AS32" s="1135"/>
-      <c r="AT32" s="1119">
+      <c r="AQ32" s="1136"/>
+      <c r="AR32" s="1136"/>
+      <c r="AS32" s="1136"/>
+      <c r="AT32" s="1120">
         <f>AT30</f>
         <v>0</v>
       </c>
-      <c r="AU32" s="1119"/>
-      <c r="AV32" s="1119">
+      <c r="AU32" s="1120"/>
+      <c r="AV32" s="1120">
         <f>AV30</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="1119">
+      <c r="AW32" s="1120">
         <f>AW30</f>
         <v>0</v>
       </c>
-      <c r="AX32" s="1119"/>
+      <c r="AX32" s="1120"/>
       <c r="AY32" s="676"/>
       <c r="AZ32" s="676"/>
       <c r="BA32" s="677"/>
-      <c r="BB32" s="1119">
+      <c r="BB32" s="1120">
         <f>BB30</f>
         <v>2</v>
       </c>
-      <c r="BC32" s="1119"/>
+      <c r="BC32" s="1120"/>
     </row>
     <row r="33" spans="4:55" ht="21" customHeight="1" thickBot="1">
       <c r="D33" s="598"/>
@@ -18669,46 +18670,46 @@
       <c r="P33" s="599"/>
       <c r="Q33" s="599"/>
       <c r="R33" s="617"/>
-      <c r="S33" s="1120">
+      <c r="S33" s="1121">
         <f>S32+X30*VLOOKUP($X$16,$AG$13:$AI$18,3,FALSE)+Y30*VLOOKUP($X$16,$AG$13:$AI$18,3,FALSE)+Z30*VLOOKUP($Z$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="T33" s="1121"/>
-      <c r="U33" s="1121"/>
-      <c r="V33" s="1121"/>
-      <c r="W33" s="1121"/>
-      <c r="X33" s="1121"/>
-      <c r="Y33" s="1121"/>
-      <c r="Z33" s="1122"/>
+      <c r="T33" s="1122"/>
+      <c r="U33" s="1122"/>
+      <c r="V33" s="1122"/>
+      <c r="W33" s="1122"/>
+      <c r="X33" s="1122"/>
+      <c r="Y33" s="1122"/>
+      <c r="Z33" s="1123"/>
       <c r="AA33" s="679"/>
       <c r="AB33" s="668"/>
       <c r="AC33" s="680"/>
       <c r="AD33" s="600"/>
-      <c r="AE33" s="1129"/>
-      <c r="AF33" s="1130"/>
-      <c r="AG33" s="1131"/>
+      <c r="AE33" s="1130"/>
+      <c r="AF33" s="1131"/>
+      <c r="AG33" s="1132"/>
       <c r="AH33" s="668"/>
       <c r="AI33" s="681"/>
       <c r="AJ33" s="617"/>
       <c r="AK33" s="682"/>
       <c r="AL33" s="682"/>
       <c r="AM33" s="616"/>
-      <c r="AN33" s="1135"/>
-      <c r="AO33" s="1135"/>
-      <c r="AP33" s="1135"/>
-      <c r="AQ33" s="1135"/>
-      <c r="AR33" s="1135"/>
-      <c r="AS33" s="1135"/>
-      <c r="AT33" s="1119"/>
-      <c r="AU33" s="1119"/>
-      <c r="AV33" s="1119"/>
-      <c r="AW33" s="1119"/>
-      <c r="AX33" s="1119"/>
+      <c r="AN33" s="1136"/>
+      <c r="AO33" s="1136"/>
+      <c r="AP33" s="1136"/>
+      <c r="AQ33" s="1136"/>
+      <c r="AR33" s="1136"/>
+      <c r="AS33" s="1136"/>
+      <c r="AT33" s="1120"/>
+      <c r="AU33" s="1120"/>
+      <c r="AV33" s="1120"/>
+      <c r="AW33" s="1120"/>
+      <c r="AX33" s="1120"/>
       <c r="AY33" s="676"/>
       <c r="AZ33" s="676"/>
       <c r="BA33" s="677"/>
-      <c r="BB33" s="1119"/>
-      <c r="BC33" s="1119"/>
+      <c r="BB33" s="1120"/>
+      <c r="BC33" s="1120"/>
     </row>
     <row r="34" spans="4:55" ht="21" customHeight="1" thickBot="1">
       <c r="D34" s="598"/>
@@ -18726,46 +18727,46 @@
       <c r="P34" s="599"/>
       <c r="Q34" s="599"/>
       <c r="R34" s="617"/>
-      <c r="S34" s="1120">
+      <c r="S34" s="1121">
         <f>S33+AA30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)+AC30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="T34" s="1121"/>
-      <c r="U34" s="1121"/>
-      <c r="V34" s="1121"/>
-      <c r="W34" s="1121"/>
-      <c r="X34" s="1121"/>
-      <c r="Y34" s="1121"/>
-      <c r="Z34" s="1121"/>
-      <c r="AA34" s="1121"/>
-      <c r="AB34" s="1121"/>
-      <c r="AC34" s="1122"/>
+      <c r="T34" s="1122"/>
+      <c r="U34" s="1122"/>
+      <c r="V34" s="1122"/>
+      <c r="W34" s="1122"/>
+      <c r="X34" s="1122"/>
+      <c r="Y34" s="1122"/>
+      <c r="Z34" s="1122"/>
+      <c r="AA34" s="1122"/>
+      <c r="AB34" s="1122"/>
+      <c r="AC34" s="1123"/>
       <c r="AD34" s="600"/>
-      <c r="AE34" s="1132"/>
-      <c r="AF34" s="1133"/>
-      <c r="AG34" s="1134"/>
+      <c r="AE34" s="1133"/>
+      <c r="AF34" s="1134"/>
+      <c r="AG34" s="1135"/>
       <c r="AH34" s="683"/>
       <c r="AI34" s="684"/>
       <c r="AJ34" s="664"/>
       <c r="AK34" s="685"/>
       <c r="AL34" s="685"/>
       <c r="AM34" s="665"/>
-      <c r="AN34" s="1135"/>
-      <c r="AO34" s="1135"/>
-      <c r="AP34" s="1135"/>
-      <c r="AQ34" s="1135"/>
-      <c r="AR34" s="1135"/>
-      <c r="AS34" s="1135"/>
-      <c r="AT34" s="1119"/>
-      <c r="AU34" s="1119"/>
-      <c r="AV34" s="1119"/>
-      <c r="AW34" s="1119"/>
-      <c r="AX34" s="1119"/>
+      <c r="AN34" s="1136"/>
+      <c r="AO34" s="1136"/>
+      <c r="AP34" s="1136"/>
+      <c r="AQ34" s="1136"/>
+      <c r="AR34" s="1136"/>
+      <c r="AS34" s="1136"/>
+      <c r="AT34" s="1120"/>
+      <c r="AU34" s="1120"/>
+      <c r="AV34" s="1120"/>
+      <c r="AW34" s="1120"/>
+      <c r="AX34" s="1120"/>
       <c r="AY34" s="676"/>
       <c r="AZ34" s="676"/>
       <c r="BA34" s="677"/>
-      <c r="BB34" s="1119"/>
-      <c r="BC34" s="1119"/>
+      <c r="BB34" s="1120"/>
+      <c r="BC34" s="1120"/>
     </row>
     <row r="35" spans="4:55" ht="21" customHeight="1">
       <c r="H35" s="201"/>
@@ -19679,10 +19680,10 @@
       <c r="AI3" s="204"/>
     </row>
     <row r="4" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="D4" s="967" t="s">
+      <c r="D4" s="968" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="967"/>
+      <c r="E4" s="968"/>
       <c r="F4" s="208"/>
       <c r="G4" s="209"/>
       <c r="H4" s="205"/>
@@ -19709,8 +19710,8 @@
     <row r="5" spans="2:53" ht="21" customHeight="1" thickBot="1">
       <c r="B5" s="214"/>
       <c r="C5" s="214"/>
-      <c r="D5" s="967"/>
-      <c r="E5" s="967"/>
+      <c r="D5" s="968"/>
+      <c r="E5" s="968"/>
       <c r="G5" s="208"/>
       <c r="H5" s="205"/>
       <c r="I5" s="201"/>
@@ -19737,10 +19738,10 @@
       <c r="AL5" s="201"/>
     </row>
     <row r="6" spans="2:53" ht="21" customHeight="1">
-      <c r="D6" s="968" t="s">
+      <c r="D6" s="969" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="969"/>
+      <c r="E6" s="970"/>
       <c r="F6" s="219"/>
       <c r="G6" s="220"/>
       <c r="H6" s="221"/>
@@ -19774,10 +19775,10 @@
     </row>
     <row r="7" spans="2:53" ht="21" customHeight="1">
       <c r="B7" s="214"/>
-      <c r="D7" s="970" t="s">
+      <c r="D7" s="971" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="967"/>
+      <c r="E7" s="968"/>
       <c r="G7" s="209"/>
       <c r="H7" s="205"/>
       <c r="I7" s="229"/>
@@ -19817,10 +19818,10 @@
     </row>
     <row r="8" spans="2:53" ht="21" customHeight="1">
       <c r="B8" s="214"/>
-      <c r="D8" s="970" t="s">
+      <c r="D8" s="971" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="967"/>
+      <c r="E8" s="968"/>
       <c r="G8" s="235"/>
       <c r="H8" s="205"/>
       <c r="I8" s="229"/>
@@ -19862,10 +19863,10 @@
     </row>
     <row r="9" spans="2:53" ht="21" customHeight="1" thickBot="1">
       <c r="B9" s="214"/>
-      <c r="D9" s="965" t="s">
+      <c r="D9" s="966" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="966"/>
+      <c r="E9" s="967"/>
       <c r="F9" s="242"/>
       <c r="G9" s="243"/>
       <c r="H9" s="244"/>
@@ -19889,17 +19890,17 @@
       </c>
       <c r="Q9" s="216"/>
       <c r="R9" s="208"/>
-      <c r="W9" s="972" t="s">
+      <c r="W9" s="973" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="973"/>
-      <c r="Y9" s="978" t="s">
+      <c r="X9" s="974"/>
+      <c r="Y9" s="979" t="s">
         <v>146</v>
       </c>
-      <c r="Z9" s="978" t="s">
+      <c r="Z9" s="979" t="s">
         <v>147</v>
       </c>
-      <c r="AA9" s="978" t="s">
+      <c r="AA9" s="979" t="s">
         <v>148</v>
       </c>
       <c r="AB9" s="250"/>
@@ -19916,7 +19917,7 @@
       <c r="AM9" s="234"/>
     </row>
     <row r="10" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B10" s="988"/>
+      <c r="B10" s="989"/>
       <c r="D10" s="251" t="s">
         <v>149</v>
       </c>
@@ -19942,11 +19943,11 @@
         <v>152</v>
       </c>
       <c r="R10" s="208"/>
-      <c r="W10" s="974"/>
-      <c r="X10" s="975"/>
-      <c r="Y10" s="979"/>
-      <c r="Z10" s="979"/>
-      <c r="AA10" s="979"/>
+      <c r="W10" s="975"/>
+      <c r="X10" s="976"/>
+      <c r="Y10" s="980"/>
+      <c r="Z10" s="980"/>
+      <c r="AA10" s="980"/>
       <c r="AB10" s="250"/>
       <c r="AC10" s="250"/>
       <c r="AD10" s="204"/>
@@ -19961,7 +19962,7 @@
       <c r="AM10" s="234"/>
     </row>
     <row r="11" spans="2:53" ht="21" customHeight="1">
-      <c r="B11" s="988"/>
+      <c r="B11" s="989"/>
       <c r="D11" s="217" t="s">
         <v>44</v>
       </c>
@@ -19991,11 +19992,11 @@
       <c r="T11" s="262"/>
       <c r="U11" s="262"/>
       <c r="V11" s="263"/>
-      <c r="W11" s="976"/>
-      <c r="X11" s="977"/>
-      <c r="Y11" s="980"/>
-      <c r="Z11" s="980"/>
-      <c r="AA11" s="980"/>
+      <c r="W11" s="977"/>
+      <c r="X11" s="978"/>
+      <c r="Y11" s="981"/>
+      <c r="Z11" s="981"/>
+      <c r="AA11" s="981"/>
       <c r="AB11" s="250"/>
       <c r="AC11" s="250"/>
       <c r="AD11" s="204"/>
@@ -20007,7 +20008,7 @@
       <c r="AM11" s="234"/>
     </row>
     <row r="12" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B12" s="988"/>
+      <c r="B12" s="989"/>
       <c r="D12" s="228" t="s">
         <v>49</v>
       </c>
@@ -20041,10 +20042,10 @@
       <c r="T12" s="270"/>
       <c r="U12" s="270"/>
       <c r="V12" s="271"/>
-      <c r="W12" s="981">
+      <c r="W12" s="982">
         <v>24</v>
       </c>
-      <c r="X12" s="982"/>
+      <c r="X12" s="983"/>
       <c r="Y12" s="272">
         <f>CEILING(N30/W12,1)</f>
         <v>0</v>
@@ -20069,7 +20070,7 @@
       <c r="BA12" s="200"/>
     </row>
     <row r="13" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B13" s="988"/>
+      <c r="B13" s="989"/>
       <c r="D13" s="228" t="s">
         <v>97</v>
       </c>
@@ -20100,22 +20101,22 @@
       <c r="T13" s="270"/>
       <c r="U13" s="270"/>
       <c r="V13" s="271"/>
-      <c r="W13" s="978" t="s">
+      <c r="W13" s="979" t="s">
         <v>162</v>
       </c>
-      <c r="X13" s="978" t="s">
+      <c r="X13" s="979" t="s">
         <v>163</v>
       </c>
-      <c r="Y13" s="978" t="s">
+      <c r="Y13" s="979" t="s">
         <v>122</v>
       </c>
-      <c r="Z13" s="983" t="s">
+      <c r="Z13" s="984" t="s">
         <v>164</v>
       </c>
-      <c r="AA13" s="983" t="s">
+      <c r="AA13" s="984" t="s">
         <v>165</v>
       </c>
-      <c r="AB13" s="983"/>
+      <c r="AB13" s="984"/>
       <c r="AC13" s="278"/>
       <c r="AD13" s="275"/>
       <c r="AE13" s="275"/>
@@ -20132,7 +20133,7 @@
       <c r="BA13" s="200"/>
     </row>
     <row r="14" spans="2:53" ht="21" customHeight="1">
-      <c r="B14" s="988"/>
+      <c r="B14" s="989"/>
       <c r="D14" s="228" t="s">
         <v>166</v>
       </c>
@@ -20163,12 +20164,12 @@
       <c r="T14" s="270"/>
       <c r="U14" s="270"/>
       <c r="V14" s="271"/>
-      <c r="W14" s="979"/>
-      <c r="X14" s="979"/>
-      <c r="Y14" s="979"/>
-      <c r="Z14" s="983"/>
-      <c r="AA14" s="983"/>
-      <c r="AB14" s="983"/>
+      <c r="W14" s="980"/>
+      <c r="X14" s="980"/>
+      <c r="Y14" s="980"/>
+      <c r="Z14" s="984"/>
+      <c r="AA14" s="984"/>
+      <c r="AB14" s="984"/>
       <c r="AC14" s="278"/>
       <c r="AD14" s="275"/>
       <c r="AE14" s="275"/>
@@ -20187,7 +20188,7 @@
       <c r="BA14" s="200"/>
     </row>
     <row r="15" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B15" s="984"/>
+      <c r="B15" s="985"/>
       <c r="D15" s="240" t="s">
         <v>98</v>
       </c>
@@ -20217,12 +20218,12 @@
       <c r="T15" s="270"/>
       <c r="U15" s="270"/>
       <c r="V15" s="271"/>
-      <c r="W15" s="980"/>
-      <c r="X15" s="980"/>
-      <c r="Y15" s="979"/>
-      <c r="Z15" s="983"/>
-      <c r="AA15" s="983"/>
-      <c r="AB15" s="983"/>
+      <c r="W15" s="981"/>
+      <c r="X15" s="981"/>
+      <c r="Y15" s="980"/>
+      <c r="Z15" s="984"/>
+      <c r="AA15" s="984"/>
+      <c r="AB15" s="984"/>
       <c r="AC15" s="278"/>
       <c r="AD15" s="275"/>
       <c r="AE15" s="275"/>
@@ -20241,7 +20242,7 @@
       <c r="BA15" s="200"/>
     </row>
     <row r="16" spans="2:53" ht="21" customHeight="1" thickBot="1">
-      <c r="B16" s="984"/>
+      <c r="B16" s="985"/>
       <c r="D16" s="251" t="s">
         <v>168</v>
       </c>
@@ -20275,14 +20276,14 @@
       <c r="X16" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="Y16" s="980"/>
+      <c r="Y16" s="981"/>
       <c r="Z16" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="AA16" s="985" t="s">
+      <c r="AA16" s="986" t="s">
         <v>135</v>
       </c>
-      <c r="AB16" s="985"/>
+      <c r="AB16" s="986"/>
       <c r="AC16" s="301"/>
       <c r="AD16" s="275"/>
       <c r="AE16" s="275"/>
@@ -20301,7 +20302,7 @@
       <c r="BA16" s="200"/>
     </row>
     <row r="17" spans="2:55" ht="21" customHeight="1">
-      <c r="B17" s="984"/>
+      <c r="B17" s="985"/>
       <c r="D17" s="303" t="s">
         <v>109</v>
       </c>
@@ -20348,10 +20349,10 @@
       <c r="Z17" s="311">
         <v>0</v>
       </c>
-      <c r="AA17" s="986">
+      <c r="AA17" s="987">
         <v>0</v>
       </c>
-      <c r="AB17" s="986"/>
+      <c r="AB17" s="987"/>
       <c r="AC17" s="313"/>
       <c r="AG17" s="314"/>
       <c r="AH17" s="315"/>
@@ -20400,10 +20401,10 @@
       <c r="Z18" s="321" t="s">
         <v>69</v>
       </c>
-      <c r="AA18" s="987" t="s">
+      <c r="AA18" s="988" t="s">
         <v>69</v>
       </c>
-      <c r="AB18" s="987"/>
+      <c r="AB18" s="988"/>
       <c r="AC18" s="321" t="s">
         <v>69</v>
       </c>
@@ -20462,11 +20463,11 @@
         <f>CEILING($N$30/$Z$12,1)*$Z$17/$N$30*VLOOKUP($Z$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA19" s="971" t="e">
+      <c r="AA19" s="972" t="e">
         <f>$AA$17/$N$30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" s="971"/>
+      <c r="AB19" s="972"/>
       <c r="AC19" s="334" t="e">
         <f>$AC$28*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
@@ -20486,10 +20487,10 @@
       <c r="W20" s="226" t="s">
         <v>173</v>
       </c>
-      <c r="X20" s="989" t="s">
+      <c r="X20" s="990" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="989"/>
+      <c r="Y20" s="990"/>
       <c r="Z20" s="226" t="s">
         <v>175</v>
       </c>
@@ -20534,59 +20535,59 @@
       <c r="Q21" s="274"/>
       <c r="R21" s="274"/>
       <c r="W21" s="208"/>
-      <c r="X21" s="990" t="s">
+      <c r="X21" s="991" t="s">
         <v>116</v>
       </c>
-      <c r="Y21" s="991"/>
-      <c r="AB21" s="992" t="s">
+      <c r="Y21" s="992"/>
+      <c r="AB21" s="993" t="s">
         <v>101</v>
       </c>
-      <c r="AC21" s="993"/>
+      <c r="AC21" s="994"/>
       <c r="AD21" s="336" t="s">
         <v>121</v>
       </c>
-      <c r="AE21" s="994" t="s">
+      <c r="AE21" s="995" t="s">
         <v>179</v>
       </c>
-      <c r="AF21" s="995"/>
-      <c r="AG21" s="996"/>
-      <c r="AH21" s="997" t="s">
+      <c r="AF21" s="996"/>
+      <c r="AG21" s="997"/>
+      <c r="AH21" s="998" t="s">
         <v>180</v>
       </c>
-      <c r="AI21" s="1019" t="s">
+      <c r="AI21" s="1020" t="s">
         <v>181</v>
       </c>
-      <c r="AJ21" s="1020"/>
-      <c r="AK21" s="1020"/>
-      <c r="AL21" s="1020"/>
-      <c r="AM21" s="1021"/>
+      <c r="AJ21" s="1021"/>
+      <c r="AK21" s="1021"/>
+      <c r="AL21" s="1021"/>
+      <c r="AM21" s="1022"/>
       <c r="AN21" s="337"/>
       <c r="AO21" s="338"/>
-      <c r="AP21" s="1007" t="s">
+      <c r="AP21" s="1008" t="s">
         <v>182</v>
       </c>
-      <c r="AQ21" s="1008"/>
+      <c r="AQ21" s="1009"/>
       <c r="AR21" s="339" t="s">
         <v>68</v>
       </c>
       <c r="AS21" s="340"/>
-      <c r="AT21" s="1009" t="s">
+      <c r="AT21" s="1010" t="s">
         <v>103</v>
       </c>
-      <c r="AU21" s="1010"/>
+      <c r="AU21" s="1011"/>
       <c r="AV21" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="AW21" s="1011" t="s">
+      <c r="AW21" s="1012" t="s">
         <v>105</v>
       </c>
-      <c r="AX21" s="1012"/>
+      <c r="AX21" s="1013"/>
       <c r="AY21" s="201"/>
       <c r="AZ21" s="201"/>
-      <c r="BB21" s="1011" t="s">
+      <c r="BB21" s="1012" t="s">
         <v>183</v>
       </c>
-      <c r="BC21" s="1012"/>
+      <c r="BC21" s="1013"/>
     </row>
     <row r="22" spans="2:55" ht="21" customHeight="1">
       <c r="E22" s="200"/>
@@ -20604,93 +20605,93 @@
       <c r="O22" s="219" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="1013" t="s">
+      <c r="P22" s="1014" t="s">
         <v>184</v>
       </c>
-      <c r="Q22" s="1014"/>
+      <c r="Q22" s="1015"/>
       <c r="R22" s="343"/>
-      <c r="S22" s="1013" t="s">
+      <c r="S22" s="1014" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="1014"/>
-      <c r="U22" s="1013" t="s">
+      <c r="T22" s="1015"/>
+      <c r="U22" s="1014" t="s">
         <v>186</v>
       </c>
-      <c r="V22" s="1014"/>
-      <c r="W22" s="1013" t="s">
+      <c r="V22" s="1015"/>
+      <c r="W22" s="1014" t="s">
         <v>187</v>
       </c>
-      <c r="X22" s="1017" t="s">
+      <c r="X22" s="1018" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" s="1000" t="s">
+      <c r="Y22" s="1001" t="s">
         <v>118</v>
       </c>
-      <c r="Z22" s="1000" t="s">
+      <c r="Z22" s="1001" t="s">
         <v>188</v>
       </c>
-      <c r="AA22" s="1002" t="s">
+      <c r="AA22" s="1003" t="s">
         <v>100</v>
       </c>
       <c r="AB22" s="344"/>
       <c r="AC22" s="345"/>
-      <c r="AD22" s="1002" t="s">
+      <c r="AD22" s="1003" t="s">
         <v>189</v>
       </c>
-      <c r="AE22" s="1005" t="s">
+      <c r="AE22" s="1006" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" s="1029" t="s">
+      <c r="AF22" s="1030" t="s">
         <v>190</v>
       </c>
-      <c r="AG22" s="1031" t="s">
+      <c r="AG22" s="1032" t="s">
         <v>102</v>
       </c>
-      <c r="AH22" s="998"/>
-      <c r="AI22" s="1033" t="str">
+      <c r="AH22" s="999"/>
+      <c r="AI22" s="1034" t="str">
         <f>CONCATENATE(I12," ",H12)</f>
         <v>DAP Origin</v>
       </c>
-      <c r="AJ22" s="1034"/>
-      <c r="AK22" s="1033" t="s">
+      <c r="AJ22" s="1035"/>
+      <c r="AK22" s="1034" t="s">
         <v>191</v>
       </c>
-      <c r="AL22" s="1037"/>
-      <c r="AM22" s="1041" t="s">
+      <c r="AL22" s="1038"/>
+      <c r="AM22" s="1042" t="s">
         <v>192</v>
       </c>
-      <c r="AN22" s="1034" t="s">
+      <c r="AN22" s="1035" t="s">
         <v>193</v>
       </c>
-      <c r="AO22" s="1037"/>
-      <c r="AP22" s="1053" t="s">
+      <c r="AO22" s="1038"/>
+      <c r="AP22" s="1054" t="s">
         <v>107</v>
       </c>
-      <c r="AQ22" s="1053" t="s">
+      <c r="AQ22" s="1054" t="s">
         <v>194</v>
       </c>
-      <c r="AR22" s="1053" t="s">
+      <c r="AR22" s="1054" t="s">
         <v>195</v>
       </c>
-      <c r="AS22" s="1053" t="s">
+      <c r="AS22" s="1054" t="s">
         <v>196</v>
       </c>
-      <c r="AT22" s="1022" t="s">
+      <c r="AT22" s="1023" t="s">
         <v>194</v>
       </c>
-      <c r="AU22" s="1023"/>
-      <c r="AV22" s="1026" t="s">
+      <c r="AU22" s="1024"/>
+      <c r="AV22" s="1027" t="s">
         <v>197</v>
       </c>
-      <c r="AW22" s="1057"/>
-      <c r="AX22" s="1058"/>
+      <c r="AW22" s="1058"/>
+      <c r="AX22" s="1059"/>
       <c r="AY22" s="346" t="s">
         <v>198</v>
       </c>
       <c r="AZ22" s="346"/>
       <c r="BA22" s="346"/>
-      <c r="BB22" s="1057"/>
-      <c r="BC22" s="1058"/>
+      <c r="BB22" s="1058"/>
+      <c r="BC22" s="1059"/>
     </row>
     <row r="23" spans="2:55" ht="21" customHeight="1">
       <c r="D23" s="335" t="s">
@@ -20702,52 +20703,52 @@
       <c r="K23" s="335"/>
       <c r="M23" s="347"/>
       <c r="N23" s="201"/>
-      <c r="P23" s="1015"/>
-      <c r="Q23" s="1016"/>
+      <c r="P23" s="1016"/>
+      <c r="Q23" s="1017"/>
       <c r="R23" s="348"/>
-      <c r="S23" s="1015"/>
-      <c r="T23" s="1016"/>
-      <c r="U23" s="1015"/>
-      <c r="V23" s="1016"/>
-      <c r="W23" s="1015"/>
-      <c r="X23" s="1018"/>
-      <c r="Y23" s="1001"/>
-      <c r="Z23" s="1001"/>
-      <c r="AA23" s="1003"/>
+      <c r="S23" s="1016"/>
+      <c r="T23" s="1017"/>
+      <c r="U23" s="1016"/>
+      <c r="V23" s="1017"/>
+      <c r="W23" s="1016"/>
+      <c r="X23" s="1019"/>
+      <c r="Y23" s="1002"/>
+      <c r="Z23" s="1002"/>
+      <c r="AA23" s="1004"/>
       <c r="AB23" s="344"/>
       <c r="AC23" s="345"/>
-      <c r="AD23" s="1003"/>
-      <c r="AE23" s="1006"/>
-      <c r="AF23" s="1030"/>
-      <c r="AG23" s="1032"/>
-      <c r="AH23" s="998"/>
-      <c r="AI23" s="1035"/>
-      <c r="AJ23" s="1036"/>
-      <c r="AK23" s="1035"/>
-      <c r="AL23" s="1038"/>
-      <c r="AM23" s="1042"/>
-      <c r="AN23" s="1036"/>
-      <c r="AO23" s="1038"/>
-      <c r="AP23" s="1054"/>
-      <c r="AQ23" s="1054"/>
-      <c r="AR23" s="1054"/>
-      <c r="AS23" s="1054"/>
-      <c r="AT23" s="1024"/>
-      <c r="AU23" s="1025"/>
-      <c r="AV23" s="1027"/>
-      <c r="AW23" s="1059"/>
-      <c r="AX23" s="1060"/>
-      <c r="AY23" s="1036" t="s">
+      <c r="AD23" s="1004"/>
+      <c r="AE23" s="1007"/>
+      <c r="AF23" s="1031"/>
+      <c r="AG23" s="1033"/>
+      <c r="AH23" s="999"/>
+      <c r="AI23" s="1036"/>
+      <c r="AJ23" s="1037"/>
+      <c r="AK23" s="1036"/>
+      <c r="AL23" s="1039"/>
+      <c r="AM23" s="1043"/>
+      <c r="AN23" s="1037"/>
+      <c r="AO23" s="1039"/>
+      <c r="AP23" s="1055"/>
+      <c r="AQ23" s="1055"/>
+      <c r="AR23" s="1055"/>
+      <c r="AS23" s="1055"/>
+      <c r="AT23" s="1025"/>
+      <c r="AU23" s="1026"/>
+      <c r="AV23" s="1028"/>
+      <c r="AW23" s="1060"/>
+      <c r="AX23" s="1061"/>
+      <c r="AY23" s="1037" t="s">
         <v>200</v>
       </c>
-      <c r="AZ23" s="1036" t="s">
+      <c r="AZ23" s="1037" t="s">
         <v>201</v>
       </c>
-      <c r="BA23" s="1036" t="s">
+      <c r="BA23" s="1037" t="s">
         <v>202</v>
       </c>
-      <c r="BB23" s="1059"/>
-      <c r="BC23" s="1060"/>
+      <c r="BB23" s="1060"/>
+      <c r="BC23" s="1061"/>
     </row>
     <row r="24" spans="2:55" s="216" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="C24" s="306" t="s">
@@ -20787,19 +20788,19 @@
         <v>211</v>
       </c>
       <c r="O24" s="351"/>
-      <c r="P24" s="1047" t="s">
+      <c r="P24" s="1048" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" s="1048"/>
+      <c r="Q24" s="1049"/>
       <c r="R24" s="353" t="str">
         <f>CONCATENATE(P24,(" / Pc"))</f>
         <v>EUR / Pc</v>
       </c>
-      <c r="S24" s="1049" t="str">
+      <c r="S24" s="1050" t="str">
         <f>CONCATENATE(I17," ",H17)</f>
         <v>FCA Destination</v>
       </c>
-      <c r="T24" s="1050"/>
+      <c r="T24" s="1051"/>
       <c r="U24" s="352" t="s">
         <v>68</v>
       </c>
@@ -20811,11 +20812,11 @@
         <f>CONCATENATE(W16,(" / MT"))</f>
         <v>USD / MT</v>
       </c>
-      <c r="X24" s="1051" t="str">
+      <c r="X24" s="1052" t="str">
         <f>CONCATENATE(X16,(" / MT"))</f>
         <v>EUR / MT</v>
       </c>
-      <c r="Y24" s="1052"/>
+      <c r="Y24" s="1053"/>
       <c r="Z24" s="356" t="str">
         <f>CONCATENATE(Z16,(" / MT"))</f>
         <v>EUR / MT</v>
@@ -20831,7 +20832,7 @@
         <f>CONCATENATE(AA16,(" / MT"))</f>
         <v>EUR / MT</v>
       </c>
-      <c r="AD24" s="1004"/>
+      <c r="AD24" s="1005"/>
       <c r="AE24" s="359" t="s">
         <v>212</v>
       </c>
@@ -20841,15 +20842,15 @@
       <c r="AG24" s="360" t="s">
         <v>212</v>
       </c>
-      <c r="AH24" s="999"/>
+      <c r="AH24" s="1000"/>
       <c r="AI24" s="361" t="s">
         <v>213</v>
       </c>
       <c r="AJ24" s="362" t="s">
         <v>135</v>
       </c>
-      <c r="AK24" s="1039"/>
-      <c r="AL24" s="1040"/>
+      <c r="AK24" s="1040"/>
+      <c r="AL24" s="1041"/>
       <c r="AM24" s="328"/>
       <c r="AN24" s="232" t="str">
         <f>AJ24</f>
@@ -20876,14 +20877,14 @@
       <c r="AU24" s="365" t="s">
         <v>69</v>
       </c>
-      <c r="AV24" s="1028"/>
-      <c r="AW24" s="1061"/>
-      <c r="AX24" s="1062"/>
-      <c r="AY24" s="1036"/>
-      <c r="AZ24" s="1036"/>
-      <c r="BA24" s="1036"/>
-      <c r="BB24" s="1061"/>
-      <c r="BC24" s="1062"/>
+      <c r="AV24" s="1029"/>
+      <c r="AW24" s="1062"/>
+      <c r="AX24" s="1063"/>
+      <c r="AY24" s="1037"/>
+      <c r="AZ24" s="1037"/>
+      <c r="BA24" s="1037"/>
+      <c r="BB24" s="1062"/>
+      <c r="BC24" s="1063"/>
     </row>
     <row r="25" spans="2:55" s="366" customFormat="1" ht="21" customHeight="1">
       <c r="C25" s="367" t="str">
@@ -20966,12 +20967,12 @@
     </row>
     <row r="26" spans="2:55" s="406" customFormat="1" ht="21" customHeight="1">
       <c r="C26" s="407"/>
-      <c r="D26" s="1063"/>
-      <c r="E26" s="1064"/>
-      <c r="F26" s="1064"/>
-      <c r="G26" s="1064"/>
-      <c r="H26" s="1064"/>
-      <c r="I26" s="1064"/>
+      <c r="D26" s="1064"/>
+      <c r="E26" s="1065"/>
+      <c r="F26" s="1065"/>
+      <c r="G26" s="1065"/>
+      <c r="H26" s="1065"/>
+      <c r="I26" s="1065"/>
       <c r="J26" s="408"/>
       <c r="K26" s="409" t="s">
         <v>216</v>
@@ -21189,11 +21190,11 @@
       <c r="G28" s="200"/>
       <c r="J28" s="274"/>
       <c r="K28" s="335"/>
-      <c r="P28" s="1065" t="e">
+      <c r="P28" s="1066" t="e">
         <f>P29/$N$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="1066"/>
+      <c r="Q28" s="1067"/>
       <c r="R28" s="487"/>
       <c r="S28" s="487" t="e">
         <f>S29/$N$29</f>
@@ -21270,28 +21271,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AS28" s="503"/>
-      <c r="AT28" s="1067" t="e">
+      <c r="AT28" s="1068" t="e">
         <f>AT29/$AG$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU28" s="1068"/>
+      <c r="AU28" s="1069"/>
       <c r="AV28" s="504" t="e">
         <f>AV29/S29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW28" s="1069" t="e">
+      <c r="AW28" s="1070" t="e">
         <f>AW29/N29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX28" s="1070"/>
+      <c r="AX28" s="1071"/>
       <c r="AY28" s="505"/>
       <c r="AZ28" s="505"/>
       <c r="BA28" s="506"/>
-      <c r="BB28" s="1071" t="e">
+      <c r="BB28" s="1072" t="e">
         <f>BB29/P29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC28" s="1070"/>
+      <c r="BC28" s="1071"/>
     </row>
     <row r="29" spans="2:55" ht="21" customHeight="1">
       <c r="D29" s="485"/>
@@ -21307,11 +21308,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="508"/>
-      <c r="P29" s="1043">
+      <c r="P29" s="1044">
         <f>SUMPRODUCT($O$25:$O$27,P25:P27)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="1044"/>
+      <c r="Q29" s="1045"/>
       <c r="R29" s="487"/>
       <c r="S29" s="488">
         <f>SUMPRODUCT($O$25:$O$27,S25:S27)</f>
@@ -21394,28 +21395,28 @@
         <v>0</v>
       </c>
       <c r="AS29" s="502"/>
-      <c r="AT29" s="1045" t="e">
+      <c r="AT29" s="1046" t="e">
         <f>SUMPRODUCT(AT25:AT27,$AG$25:$AG$27,$N$25:$N$27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU29" s="1046"/>
+      <c r="AU29" s="1047"/>
       <c r="AV29" s="518">
         <f>SUMPRODUCT(AV25:AV27,$S$25:$S$27,$O$25:$O$27)</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="1055">
+      <c r="AW29" s="1056">
         <f>SUMPRODUCT(AW25:AW27,$O$25:$O$27)</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="1056"/>
+      <c r="AX29" s="1057"/>
       <c r="AY29" s="501"/>
       <c r="AZ29" s="501"/>
       <c r="BA29" s="519"/>
-      <c r="BB29" s="1055">
+      <c r="BB29" s="1056">
         <f>SUMPRODUCT(BB25:BB27,$O$25:$O$27)</f>
         <v>0</v>
       </c>
-      <c r="BC29" s="1056"/>
+      <c r="BC29" s="1057"/>
     </row>
     <row r="30" spans="2:55" ht="21" customHeight="1">
       <c r="D30" s="520"/>
@@ -21430,11 +21431,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="508"/>
-      <c r="P30" s="1043">
+      <c r="P30" s="1044">
         <f>P29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="1044"/>
+      <c r="Q30" s="1045"/>
       <c r="R30" s="487"/>
       <c r="S30" s="487">
         <f>S29*$G$19</f>
@@ -21514,28 +21515,28 @@
         <v>0</v>
       </c>
       <c r="AS30" s="502"/>
-      <c r="AT30" s="1072" t="e">
+      <c r="AT30" s="1073" t="e">
         <f>AT29*$G$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU30" s="1046"/>
+      <c r="AU30" s="1047"/>
       <c r="AV30" s="518">
         <f>AV29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="1055">
+      <c r="AW30" s="1056">
         <f>AW29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="AX30" s="1056"/>
+      <c r="AX30" s="1057"/>
       <c r="AY30" s="501"/>
       <c r="AZ30" s="501"/>
       <c r="BA30" s="519"/>
-      <c r="BB30" s="1055">
+      <c r="BB30" s="1056">
         <f>BB29*$G$19</f>
         <v>0</v>
       </c>
-      <c r="BC30" s="1056"/>
+      <c r="BC30" s="1057"/>
     </row>
     <row r="31" spans="2:55" ht="21" customHeight="1" thickBot="1">
       <c r="D31" s="448"/>
@@ -21550,8 +21551,8 @@
       <c r="M31" s="327"/>
       <c r="N31" s="327"/>
       <c r="O31" s="242"/>
-      <c r="P31" s="1073"/>
-      <c r="Q31" s="1074"/>
+      <c r="P31" s="1074"/>
+      <c r="Q31" s="1075"/>
       <c r="R31" s="456"/>
       <c r="S31" s="456"/>
       <c r="T31" s="521"/>
@@ -21589,16 +21590,16 @@
         <v>USD/MT</v>
       </c>
       <c r="AS31" s="535"/>
-      <c r="AT31" s="1075"/>
-      <c r="AU31" s="1076"/>
+      <c r="AT31" s="1076"/>
+      <c r="AU31" s="1077"/>
       <c r="AV31" s="536"/>
-      <c r="AW31" s="1077"/>
-      <c r="AX31" s="1078"/>
+      <c r="AW31" s="1078"/>
+      <c r="AX31" s="1079"/>
       <c r="AY31" s="501"/>
       <c r="AZ31" s="501"/>
       <c r="BA31" s="519"/>
-      <c r="BB31" s="1077"/>
-      <c r="BC31" s="1078"/>
+      <c r="BB31" s="1078"/>
+      <c r="BC31" s="1079"/>
     </row>
     <row r="32" spans="2:55" ht="21" customHeight="1" thickBot="1">
       <c r="D32" s="216"/>
@@ -21609,14 +21610,14 @@
       <c r="P32" s="274"/>
       <c r="Q32" s="274"/>
       <c r="R32" s="208"/>
-      <c r="S32" s="1088" t="e">
+      <c r="S32" s="1089" t="e">
         <f>S30*VLOOKUP($P$24,$AG$13:$AI$18,3,FALSE)+V30*VLOOKUP($U$24,$AG$13:$AI$18,3,FALSE)+W30*VLOOKUP($W$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="1089"/>
-      <c r="U32" s="1089"/>
-      <c r="V32" s="1089"/>
-      <c r="W32" s="1090"/>
+      <c r="T32" s="1090"/>
+      <c r="U32" s="1090"/>
+      <c r="V32" s="1090"/>
+      <c r="W32" s="1091"/>
       <c r="X32" s="219"/>
       <c r="Y32" s="537"/>
       <c r="Z32" s="537"/>
@@ -21624,12 +21625,12 @@
       <c r="AB32" s="537"/>
       <c r="AC32" s="538"/>
       <c r="AD32" s="335"/>
-      <c r="AE32" s="1091" t="e">
+      <c r="AE32" s="1092" t="e">
         <f>AG30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF32" s="1092"/>
-      <c r="AG32" s="1093"/>
+      <c r="AF32" s="1093"/>
+      <c r="AG32" s="1094"/>
       <c r="AH32" s="283"/>
       <c r="AI32" s="539">
         <f>AI30</f>
@@ -21642,37 +21643,37 @@
       <c r="AK32" s="540"/>
       <c r="AL32" s="540"/>
       <c r="AM32" s="285"/>
-      <c r="AN32" s="1096"/>
-      <c r="AO32" s="1041"/>
-      <c r="AP32" s="1100" t="e">
+      <c r="AN32" s="1097"/>
+      <c r="AO32" s="1042"/>
+      <c r="AP32" s="1101" t="e">
         <f>AP30+AQ30+AR30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ32" s="1101"/>
-      <c r="AR32" s="1101"/>
-      <c r="AS32" s="1102"/>
-      <c r="AT32" s="1091" t="e">
+      <c r="AQ32" s="1102"/>
+      <c r="AR32" s="1102"/>
+      <c r="AS32" s="1103"/>
+      <c r="AT32" s="1092" t="e">
         <f>AT30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU32" s="1093"/>
-      <c r="AV32" s="1091">
+      <c r="AU32" s="1094"/>
+      <c r="AV32" s="1092">
         <f>AV30</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="1079">
+      <c r="AW32" s="1080">
         <f>AW30</f>
         <v>0</v>
       </c>
-      <c r="AX32" s="1080"/>
+      <c r="AX32" s="1081"/>
       <c r="AY32" s="501"/>
       <c r="AZ32" s="501"/>
       <c r="BA32" s="519"/>
-      <c r="BB32" s="1079">
+      <c r="BB32" s="1080">
         <f>BB30</f>
         <v>0</v>
       </c>
-      <c r="BC32" s="1080"/>
+      <c r="BC32" s="1081"/>
     </row>
     <row r="33" spans="4:56" ht="21" customHeight="1" thickBot="1">
       <c r="H33" s="201"/>
@@ -21686,46 +21687,46 @@
       <c r="P33" s="274"/>
       <c r="Q33" s="274"/>
       <c r="R33" s="208"/>
-      <c r="S33" s="1083" t="e">
+      <c r="S33" s="1084" t="e">
         <f>S32+X30*VLOOKUP($X$16,$AG$13:$AI$18,3,FALSE)+Y30*VLOOKUP($X$16,$AG$13:$AI$18,3,FALSE)+Z30*VLOOKUP($Z$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="1084"/>
-      <c r="U33" s="1084"/>
-      <c r="V33" s="1084"/>
-      <c r="W33" s="1084"/>
-      <c r="X33" s="1084"/>
-      <c r="Y33" s="1084"/>
-      <c r="Z33" s="1085"/>
+      <c r="T33" s="1085"/>
+      <c r="U33" s="1085"/>
+      <c r="V33" s="1085"/>
+      <c r="W33" s="1085"/>
+      <c r="X33" s="1085"/>
+      <c r="Y33" s="1085"/>
+      <c r="Z33" s="1086"/>
       <c r="AA33" s="571"/>
       <c r="AB33" s="542"/>
       <c r="AC33" s="543"/>
       <c r="AD33" s="335"/>
-      <c r="AE33" s="1079"/>
-      <c r="AF33" s="1094"/>
-      <c r="AG33" s="1080"/>
+      <c r="AE33" s="1080"/>
+      <c r="AF33" s="1095"/>
+      <c r="AG33" s="1081"/>
       <c r="AH33" s="216"/>
       <c r="AI33" s="544"/>
       <c r="AJ33" s="232"/>
       <c r="AK33" s="545"/>
       <c r="AL33" s="545"/>
       <c r="AM33" s="266"/>
-      <c r="AN33" s="1097"/>
-      <c r="AO33" s="1042"/>
-      <c r="AP33" s="1103"/>
-      <c r="AQ33" s="1104"/>
-      <c r="AR33" s="1104"/>
-      <c r="AS33" s="1105"/>
-      <c r="AT33" s="1079"/>
-      <c r="AU33" s="1080"/>
-      <c r="AV33" s="1079"/>
-      <c r="AW33" s="1079"/>
-      <c r="AX33" s="1080"/>
+      <c r="AN33" s="1098"/>
+      <c r="AO33" s="1043"/>
+      <c r="AP33" s="1104"/>
+      <c r="AQ33" s="1105"/>
+      <c r="AR33" s="1105"/>
+      <c r="AS33" s="1106"/>
+      <c r="AT33" s="1080"/>
+      <c r="AU33" s="1081"/>
+      <c r="AV33" s="1080"/>
+      <c r="AW33" s="1080"/>
+      <c r="AX33" s="1081"/>
       <c r="AY33" s="501"/>
       <c r="AZ33" s="501"/>
       <c r="BA33" s="519"/>
-      <c r="BB33" s="1079"/>
-      <c r="BC33" s="1080"/>
+      <c r="BB33" s="1080"/>
+      <c r="BC33" s="1081"/>
     </row>
     <row r="34" spans="4:56" ht="21" customHeight="1" thickBot="1">
       <c r="H34" s="201"/>
@@ -21737,46 +21738,46 @@
       <c r="P34" s="274"/>
       <c r="Q34" s="274"/>
       <c r="R34" s="208"/>
-      <c r="S34" s="1086" t="e">
+      <c r="S34" s="1087" t="e">
         <f>S33+AA30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)+AC30*VLOOKUP($AA$16,$AG$13:$AI$18,3,FALSE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="1084"/>
-      <c r="U34" s="1084"/>
-      <c r="V34" s="1084"/>
-      <c r="W34" s="1084"/>
-      <c r="X34" s="1084"/>
-      <c r="Y34" s="1084"/>
-      <c r="Z34" s="1084"/>
-      <c r="AA34" s="1084"/>
-      <c r="AB34" s="1084"/>
-      <c r="AC34" s="1085"/>
+      <c r="T34" s="1085"/>
+      <c r="U34" s="1085"/>
+      <c r="V34" s="1085"/>
+      <c r="W34" s="1085"/>
+      <c r="X34" s="1085"/>
+      <c r="Y34" s="1085"/>
+      <c r="Z34" s="1085"/>
+      <c r="AA34" s="1085"/>
+      <c r="AB34" s="1085"/>
+      <c r="AC34" s="1086"/>
       <c r="AD34" s="335"/>
-      <c r="AE34" s="1081"/>
-      <c r="AF34" s="1095"/>
-      <c r="AG34" s="1082"/>
+      <c r="AE34" s="1082"/>
+      <c r="AF34" s="1096"/>
+      <c r="AG34" s="1083"/>
       <c r="AH34" s="546"/>
       <c r="AI34" s="547"/>
       <c r="AJ34" s="248"/>
       <c r="AK34" s="548"/>
       <c r="AL34" s="548"/>
       <c r="AM34" s="299"/>
-      <c r="AN34" s="1098"/>
-      <c r="AO34" s="1099"/>
-      <c r="AP34" s="1106"/>
-      <c r="AQ34" s="1107"/>
-      <c r="AR34" s="1107"/>
-      <c r="AS34" s="1108"/>
-      <c r="AT34" s="1081"/>
-      <c r="AU34" s="1082"/>
-      <c r="AV34" s="1081"/>
-      <c r="AW34" s="1081"/>
-      <c r="AX34" s="1082"/>
+      <c r="AN34" s="1099"/>
+      <c r="AO34" s="1100"/>
+      <c r="AP34" s="1107"/>
+      <c r="AQ34" s="1108"/>
+      <c r="AR34" s="1108"/>
+      <c r="AS34" s="1109"/>
+      <c r="AT34" s="1082"/>
+      <c r="AU34" s="1083"/>
+      <c r="AV34" s="1082"/>
+      <c r="AW34" s="1082"/>
+      <c r="AX34" s="1083"/>
       <c r="AY34" s="501"/>
       <c r="AZ34" s="501"/>
       <c r="BA34" s="519"/>
-      <c r="BB34" s="1081"/>
-      <c r="BC34" s="1082"/>
+      <c r="BB34" s="1082"/>
+      <c r="BC34" s="1083"/>
     </row>
     <row r="35" spans="4:56" ht="21" customHeight="1">
       <c r="H35" s="201"/>
@@ -21863,8 +21864,8 @@
       <c r="Z37" s="552"/>
       <c r="AA37" s="551"/>
       <c r="AC37" s="200"/>
-      <c r="AF37" s="1087"/>
-      <c r="AG37" s="1087"/>
+      <c r="AF37" s="1088"/>
+      <c r="AG37" s="1088"/>
       <c r="AH37" s="553"/>
       <c r="AI37" s="554"/>
       <c r="AK37" s="555"/>
@@ -21907,8 +21908,8 @@
       <c r="Z38" s="552"/>
       <c r="AA38" s="551"/>
       <c r="AC38" s="200"/>
-      <c r="AF38" s="1087"/>
-      <c r="AG38" s="1087"/>
+      <c r="AF38" s="1088"/>
+      <c r="AG38" s="1088"/>
       <c r="AH38" s="553"/>
       <c r="AI38" s="554"/>
       <c r="AK38" s="555"/>
@@ -21951,8 +21952,8 @@
       <c r="Z39" s="551"/>
       <c r="AA39" s="200"/>
       <c r="AC39" s="200"/>
-      <c r="AE39" s="1087"/>
-      <c r="AF39" s="1087"/>
+      <c r="AE39" s="1088"/>
+      <c r="AF39" s="1088"/>
       <c r="AG39" s="553"/>
       <c r="AH39" s="554"/>
       <c r="AI39" s="201"/>
@@ -21995,8 +21996,8 @@
       <c r="Z40" s="552"/>
       <c r="AA40" s="200"/>
       <c r="AC40" s="200"/>
-      <c r="AE40" s="1087"/>
-      <c r="AF40" s="1087"/>
+      <c r="AE40" s="1088"/>
+      <c r="AF40" s="1088"/>
       <c r="AG40" s="553"/>
       <c r="AH40" s="554"/>
       <c r="AI40" s="201"/>
@@ -22040,8 +22041,8 @@
       <c r="Z41" s="552"/>
       <c r="AA41" s="200"/>
       <c r="AC41" s="200"/>
-      <c r="AE41" s="1087"/>
-      <c r="AF41" s="1087"/>
+      <c r="AE41" s="1088"/>
+      <c r="AF41" s="1088"/>
       <c r="AG41" s="553"/>
       <c r="AH41" s="554"/>
       <c r="AI41" s="201"/>
@@ -22085,8 +22086,8 @@
       <c r="Z42" s="552"/>
       <c r="AA42" s="200"/>
       <c r="AC42" s="200"/>
-      <c r="AE42" s="1087"/>
-      <c r="AF42" s="1087"/>
+      <c r="AE42" s="1088"/>
+      <c r="AF42" s="1088"/>
       <c r="AG42" s="553"/>
       <c r="AH42" s="554"/>
       <c r="AI42" s="201"/>
@@ -35201,20 +35202,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="44.25" customHeight="1">
-      <c r="D4" s="1147" t="s">
+      <c r="D4" s="1148" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="1147"/>
-      <c r="F4" s="1147"/>
-      <c r="G4" s="1147"/>
-      <c r="H4" s="1147"/>
-      <c r="I4" s="1147"/>
-      <c r="J4" s="1147"/>
-      <c r="K4" s="1147"/>
-      <c r="L4" s="1147"/>
-      <c r="M4" s="1147"/>
-      <c r="N4" s="1147"/>
-      <c r="O4" s="1147"/>
+      <c r="E4" s="1148"/>
+      <c r="F4" s="1148"/>
+      <c r="G4" s="1148"/>
+      <c r="H4" s="1148"/>
+      <c r="I4" s="1148"/>
+      <c r="J4" s="1148"/>
+      <c r="K4" s="1148"/>
+      <c r="L4" s="1148"/>
+      <c r="M4" s="1148"/>
+      <c r="N4" s="1148"/>
+      <c r="O4" s="1148"/>
       <c r="P4" s="72"/>
       <c r="Q4" s="72"/>
     </row>
@@ -35233,11 +35234,11 @@
       <c r="Q6" s="74"/>
     </row>
     <row r="7" spans="4:19" ht="44.25" customHeight="1" thickBot="1">
-      <c r="D7" s="1152" t="str">
+      <c r="D7" s="1153" t="str">
         <f>"PRODUCTION ORDER 生产订单号"</f>
         <v>PRODUCTION ORDER 生产订单号</v>
       </c>
-      <c r="E7" s="1152"/>
+      <c r="E7" s="1153"/>
       <c r="F7" s="114" t="s">
         <v>453</v>
       </c>
@@ -35245,13 +35246,13 @@
       <c r="H7" s="567" t="s">
         <v>454</v>
       </c>
-      <c r="I7" s="1148"/>
-      <c r="J7" s="1148"/>
+      <c r="I7" s="1149"/>
+      <c r="J7" s="1149"/>
       <c r="K7" s="579" t="s">
         <v>455</v>
       </c>
-      <c r="L7" s="1149"/>
-      <c r="M7" s="1149"/>
+      <c r="L7" s="1150"/>
+      <c r="M7" s="1150"/>
       <c r="N7" s="114" t="s">
         <v>131</v>
       </c>
@@ -35265,22 +35266,22 @@
     <row r="8" spans="4:19" ht="10" customHeight="1"/>
     <row r="9" spans="4:19" ht="7.5" customHeight="1"/>
     <row r="10" spans="4:19" s="85" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="D10" s="1146" t="s">
+      <c r="D10" s="1147" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="1146"/>
-      <c r="F10" s="1148"/>
-      <c r="G10" s="1148"/>
-      <c r="H10" s="1148"/>
-      <c r="I10" s="1148"/>
-      <c r="J10" s="1150" t="s">
+      <c r="E10" s="1147"/>
+      <c r="F10" s="1149"/>
+      <c r="G10" s="1149"/>
+      <c r="H10" s="1149"/>
+      <c r="I10" s="1149"/>
+      <c r="J10" s="1151" t="s">
         <v>456</v>
       </c>
-      <c r="K10" s="1150"/>
-      <c r="L10" s="1150"/>
-      <c r="M10" s="1151"/>
-      <c r="N10" s="1151"/>
-      <c r="O10" s="1151"/>
+      <c r="K10" s="1151"/>
+      <c r="L10" s="1151"/>
+      <c r="M10" s="1152"/>
+      <c r="N10" s="1152"/>
+      <c r="O10" s="1152"/>
       <c r="P10" s="74"/>
       <c r="Q10" s="74"/>
     </row>
@@ -35300,20 +35301,20 @@
       <c r="Q11" s="74"/>
     </row>
     <row r="12" spans="4:19" s="85" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="D12" s="1146" t="s">
+      <c r="D12" s="1147" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="1146"/>
-      <c r="F12" s="1136"/>
-      <c r="G12" s="1136"/>
-      <c r="H12" s="1136"/>
-      <c r="I12" s="1136"/>
-      <c r="J12" s="1136"/>
-      <c r="K12" s="1136"/>
-      <c r="L12" s="1136"/>
-      <c r="M12" s="1136"/>
-      <c r="N12" s="1136"/>
-      <c r="O12" s="1136"/>
+      <c r="E12" s="1147"/>
+      <c r="F12" s="1137"/>
+      <c r="G12" s="1137"/>
+      <c r="H12" s="1137"/>
+      <c r="I12" s="1137"/>
+      <c r="J12" s="1137"/>
+      <c r="K12" s="1137"/>
+      <c r="L12" s="1137"/>
+      <c r="M12" s="1137"/>
+      <c r="N12" s="1137"/>
+      <c r="O12" s="1137"/>
       <c r="P12" s="74"/>
       <c r="Q12" s="74"/>
     </row>
@@ -35435,11 +35436,11 @@
     </row>
     <row r="20" spans="4:18" ht="19.5" customHeight="1"/>
     <row r="21" spans="4:18" ht="20" customHeight="1">
-      <c r="D21" s="1143"/>
-      <c r="E21" s="1144"/>
-      <c r="F21" s="1144"/>
-      <c r="G21" s="1144"/>
-      <c r="H21" s="1145"/>
+      <c r="D21" s="1144"/>
+      <c r="E21" s="1145"/>
+      <c r="F21" s="1145"/>
+      <c r="G21" s="1145"/>
+      <c r="H21" s="1146"/>
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
@@ -35451,10 +35452,10 @@
       <c r="D22" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="1139"/>
-      <c r="F22" s="1139"/>
-      <c r="G22" s="1139"/>
-      <c r="H22" s="1140"/>
+      <c r="E22" s="1140"/>
+      <c r="F22" s="1140"/>
+      <c r="G22" s="1140"/>
+      <c r="H22" s="1141"/>
       <c r="I22" s="85"/>
       <c r="J22" s="85"/>
       <c r="K22" s="85"/>
@@ -35466,10 +35467,10 @@
       <c r="D23" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="1139"/>
-      <c r="F23" s="1139"/>
-      <c r="G23" s="1139"/>
-      <c r="H23" s="1140"/>
+      <c r="E23" s="1140"/>
+      <c r="F23" s="1140"/>
+      <c r="G23" s="1140"/>
+      <c r="H23" s="1141"/>
       <c r="I23" s="85"/>
       <c r="J23" s="85"/>
       <c r="K23" s="85"/>
@@ -35481,10 +35482,10 @@
       <c r="D24" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="1141"/>
-      <c r="F24" s="1141"/>
-      <c r="G24" s="1141"/>
-      <c r="H24" s="1142"/>
+      <c r="E24" s="1142"/>
+      <c r="F24" s="1142"/>
+      <c r="G24" s="1142"/>
+      <c r="H24" s="1143"/>
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
       <c r="K24" s="85"/>
@@ -35496,12 +35497,12 @@
       <c r="D25" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="1137" t="s">
+      <c r="E25" s="1138" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="1137"/>
-      <c r="G25" s="1137"/>
-      <c r="H25" s="1138"/>
+      <c r="F25" s="1138"/>
+      <c r="G25" s="1138"/>
+      <c r="H25" s="1139"/>
       <c r="I25" s="85"/>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
@@ -35513,12 +35514,12 @@
       <c r="D26" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1137" t="s">
+      <c r="E26" s="1138" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="1137"/>
-      <c r="G26" s="1137"/>
-      <c r="H26" s="1138"/>
+      <c r="F26" s="1138"/>
+      <c r="G26" s="1138"/>
+      <c r="H26" s="1139"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="85"/>
@@ -35629,10 +35630,10 @@
       <c r="D34" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1159"/>
-      <c r="F34" s="1159"/>
-      <c r="G34" s="1159"/>
-      <c r="H34" s="1159"/>
+      <c r="E34" s="1160"/>
+      <c r="F34" s="1160"/>
+      <c r="G34" s="1160"/>
+      <c r="H34" s="1160"/>
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
@@ -35657,13 +35658,13 @@
       <c r="A36" s="85"/>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
-      <c r="D36" s="1160" t="s">
+      <c r="D36" s="1161" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="1161"/>
-      <c r="F36" s="1161"/>
-      <c r="G36" s="1161"/>
-      <c r="H36" s="1162"/>
+      <c r="E36" s="1162"/>
+      <c r="F36" s="1162"/>
+      <c r="G36" s="1162"/>
+      <c r="H36" s="1163"/>
       <c r="I36" s="85"/>
       <c r="J36" s="85"/>
       <c r="K36" s="74"/>
@@ -35919,10 +35920,10 @@
       <c r="F37" s="591" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="1165" t="s">
+      <c r="G37" s="1166" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="1166"/>
+      <c r="H37" s="1167"/>
       <c r="I37" s="85"/>
       <c r="J37" s="85"/>
       <c r="K37" s="74"/>
@@ -36178,8 +36179,8 @@
       <c r="F38" s="592" t="s">
         <v>449</v>
       </c>
-      <c r="G38" s="1163"/>
-      <c r="H38" s="1164"/>
+      <c r="G38" s="1164"/>
+      <c r="H38" s="1165"/>
       <c r="I38" s="85"/>
       <c r="J38" s="85"/>
       <c r="K38" s="74"/>
@@ -36433,8 +36434,8 @@
       </c>
       <c r="E39" s="590"/>
       <c r="F39" s="592"/>
-      <c r="G39" s="1163"/>
-      <c r="H39" s="1164"/>
+      <c r="G39" s="1164"/>
+      <c r="H39" s="1165"/>
       <c r="I39" s="85"/>
       <c r="J39" s="85"/>
       <c r="K39" s="74"/>
@@ -36690,10 +36691,10 @@
       <c r="F40" s="592" t="s">
         <v>448</v>
       </c>
-      <c r="G40" s="1163" t="s">
+      <c r="G40" s="1164" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="1164"/>
+      <c r="H40" s="1165"/>
       <c r="I40" s="85"/>
       <c r="J40" s="85"/>
       <c r="K40" s="74"/>
@@ -36949,8 +36950,8 @@
       <c r="F41" s="592" t="s">
         <v>451</v>
       </c>
-      <c r="G41" s="1163"/>
-      <c r="H41" s="1164"/>
+      <c r="G41" s="1164"/>
+      <c r="H41" s="1165"/>
       <c r="I41" s="85"/>
       <c r="J41" s="85"/>
       <c r="K41" s="74"/>
@@ -37204,8 +37205,8 @@
       </c>
       <c r="E42" s="590"/>
       <c r="F42" s="593"/>
-      <c r="G42" s="1153"/>
-      <c r="H42" s="1154"/>
+      <c r="G42" s="1154"/>
+      <c r="H42" s="1155"/>
       <c r="I42" s="85"/>
       <c r="J42" s="85"/>
       <c r="K42" s="74"/>
@@ -37459,8 +37460,8 @@
       </c>
       <c r="E43" s="590"/>
       <c r="F43" s="593"/>
-      <c r="G43" s="1153"/>
-      <c r="H43" s="1154"/>
+      <c r="G43" s="1154"/>
+      <c r="H43" s="1155"/>
       <c r="I43" s="85"/>
       <c r="J43" s="85"/>
       <c r="K43" s="74"/>
@@ -37714,8 +37715,8 @@
       </c>
       <c r="E44" s="590"/>
       <c r="F44" s="593"/>
-      <c r="G44" s="1153"/>
-      <c r="H44" s="1154"/>
+      <c r="G44" s="1154"/>
+      <c r="H44" s="1155"/>
       <c r="I44" s="85"/>
       <c r="J44" s="85"/>
       <c r="K44" s="74"/>
@@ -37970,8 +37971,8 @@
       <c r="F45" s="592" t="s">
         <v>448</v>
       </c>
-      <c r="G45" s="1163"/>
-      <c r="H45" s="1164"/>
+      <c r="G45" s="1164"/>
+      <c r="H45" s="1165"/>
       <c r="L45" s="575"/>
     </row>
     <row r="46" spans="1:251" ht="16">
@@ -37983,8 +37984,8 @@
       </c>
       <c r="E46" s="590"/>
       <c r="F46" s="593"/>
-      <c r="G46" s="1153"/>
-      <c r="H46" s="1154"/>
+      <c r="G46" s="1154"/>
+      <c r="H46" s="1155"/>
       <c r="I46" s="85"/>
       <c r="J46" s="85"/>
       <c r="K46" s="74"/>
@@ -38238,10 +38239,10 @@
       </c>
       <c r="E47" s="590"/>
       <c r="F47" s="593"/>
-      <c r="G47" s="1155" t="s">
+      <c r="G47" s="1156" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="1156"/>
+      <c r="H47" s="1157"/>
       <c r="I47" s="85"/>
       <c r="J47" s="85"/>
       <c r="K47" s="74"/>
@@ -38495,10 +38496,10 @@
       </c>
       <c r="E48" s="590"/>
       <c r="F48" s="593"/>
-      <c r="G48" s="1157" t="s">
+      <c r="G48" s="1158" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="1158"/>
+      <c r="H48" s="1159"/>
       <c r="I48" s="85"/>
       <c r="J48" s="85"/>
       <c r="K48" s="74"/>
